--- a/path.xlsx
+++ b/path.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ark1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,12 +14,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>#</t>
   </si>
   <si>
+    <t>h1.25a</t>
+  </si>
+  <si>
+    <t>h1.25b</t>
+  </si>
+  <si>
+    <t>h1.25c</t>
+  </si>
+  <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>h1.25d</t>
+  </si>
+  <si>
+    <t>h1.08d</t>
+  </si>
+  <si>
+    <t>h1.08b</t>
+  </si>
+  <si>
+    <t>h1.15f</t>
+  </si>
+  <si>
+    <t>h1.08m</t>
+  </si>
+  <si>
+    <t>h1.o8i</t>
+  </si>
+  <si>
+    <t>h1.08j</t>
+  </si>
+  <si>
+    <t>h1.08k</t>
+  </si>
+  <si>
+    <t>h1.08l</t>
+  </si>
+  <si>
+    <t>h1.17</t>
+  </si>
+  <si>
+    <t>h1.08n</t>
+  </si>
+  <si>
+    <t>h1.08f</t>
+  </si>
+  <si>
+    <t>h1.17b</t>
+  </si>
+  <si>
+    <t>h1.08g</t>
+  </si>
+  <si>
+    <t>h1.08h</t>
+  </si>
+  <si>
+    <t>h1.17d</t>
+  </si>
+  <si>
+    <t>kantinen</t>
   </si>
 </sst>
 </file>
@@ -38,7 +98,6 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
       <sz val="12"/>
       <scheme val="minor"/>
     </font>
@@ -91,7 +150,7 @@
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -350,7 +409,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -364,16 +423,16 @@
   </sheetPr>
   <dimension ref="A1:OQ407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CP155" workbookViewId="0" zoomScale="75">
-      <selection activeCell="DX179" sqref="DX179"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0" zoomScale="25" zoomScaleNormal="25">
+      <selection activeCell="CQ128" sqref="CQ128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="2.33203125" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="2.375" defaultRowHeight="14.1" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="3" width="2.33203125"/>
+    <col customWidth="1" max="16384" min="1" style="3" width="2.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:407">
+    <row customHeight="1" ht="14.1" r="1" spans="1:407">
       <c r="IJ1" s="2" t="s">
         <v>0</v>
       </c>
@@ -498,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:407">
+    <row customHeight="1" ht="14.1" r="2" spans="1:407">
       <c r="IJ2" s="2" t="s">
         <v>0</v>
       </c>
@@ -530,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:407">
+    <row customHeight="1" ht="14.1" r="3" spans="1:407">
       <c r="IJ3" s="2" t="s">
         <v>0</v>
       </c>
@@ -559,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:407">
+    <row customHeight="1" ht="14.1" r="4" spans="1:407">
       <c r="IJ4" s="2" t="s">
         <v>0</v>
       </c>
@@ -601,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:407">
+    <row customHeight="1" ht="14.1" r="5" spans="1:407">
       <c r="IE5" s="2" t="s">
         <v>0</v>
       </c>
@@ -622,7 +681,9 @@
       </c>
       <c r="IK5" s="3" t="n"/>
       <c r="IL5" s="3" t="n"/>
-      <c r="IM5" s="3" t="n"/>
+      <c r="IM5" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="IN5" s="3" t="n"/>
       <c r="IT5" s="2" t="s">
         <v>0</v>
@@ -715,7 +776,9 @@
         <v>0</v>
       </c>
       <c r="JX5" s="3" t="n"/>
-      <c r="JY5" s="3" t="n"/>
+      <c r="JY5" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="JZ5" s="3" t="n"/>
       <c r="KG5" s="2" t="s">
         <v>0</v>
@@ -861,6 +924,9 @@
       <c r="MB5" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="MF5" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="MM5" s="2" t="s">
         <v>0</v>
       </c>
@@ -877,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:407">
+    <row customHeight="1" ht="14.1" r="6" spans="1:407">
       <c r="IE6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1192,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:407">
+    <row customHeight="1" ht="14.1" r="7" spans="1:407">
       <c r="IE7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:407">
+    <row customHeight="1" ht="14.1" r="8" spans="1:407">
       <c r="IE8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:407">
+    <row customHeight="1" ht="14.1" r="9" spans="1:407">
       <c r="IE9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:407">
+    <row customHeight="1" ht="14.1" r="10" spans="1:407">
       <c r="IE10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:407">
+    <row customHeight="1" ht="14.1" r="11" spans="1:407">
       <c r="IE11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1349,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:407">
+    <row customHeight="1" ht="14.1" r="12" spans="1:407">
       <c r="IE12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1363,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:407">
+    <row customHeight="1" ht="14.1" r="13" spans="1:407">
       <c r="IE13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:407">
+    <row customHeight="1" ht="14.1" r="14" spans="1:407">
       <c r="IE14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:407">
+    <row customHeight="1" ht="14.1" r="15" spans="1:407">
       <c r="HZ15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:407">
+    <row customHeight="1" ht="14.1" r="16" spans="1:407">
       <c r="HZ16" s="2" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:407">
+    <row customHeight="1" ht="14.1" r="17" spans="1:407">
       <c r="HZ17" s="2" t="s">
         <v>0</v>
       </c>
@@ -1466,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:407">
+    <row customHeight="1" ht="14.1" r="18" spans="1:407">
       <c r="HZ18" s="2" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:407">
+    <row customHeight="1" ht="14.1" r="19" spans="1:407">
       <c r="HZ19" s="2" t="s">
         <v>0</v>
       </c>
@@ -1500,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:407">
+    <row customHeight="1" ht="14.1" r="20" spans="1:407">
       <c r="HZ20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:407">
+    <row customHeight="1" ht="14.1" r="21" spans="1:407">
       <c r="HZ21" s="2" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:407">
+    <row customHeight="1" ht="14.1" r="22" spans="1:407">
       <c r="HZ22" s="2" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:407">
+    <row customHeight="1" ht="14.1" r="23" spans="1:407">
       <c r="HZ23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:407">
+    <row customHeight="1" ht="14.1" r="24" spans="1:407">
       <c r="HZ24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1615,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:407">
+    <row customHeight="1" ht="14.1" r="25" spans="1:407">
       <c r="HZ25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:407">
+    <row customHeight="1" ht="14.1" r="26" spans="1:407">
       <c r="HZ26" s="2" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:407">
+    <row customHeight="1" ht="14.1" r="27" spans="1:407">
       <c r="HZ27" s="2" t="s">
         <v>0</v>
       </c>
@@ -1696,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:407">
+    <row customHeight="1" ht="14.1" r="28" spans="1:407">
       <c r="HZ28" s="2" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:407">
+    <row customHeight="1" ht="14.1" r="29" spans="1:407">
       <c r="HZ29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1742,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:407">
+    <row customHeight="1" ht="14.1" r="30" spans="1:407">
       <c r="HZ30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1759,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:407">
+    <row customHeight="1" ht="14.1" r="31" spans="1:407">
       <c r="HZ31" s="2" t="s">
         <v>0</v>
       </c>
@@ -1776,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:407">
+    <row customHeight="1" ht="14.1" r="32" spans="1:407">
       <c r="HZ32" s="2" t="s">
         <v>0</v>
       </c>
@@ -1805,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:407">
+    <row customHeight="1" ht="14.1" r="33" spans="1:407">
       <c r="HZ33" s="2" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:407">
+    <row customHeight="1" ht="14.1" r="34" spans="1:407">
       <c r="HZ34" s="2" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:407">
+    <row customHeight="1" ht="14.1" r="35" spans="1:407">
       <c r="HZ35" s="2" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:407">
+    <row customHeight="1" ht="14.1" r="36" spans="1:407">
       <c r="HZ36" s="2" t="s">
         <v>0</v>
       </c>
@@ -1885,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:407">
+    <row customHeight="1" ht="14.1" r="37" spans="1:407">
       <c r="HZ37" s="2" t="s">
         <v>0</v>
       </c>
@@ -1914,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:407">
+    <row customHeight="1" ht="14.1" r="38" spans="1:407">
       <c r="HZ38" s="2" t="s">
         <v>0</v>
       </c>
@@ -1931,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:407">
+    <row customHeight="1" ht="14.1" r="39" spans="1:407">
       <c r="HZ39" s="2" t="s">
         <v>0</v>
       </c>
@@ -1960,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:407">
+    <row customHeight="1" ht="14.1" r="40" spans="1:407">
       <c r="HZ40" s="2" t="s">
         <v>0</v>
       </c>
@@ -1977,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:407">
+    <row customHeight="1" ht="14.1" r="41" spans="1:407">
       <c r="HZ41" s="2" t="s">
         <v>0</v>
       </c>
@@ -2006,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:407">
+    <row customHeight="1" ht="14.1" r="42" spans="1:407">
       <c r="HZ42" s="2" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:407">
+    <row customHeight="1" ht="14.1" r="43" spans="1:407">
       <c r="HZ43" s="2" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:407">
+    <row customHeight="1" ht="14.1" r="44" spans="1:407">
       <c r="HZ44" s="2" t="s">
         <v>0</v>
       </c>
@@ -2144,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:407">
+    <row customHeight="1" ht="14.1" r="45" spans="1:407">
       <c r="HZ45" s="2" t="s">
         <v>0</v>
       </c>
@@ -2161,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:407">
+    <row customHeight="1" ht="14.1" r="46" spans="1:407">
       <c r="HZ46" s="2" t="s">
         <v>0</v>
       </c>
@@ -2190,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:407">
+    <row customHeight="1" ht="14.1" r="47" spans="1:407">
       <c r="HZ47" s="2" t="s">
         <v>0</v>
       </c>
@@ -2207,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:407">
+    <row customHeight="1" ht="14.1" r="48" spans="1:407">
       <c r="HZ48" s="2" t="s">
         <v>0</v>
       </c>
@@ -2228,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:407">
+    <row customHeight="1" ht="14.1" r="49" spans="1:407">
       <c r="HZ49" s="2" t="s">
         <v>0</v>
       </c>
@@ -2261,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:407">
+    <row customHeight="1" ht="14.1" r="50" spans="1:407">
       <c r="HZ50" s="2" t="s">
         <v>0</v>
       </c>
@@ -2282,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:407">
+    <row customHeight="1" ht="14.1" r="51" spans="1:407">
       <c r="HZ51" s="2" t="s">
         <v>0</v>
       </c>
@@ -2315,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:407">
+    <row customHeight="1" ht="14.1" r="52" spans="1:407">
       <c r="HZ52" s="2" t="s">
         <v>0</v>
       </c>
@@ -2336,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:407">
+    <row customHeight="1" ht="14.1" r="53" spans="1:407">
       <c r="HZ53" s="2" t="s">
         <v>0</v>
       </c>
@@ -2369,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:407">
+    <row customHeight="1" ht="14.1" r="54" spans="1:407">
       <c r="HZ54" s="2" t="s">
         <v>0</v>
       </c>
@@ -2390,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:407">
+    <row customHeight="1" ht="14.1" r="55" spans="1:407">
       <c r="HZ55" s="2" t="s">
         <v>0</v>
       </c>
@@ -2411,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:407">
+    <row customHeight="1" ht="14.1" r="56" spans="1:407">
       <c r="HZ56" s="2" t="s">
         <v>0</v>
       </c>
@@ -2444,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:407">
+    <row customHeight="1" ht="14.1" r="57" spans="1:407">
       <c r="HZ57" s="2" t="s">
         <v>0</v>
       </c>
@@ -2458,6 +2524,9 @@
       <c r="IU57" s="3" t="n"/>
       <c r="IV57" s="3" t="n"/>
       <c r="IW57" s="3" t="n"/>
+      <c r="KL57" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="MR57" s="2" t="s">
         <v>0</v>
       </c>
@@ -2465,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:407">
+    <row customHeight="1" ht="14.1" r="58" spans="1:407">
       <c r="HZ58" s="2" t="s">
         <v>0</v>
       </c>
@@ -2491,6 +2560,9 @@
       <c r="IU58" s="3" t="n"/>
       <c r="IV58" s="3" t="n"/>
       <c r="IW58" s="3" t="n"/>
+      <c r="KM58" t="s">
+        <v>4</v>
+      </c>
       <c r="MR58" s="2" t="s">
         <v>0</v>
       </c>
@@ -2498,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:407">
+    <row customHeight="1" ht="14.1" r="59" spans="1:407">
       <c r="HZ59" s="2" t="s">
         <v>0</v>
       </c>
@@ -2512,6 +2584,9 @@
       <c r="IU59" s="3" t="n"/>
       <c r="IV59" s="3" t="n"/>
       <c r="IW59" s="3" t="n"/>
+      <c r="KN59" t="s">
+        <v>4</v>
+      </c>
       <c r="MR59" s="2" t="s">
         <v>0</v>
       </c>
@@ -2519,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:407">
+    <row customHeight="1" ht="14.1" r="60" spans="1:407">
       <c r="HZ60" s="2" t="s">
         <v>0</v>
       </c>
@@ -2533,6 +2608,9 @@
       <c r="IU60" s="3" t="n"/>
       <c r="IV60" s="3" t="n"/>
       <c r="IW60" s="3" t="n"/>
+      <c r="KO60" t="s">
+        <v>4</v>
+      </c>
       <c r="MR60" s="2" t="s">
         <v>0</v>
       </c>
@@ -2540,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:407">
+    <row customHeight="1" ht="14.1" r="61" spans="1:407">
       <c r="HZ61" s="2" t="s">
         <v>0</v>
       </c>
@@ -2566,6 +2644,9 @@
       <c r="IU61" s="3" t="n"/>
       <c r="IV61" s="3" t="n"/>
       <c r="IW61" s="3" t="n"/>
+      <c r="KP61" t="s">
+        <v>4</v>
+      </c>
       <c r="MR61" s="2" t="s">
         <v>0</v>
       </c>
@@ -2573,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:407">
+    <row customHeight="1" ht="14.1" r="62" spans="1:407">
       <c r="HZ62" s="2" t="s">
         <v>0</v>
       </c>
@@ -2590,6 +2671,9 @@
       <c r="IU62" s="3" t="n"/>
       <c r="IV62" s="3" t="n"/>
       <c r="IW62" s="3" t="n"/>
+      <c r="KQ62" t="s">
+        <v>4</v>
+      </c>
       <c r="MQ62" s="2" t="s">
         <v>0</v>
       </c>
@@ -2600,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:407">
+    <row customHeight="1" ht="14.1" r="63" spans="1:407">
       <c r="FZ63" s="2" t="s">
         <v>0</v>
       </c>
@@ -2719,6 +2803,9 @@
       <c r="IU63" s="3" t="n"/>
       <c r="IV63" s="3" t="n"/>
       <c r="IW63" s="3" t="n"/>
+      <c r="KR63" t="s">
+        <v>4</v>
+      </c>
       <c r="MQ63" s="2" t="s">
         <v>0</v>
       </c>
@@ -2729,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:407">
+    <row customHeight="1" ht="14.1" r="64" spans="1:407">
       <c r="FZ64" s="2" t="s">
         <v>0</v>
       </c>
@@ -2760,6 +2847,72 @@
       <c r="IU64" s="3" t="n"/>
       <c r="IV64" s="3" t="n"/>
       <c r="IW64" s="3" t="n"/>
+      <c r="KS64" t="s">
+        <v>4</v>
+      </c>
+      <c r="KT64" t="s">
+        <v>4</v>
+      </c>
+      <c r="KU64" t="s">
+        <v>4</v>
+      </c>
+      <c r="KV64" t="s">
+        <v>4</v>
+      </c>
+      <c r="KW64" t="s">
+        <v>4</v>
+      </c>
+      <c r="KX64" t="s">
+        <v>4</v>
+      </c>
+      <c r="KY64" t="s">
+        <v>4</v>
+      </c>
+      <c r="KZ64" t="s">
+        <v>4</v>
+      </c>
+      <c r="LA64" t="s">
+        <v>4</v>
+      </c>
+      <c r="LB64" t="s">
+        <v>4</v>
+      </c>
+      <c r="LC64" t="s">
+        <v>4</v>
+      </c>
+      <c r="LD64" t="s">
+        <v>4</v>
+      </c>
+      <c r="LE64" t="s">
+        <v>4</v>
+      </c>
+      <c r="LF64" t="s">
+        <v>4</v>
+      </c>
+      <c r="LG64" t="s">
+        <v>4</v>
+      </c>
+      <c r="LH64" t="s">
+        <v>4</v>
+      </c>
+      <c r="LI64" t="s">
+        <v>4</v>
+      </c>
+      <c r="LJ64" t="s">
+        <v>4</v>
+      </c>
+      <c r="LK64" t="s">
+        <v>4</v>
+      </c>
+      <c r="LL64" t="s">
+        <v>4</v>
+      </c>
+      <c r="LM64" t="s">
+        <v>4</v>
+      </c>
+      <c r="LN64" t="s">
+        <v>4</v>
+      </c>
       <c r="MQ64" s="2" t="s">
         <v>0</v>
       </c>
@@ -2770,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:407">
+    <row customHeight="1" ht="14.1" r="65" spans="1:407">
       <c r="FZ65" s="2" t="s">
         <v>0</v>
       </c>
@@ -2803,15 +2956,16 @@
       </c>
       <c r="IN65" s="3" t="n"/>
       <c r="IO65" s="3" t="n"/>
-      <c r="IP65" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IP65" s="3" t="n"/>
       <c r="IQ65" s="3" t="n"/>
       <c r="IR65" s="3" t="n"/>
       <c r="IT65" s="3" t="n"/>
       <c r="IU65" s="3" t="n"/>
       <c r="IV65" s="3" t="n"/>
       <c r="IW65" s="3" t="n"/>
+      <c r="LO65" t="s">
+        <v>4</v>
+      </c>
       <c r="MR65" s="2" t="s">
         <v>0</v>
       </c>
@@ -2819,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:407">
+    <row customHeight="1" ht="14.1" r="66" spans="1:407">
       <c r="FZ66" s="2" t="s">
         <v>0</v>
       </c>
@@ -2839,13 +2993,9 @@
         <v>0</v>
       </c>
       <c r="IN66" s="3" t="n"/>
-      <c r="IO66" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IO66" s="3" t="n"/>
       <c r="IP66" s="3" t="n"/>
-      <c r="IQ66" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IQ66" s="3" t="n"/>
       <c r="IR66" s="3" t="n"/>
       <c r="IS66" s="3" t="n"/>
       <c r="IT66" s="3" t="n"/>
@@ -2853,6 +3003,9 @@
       <c r="IV66" s="3" t="n"/>
       <c r="IW66" s="3" t="n"/>
       <c r="IX66" s="3" t="n"/>
+      <c r="LP66" t="s">
+        <v>4</v>
+      </c>
       <c r="MR66" s="2" t="s">
         <v>0</v>
       </c>
@@ -2860,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:407">
+    <row customHeight="1" ht="14.1" r="67" spans="1:407">
       <c r="FZ67" s="2" t="s">
         <v>0</v>
       </c>
@@ -2879,11 +3032,8 @@
       <c r="IF67" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IN67" t="s">
-        <v>1</v>
-      </c>
       <c r="IQ67" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR67" s="3" t="n"/>
       <c r="IS67" s="3" t="n"/>
@@ -2892,6 +3042,9 @@
       <c r="IV67" s="3" t="n"/>
       <c r="IW67" s="3" t="n"/>
       <c r="IX67" s="3" t="n"/>
+      <c r="LQ67" t="s">
+        <v>4</v>
+      </c>
       <c r="MR67" s="2" t="s">
         <v>0</v>
       </c>
@@ -2899,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:407">
+    <row customHeight="1" ht="14.1" r="68" spans="1:407">
       <c r="FZ68" s="2" t="s">
         <v>0</v>
       </c>
@@ -2931,19 +3084,10 @@
         <v>0</v>
       </c>
       <c r="IJ68" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="IK68" t="s">
-        <v>1</v>
-      </c>
-      <c r="IL68" t="s">
-        <v>1</v>
-      </c>
-      <c r="IM68" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="IQ68" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR68" s="3" t="n"/>
       <c r="IS68" s="3" t="n"/>
@@ -3012,6 +3156,9 @@
       <c r="JR68" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LR68" t="s">
+        <v>4</v>
+      </c>
       <c r="MR68" s="2" t="s">
         <v>0</v>
       </c>
@@ -3019,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:407">
+    <row customHeight="1" ht="14.1" r="69" spans="1:407">
       <c r="FZ69" s="2" t="s">
         <v>0</v>
       </c>
@@ -3039,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="IQ69" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR69" s="3" t="n"/>
       <c r="IS69" s="3" t="n"/>
@@ -3051,6 +3198,9 @@
       <c r="JR69" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS69" t="s">
+        <v>4</v>
+      </c>
       <c r="MR69" s="2" t="s">
         <v>0</v>
       </c>
@@ -3058,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:407">
+    <row customHeight="1" ht="14.1" r="70" spans="1:407">
       <c r="FZ70" s="2" t="s">
         <v>0</v>
       </c>
@@ -3090,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="IQ70" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR70" s="3" t="n"/>
       <c r="IS70" s="3" t="n"/>
@@ -3102,6 +3252,9 @@
       <c r="JR70" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LT70" t="s">
+        <v>4</v>
+      </c>
       <c r="MR70" s="2" t="s">
         <v>0</v>
       </c>
@@ -3109,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:407">
+    <row customHeight="1" ht="14.1" r="71" spans="1:407">
       <c r="FZ71" s="2" t="s">
         <v>0</v>
       </c>
@@ -3129,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="IQ71" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR71" s="3" t="n"/>
       <c r="IS71" s="3" t="n"/>
@@ -3141,6 +3294,9 @@
       <c r="JR71" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LU71" t="s">
+        <v>4</v>
+      </c>
       <c r="MR71" s="2" t="s">
         <v>0</v>
       </c>
@@ -3148,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:407">
+    <row customHeight="1" ht="14.1" r="72" spans="1:407">
       <c r="FZ72" s="2" t="s">
         <v>0</v>
       </c>
@@ -3168,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="IQ72" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR72" s="3" t="n"/>
       <c r="IS72" s="3" t="n"/>
@@ -3186,6 +3342,15 @@
       <c r="LL72" s="3" t="n"/>
       <c r="LM72" s="3" t="n"/>
       <c r="LN72" s="3" t="n"/>
+      <c r="LV72" t="s">
+        <v>4</v>
+      </c>
+      <c r="LW72" t="s">
+        <v>4</v>
+      </c>
+      <c r="LX72" t="s">
+        <v>4</v>
+      </c>
       <c r="MR72" s="2" t="s">
         <v>0</v>
       </c>
@@ -3193,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:407">
+    <row customHeight="1" ht="14.1" r="73" spans="1:407">
       <c r="FZ73" s="2" t="s">
         <v>0</v>
       </c>
@@ -3255,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="IQ73" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR73" s="3" t="n"/>
       <c r="IS73" s="3" t="n"/>
@@ -3476,6 +3641,9 @@
       <c r="LX73" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LY73" t="s">
+        <v>4</v>
+      </c>
       <c r="MR73" s="2" t="s">
         <v>0</v>
       </c>
@@ -3483,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:407">
+    <row customHeight="1" ht="14.1" r="74" spans="1:407">
       <c r="FZ74" s="2" t="s">
         <v>0</v>
       </c>
@@ -3498,9 +3666,6 @@
       </c>
       <c r="IF74" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="IQ74" t="s">
-        <v>1</v>
       </c>
       <c r="IR74" s="3" t="n"/>
       <c r="IS74" s="3" t="n"/>
@@ -3570,6 +3735,9 @@
       <c r="LX74" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LY74" t="s">
+        <v>4</v>
+      </c>
       <c r="MR74" s="2" t="s">
         <v>0</v>
       </c>
@@ -3577,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:407">
+    <row customHeight="1" ht="14.1" r="75" spans="1:407">
       <c r="FZ75" s="2" t="s">
         <v>0</v>
       </c>
@@ -3592,9 +3760,6 @@
       </c>
       <c r="IF75" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="IQ75" t="s">
-        <v>1</v>
       </c>
       <c r="IR75" s="3" t="n"/>
       <c r="IS75" s="3" t="n"/>
@@ -3664,6 +3829,9 @@
       <c r="LX75" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LY75" t="s">
+        <v>4</v>
+      </c>
       <c r="MR75" s="2" t="s">
         <v>0</v>
       </c>
@@ -3671,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:407">
+    <row customHeight="1" ht="14.1" r="76" spans="1:407">
       <c r="FZ76" s="2" t="s">
         <v>0</v>
       </c>
@@ -3686,9 +3854,6 @@
       </c>
       <c r="IF76" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="IQ76" t="s">
-        <v>1</v>
       </c>
       <c r="IT76" s="3" t="n"/>
       <c r="IU76" s="3" t="n"/>
@@ -3752,6 +3917,9 @@
       <c r="LX76" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LY76" t="s">
+        <v>4</v>
+      </c>
       <c r="MR76" s="2" t="s">
         <v>0</v>
       </c>
@@ -3759,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:407">
+    <row customHeight="1" ht="14.1" r="77" spans="1:407">
       <c r="FZ77" s="2" t="s">
         <v>0</v>
       </c>
@@ -3774,9 +3942,6 @@
       </c>
       <c r="IF77" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="IQ77" t="s">
-        <v>1</v>
       </c>
       <c r="IT77" s="3" t="n"/>
       <c r="IU77" s="3" t="n"/>
@@ -3838,6 +4003,9 @@
       <c r="LX77" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LY77" t="s">
+        <v>4</v>
+      </c>
       <c r="MR77" s="2" t="s">
         <v>0</v>
       </c>
@@ -3845,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:407">
+    <row customHeight="1" ht="14.1" r="78" spans="1:407">
       <c r="FZ78" s="2" t="s">
         <v>0</v>
       </c>
@@ -3869,9 +4037,6 @@
       </c>
       <c r="IF78" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="IQ78" t="s">
-        <v>1</v>
       </c>
       <c r="IT78" s="3" t="n"/>
       <c r="IU78" s="3" t="n"/>
@@ -3933,6 +4098,9 @@
       <c r="LX78" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LY78" t="s">
+        <v>4</v>
+      </c>
       <c r="MR78" s="2" t="s">
         <v>0</v>
       </c>
@@ -3940,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:407">
+    <row customHeight="1" ht="14.1" r="79" spans="1:407">
       <c r="FW79" s="2" t="s">
         <v>0</v>
       </c>
@@ -3965,9 +4133,6 @@
       </c>
       <c r="IF79" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="IQ79" t="s">
-        <v>1</v>
       </c>
       <c r="IT79" s="3" t="n"/>
       <c r="IU79" s="3" t="n"/>
@@ -4029,6 +4194,9 @@
       <c r="LX79" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LY79" t="s">
+        <v>4</v>
+      </c>
       <c r="MR79" s="2" t="s">
         <v>0</v>
       </c>
@@ -4036,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:407">
+    <row customHeight="1" ht="14.1" r="80" spans="1:407">
       <c r="FX80" s="2" t="s">
         <v>0</v>
       </c>
@@ -4076,9 +4244,6 @@
       </c>
       <c r="IF80" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="IQ80" t="s">
-        <v>1</v>
       </c>
       <c r="IT80" s="3" t="n"/>
       <c r="IU80" s="3" t="n"/>
@@ -4139,6 +4304,9 @@
       <c r="LX80" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LY80" t="s">
+        <v>4</v>
+      </c>
       <c r="MR80" s="2" t="s">
         <v>0</v>
       </c>
@@ -4149,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:407">
+    <row customHeight="1" ht="14.1" r="81" spans="1:407">
       <c r="FZ81" s="2" t="s">
         <v>0</v>
       </c>
@@ -4180,9 +4348,6 @@
       </c>
       <c r="IF81" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="IQ81" t="s">
-        <v>1</v>
       </c>
       <c r="IT81" s="3" t="n"/>
       <c r="IU81" s="3" t="n"/>
@@ -4243,7 +4408,9 @@
       <c r="LX81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="LY81" s="3" t="n"/>
+      <c r="LY81" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="LZ81" s="3" t="n"/>
       <c r="MA81" s="3" t="n"/>
       <c r="MB81" s="3" t="n"/>
@@ -4264,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:407">
+    <row customHeight="1" ht="14.1" r="82" spans="1:407">
       <c r="FZ82" s="2" t="s">
         <v>0</v>
       </c>
@@ -4293,9 +4460,7 @@
       <c r="IG82" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IQ82" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IQ82" s="3" t="n"/>
       <c r="IR82" s="3" t="n"/>
       <c r="IS82" s="3" t="n"/>
       <c r="IT82" s="3" t="n"/>
@@ -4361,7 +4526,9 @@
       <c r="LX82" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="LY82" s="3" t="n"/>
+      <c r="LY82" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="LZ82" s="3" t="n"/>
       <c r="MA82" s="3" t="n"/>
       <c r="MB82" s="3" t="n"/>
@@ -4382,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:407">
+    <row customHeight="1" ht="14.1" r="83" spans="1:407">
       <c r="BO83" s="2" t="s">
         <v>0</v>
       </c>
@@ -4900,9 +5067,7 @@
       <c r="IG83" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IQ83" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IQ83" s="3" t="n"/>
       <c r="IR83" s="3" t="n"/>
       <c r="IS83" s="3" t="n"/>
       <c r="IT83" s="3" t="n"/>
@@ -4971,7 +5136,9 @@
       <c r="LX83" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="LY83" s="3" t="n"/>
+      <c r="LY83" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="LZ83" s="3" t="n"/>
       <c r="MA83" s="3" t="n"/>
       <c r="MB83" s="3" t="n"/>
@@ -5049,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:407">
+    <row customHeight="1" ht="14.1" r="84" spans="1:407">
       <c r="BO84" s="2" t="s">
         <v>0</v>
       </c>
@@ -5590,9 +5757,7 @@
       <c r="IP84" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IQ84" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IQ84" s="3" t="n"/>
       <c r="IR84" s="3" t="n"/>
       <c r="IS84" s="3" t="n"/>
       <c r="IT84" s="3" t="n"/>
@@ -5834,7 +5999,9 @@
       <c r="LX84" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="LY84" s="3" t="n"/>
+      <c r="LY84" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="LZ84" s="3" t="n"/>
       <c r="MA84" s="3" t="n"/>
       <c r="MB84" s="3" t="n"/>
@@ -5933,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:407">
+    <row customHeight="1" ht="14.1" r="85" spans="1:407">
       <c r="BO85" s="2" t="s">
         <v>0</v>
       </c>
@@ -6021,9 +6188,7 @@
       <c r="IP85" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IQ85" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IQ85" s="3" t="n"/>
       <c r="IR85" s="3" t="n"/>
       <c r="IS85" s="3" t="n"/>
       <c r="IT85" s="3" t="n"/>
@@ -6067,7 +6232,9 @@
       <c r="LX85" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="LY85" s="3" t="n"/>
+      <c r="LY85" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="LZ85" s="3" t="n"/>
       <c r="MA85" s="3" t="n"/>
       <c r="MB85" s="3" t="n"/>
@@ -6091,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:407">
+    <row customHeight="1" ht="14.1" r="86" spans="1:407">
       <c r="BO86" s="2" t="s">
         <v>0</v>
       </c>
@@ -6134,9 +6301,7 @@
       <c r="IP86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IQ86" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IQ86" s="3" t="n"/>
       <c r="IR86" s="3" t="n"/>
       <c r="IS86" s="3" t="n"/>
       <c r="IT86" s="3" t="n"/>
@@ -6176,6 +6341,9 @@
       </c>
       <c r="LE86" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="LX86" t="s">
+        <v>4</v>
       </c>
       <c r="LY86" s="3" t="n"/>
       <c r="LZ86" s="3" t="n"/>
@@ -6195,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:407">
+    <row customHeight="1" ht="14.1" r="87" spans="1:407">
       <c r="BO87" s="2" t="s">
         <v>0</v>
       </c>
@@ -6238,9 +6406,7 @@
       <c r="IP87" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IQ87" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IQ87" s="3" t="n"/>
       <c r="IR87" s="3" t="n"/>
       <c r="IS87" s="3" t="n"/>
       <c r="IT87" s="3" t="n"/>
@@ -6280,6 +6446,9 @@
       </c>
       <c r="LE87" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="LW87" t="s">
+        <v>4</v>
       </c>
       <c r="LY87" s="3" t="n"/>
       <c r="LZ87" s="3" t="n"/>
@@ -6299,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:407">
+    <row customHeight="1" ht="14.1" r="88" spans="1:407">
       <c r="BO88" s="2" t="s">
         <v>0</v>
       </c>
@@ -6342,9 +6511,7 @@
       <c r="IP88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IQ88" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IQ88" s="3" t="n"/>
       <c r="IR88" s="3" t="n"/>
       <c r="IS88" s="3" t="n"/>
       <c r="IT88" s="3" t="n"/>
@@ -6415,6 +6582,9 @@
       <c r="LE88" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LW88" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ88" s="2" t="s">
         <v>0</v>
       </c>
@@ -6422,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:407">
+    <row customHeight="1" ht="14.1" r="89" spans="1:407">
       <c r="BO89" s="2" t="s">
         <v>0</v>
       </c>
@@ -6519,9 +6689,7 @@
       <c r="IP89" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IQ89" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IQ89" s="3" t="n"/>
       <c r="IR89" s="3" t="n"/>
       <c r="IS89" s="3" t="n"/>
       <c r="IT89" s="3" t="n"/>
@@ -6598,6 +6766,9 @@
       <c r="LE89" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LW89" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ89" s="2" t="s">
         <v>0</v>
       </c>
@@ -6605,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:407">
+    <row customHeight="1" ht="14.1" r="90" spans="1:407">
       <c r="BO90" s="2" t="s">
         <v>0</v>
       </c>
@@ -6705,9 +6876,7 @@
       <c r="IP90" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IQ90" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IQ90" s="3" t="n"/>
       <c r="IR90" s="3" t="n"/>
       <c r="IS90" s="3" t="n"/>
       <c r="IT90" s="3" t="n"/>
@@ -6736,6 +6905,9 @@
       <c r="LE90" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LV90" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ90" s="2" t="s">
         <v>0</v>
       </c>
@@ -6743,7 +6915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:407">
+    <row customHeight="1" ht="14.1" r="91" spans="1:407">
       <c r="BO91" s="2" t="s">
         <v>0</v>
       </c>
@@ -6774,9 +6946,7 @@
       <c r="IP91" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IQ91" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IQ91" s="3" t="n"/>
       <c r="IR91" s="3" t="n"/>
       <c r="IS91" s="3" t="n"/>
       <c r="IT91" s="3" t="n"/>
@@ -6805,6 +6975,9 @@
       <c r="LE91" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LV91" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ91" s="2" t="s">
         <v>0</v>
       </c>
@@ -6812,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:407">
+    <row customHeight="1" ht="14.1" r="92" spans="1:407">
       <c r="BO92" s="2" t="s">
         <v>0</v>
       </c>
@@ -6834,6 +7007,9 @@
       <c r="HD92" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="HG92" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="HM92" s="2" t="s">
         <v>0</v>
       </c>
@@ -6842,9 +7018,6 @@
       </c>
       <c r="IP92" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="IQ92" t="s">
-        <v>1</v>
       </c>
       <c r="IT92" s="3" t="n"/>
       <c r="IU92" s="3" t="n"/>
@@ -6871,6 +7044,9 @@
       <c r="LE92" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LU92" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ92" s="2" t="s">
         <v>0</v>
       </c>
@@ -6881,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:407">
+    <row customHeight="1" ht="14.1" r="93" spans="1:407">
       <c r="BO93" s="2" t="s">
         <v>0</v>
       </c>
@@ -6911,9 +7087,6 @@
       </c>
       <c r="IP93" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="IQ93" t="s">
-        <v>1</v>
       </c>
       <c r="IT93" s="3" t="n"/>
       <c r="IU93" s="3" t="n"/>
@@ -6934,6 +7107,9 @@
       <c r="LE93" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LT93" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ93" s="2" t="s">
         <v>0</v>
       </c>
@@ -6944,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:407">
+    <row customHeight="1" ht="14.1" r="94" spans="1:407">
       <c r="BO94" s="2" t="s">
         <v>0</v>
       </c>
@@ -6974,9 +7150,6 @@
       </c>
       <c r="IP94" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="IQ94" t="s">
-        <v>1</v>
       </c>
       <c r="IT94" s="3" t="n"/>
       <c r="IU94" s="3" t="n"/>
@@ -7054,6 +7227,9 @@
       <c r="LE94" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS94" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ94" s="2" t="s">
         <v>0</v>
       </c>
@@ -7064,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:407">
+    <row customHeight="1" ht="14.1" r="95" spans="1:407">
       <c r="BO95" s="2" t="s">
         <v>0</v>
       </c>
@@ -7103,9 +7279,6 @@
       <c r="IJ95" s="3" t="n"/>
       <c r="IP95" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="IQ95" t="s">
-        <v>1</v>
       </c>
       <c r="IT95" s="3" t="n"/>
       <c r="IU95" s="3" t="n"/>
@@ -7126,6 +7299,9 @@
       <c r="LE95" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS95" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ95" s="2" t="s">
         <v>0</v>
       </c>
@@ -7136,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:407">
+    <row customHeight="1" ht="14.1" r="96" spans="1:407">
       <c r="BO96" s="2" t="s">
         <v>0</v>
       </c>
@@ -7178,9 +7354,6 @@
       <c r="IJ96" s="3" t="n"/>
       <c r="IP96" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="IQ96" t="s">
-        <v>1</v>
       </c>
       <c r="IT96" s="3" t="n"/>
       <c r="IU96" s="3" t="n"/>
@@ -7201,6 +7374,9 @@
       <c r="LE96" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS96" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ96" s="2" t="s">
         <v>0</v>
       </c>
@@ -7208,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:407">
+    <row customHeight="1" ht="14.1" r="97" spans="1:407">
       <c r="BO97" s="2" t="s">
         <v>0</v>
       </c>
@@ -7220,6 +7396,9 @@
       </c>
       <c r="GA97" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="GF97" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="GK97" s="2" t="s">
         <v>0</v>
@@ -7313,9 +7492,6 @@
       </c>
       <c r="IP97" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="IQ97" t="s">
-        <v>1</v>
       </c>
       <c r="IT97" s="3" t="n"/>
       <c r="IU97" s="3" t="n"/>
@@ -7336,6 +7512,9 @@
       <c r="LE97" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS97" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ97" s="2" t="s">
         <v>0</v>
       </c>
@@ -7343,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:407">
+    <row customHeight="1" ht="14.1" r="98" spans="1:407">
       <c r="BO98" s="2" t="s">
         <v>0</v>
       </c>
@@ -7376,9 +7555,7 @@
       <c r="IN98" s="3" t="n"/>
       <c r="IO98" s="3" t="n"/>
       <c r="IP98" s="3" t="n"/>
-      <c r="IQ98" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IQ98" s="3" t="n"/>
       <c r="IT98" s="3" t="n"/>
       <c r="IU98" s="3" t="n"/>
       <c r="IV98" s="3" t="n"/>
@@ -7398,6 +7575,9 @@
       <c r="LE98" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS98" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ98" s="2" t="s">
         <v>0</v>
       </c>
@@ -7405,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:407">
+    <row customHeight="1" ht="14.1" r="99" spans="1:407">
       <c r="BO99" s="2" t="s">
         <v>0</v>
       </c>
@@ -7449,9 +7629,7 @@
       <c r="IN99" s="3" t="n"/>
       <c r="IO99" s="3" t="n"/>
       <c r="IP99" s="3" t="n"/>
-      <c r="IQ99" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IQ99" s="3" t="n"/>
       <c r="IT99" s="3" t="n"/>
       <c r="IU99" s="3" t="n"/>
       <c r="IV99" s="3" t="n"/>
@@ -7471,6 +7649,9 @@
       <c r="LE99" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS99" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ99" s="2" t="s">
         <v>0</v>
       </c>
@@ -7478,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:407">
+    <row customHeight="1" ht="14.1" r="100" spans="1:407">
       <c r="BO100" s="2" t="s">
         <v>0</v>
       </c>
@@ -7530,9 +7711,7 @@
       <c r="IN100" s="3" t="n"/>
       <c r="IO100" s="3" t="n"/>
       <c r="IP100" s="3" t="n"/>
-      <c r="IQ100" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IQ100" s="3" t="n"/>
       <c r="IT100" s="3" t="n"/>
       <c r="IU100" s="3" t="n"/>
       <c r="IV100" s="3" t="n"/>
@@ -7556,6 +7735,9 @@
       <c r="LE100" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS100" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ100" s="2" t="s">
         <v>0</v>
       </c>
@@ -7566,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:407">
+    <row customHeight="1" ht="14.1" r="101" spans="1:407">
       <c r="BO101" s="2" t="s">
         <v>0</v>
       </c>
@@ -7636,9 +7818,7 @@
       <c r="IN101" s="3" t="n"/>
       <c r="IO101" s="3" t="n"/>
       <c r="IP101" s="3" t="n"/>
-      <c r="IQ101" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IQ101" s="3" t="n"/>
       <c r="IT101" s="3" t="n"/>
       <c r="IU101" s="3" t="n"/>
       <c r="IV101" s="3" t="n"/>
@@ -7665,6 +7845,9 @@
       <c r="LE101" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS101" t="s">
+        <v>4</v>
+      </c>
       <c r="LX101" s="2" t="s">
         <v>0</v>
       </c>
@@ -7684,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:407">
+    <row customHeight="1" ht="14.1" r="102" spans="1:407">
       <c r="BO102" s="2" t="s">
         <v>0</v>
       </c>
@@ -7782,9 +7965,6 @@
       <c r="IO102" s="3" t="n"/>
       <c r="IP102" s="3" t="n"/>
       <c r="IQ102" s="3" t="n"/>
-      <c r="IR102" t="s">
-        <v>1</v>
-      </c>
       <c r="IT102" s="3" t="n"/>
       <c r="IU102" s="3" t="n"/>
       <c r="IV102" s="3" t="n"/>
@@ -7811,7 +7991,9 @@
         <v>0</v>
       </c>
       <c r="KT102" s="3" t="n"/>
-      <c r="KU102" s="3" t="n"/>
+      <c r="KU102" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="KV102" s="3" t="n"/>
       <c r="KW102" s="3" t="n"/>
       <c r="LD102" s="2" t="s">
@@ -7823,6 +8005,9 @@
       <c r="LF102" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS102" t="s">
+        <v>4</v>
+      </c>
       <c r="LX102" s="2" t="s">
         <v>0</v>
       </c>
@@ -7845,7 +8030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:407">
+    <row customHeight="1" ht="14.1" r="103" spans="1:407">
       <c r="BO103" s="2" t="s">
         <v>0</v>
       </c>
@@ -8037,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="IR103" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT103" s="3" t="n"/>
       <c r="IU103" s="3" t="n"/>
@@ -8080,6 +8265,9 @@
       <c r="LF103" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS103" t="s">
+        <v>4</v>
+      </c>
       <c r="LX103" s="2" t="s">
         <v>0</v>
       </c>
@@ -8102,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:407">
+    <row customHeight="1" ht="14.1" r="104" spans="1:407">
       <c r="BO104" s="2" t="s">
         <v>0</v>
       </c>
@@ -8180,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="IR104" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT104" s="3" t="n"/>
       <c r="IU104" s="3" t="n"/>
@@ -8247,6 +8435,9 @@
       <c r="LF104" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS104" t="s">
+        <v>4</v>
+      </c>
       <c r="LX104" s="2" t="s">
         <v>0</v>
       </c>
@@ -8269,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:407">
+    <row customHeight="1" ht="14.1" r="105" spans="1:407">
       <c r="BO105" s="2" t="s">
         <v>0</v>
       </c>
@@ -8290,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="IR105" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT105" s="3" t="n"/>
       <c r="IU105" s="3" t="n"/>
@@ -8314,6 +8505,9 @@
       <c r="LE105" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS105" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ105" s="2" t="s">
         <v>0</v>
       </c>
@@ -8324,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:407">
+    <row customHeight="1" ht="14.1" r="106" spans="1:407">
       <c r="BO106" s="2" t="s">
         <v>0</v>
       </c>
@@ -8345,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="IR106" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT106" s="3" t="n"/>
       <c r="IU106" s="3" t="n"/>
@@ -8369,6 +8563,9 @@
       <c r="LE106" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS106" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ106" s="2" t="s">
         <v>0</v>
       </c>
@@ -8379,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:407">
+    <row customHeight="1" ht="14.1" r="107" spans="1:407">
       <c r="BO107" s="2" t="s">
         <v>0</v>
       </c>
@@ -8396,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="IR107" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT107" s="3" t="n"/>
       <c r="IU107" s="3" t="n"/>
@@ -8416,6 +8613,9 @@
       <c r="LE107" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS107" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ107" s="2" t="s">
         <v>0</v>
       </c>
@@ -8423,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:407">
+    <row customHeight="1" ht="14.1" r="108" spans="1:407">
       <c r="BO108" s="2" t="s">
         <v>0</v>
       </c>
@@ -8443,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="IR108" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT108" s="3" t="n"/>
       <c r="IU108" s="3" t="n"/>
@@ -8463,6 +8663,9 @@
       <c r="LE108" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS108" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ108" s="2" t="s">
         <v>0</v>
       </c>
@@ -8470,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:407">
+    <row customHeight="1" ht="14.1" r="109" spans="1:407">
       <c r="BO109" s="2" t="s">
         <v>0</v>
       </c>
@@ -8592,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="IR109" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT109" s="3" t="n"/>
       <c r="IU109" s="3" t="n"/>
@@ -8610,6 +8813,9 @@
       <c r="LE109" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS109" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ109" s="2" t="s">
         <v>0</v>
       </c>
@@ -8617,7 +8823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:407">
+    <row customHeight="1" ht="14.1" r="110" spans="1:407">
       <c r="BO110" s="2" t="s">
         <v>0</v>
       </c>
@@ -8655,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="IR110" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT110" s="3" t="n"/>
       <c r="IU110" s="3" t="n"/>
@@ -8673,6 +8879,9 @@
       <c r="LE110" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS110" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ110" s="2" t="s">
         <v>0</v>
       </c>
@@ -8680,7 +8889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:407">
+    <row customHeight="1" ht="14.1" r="111" spans="1:407">
       <c r="BO111" s="2" t="s">
         <v>0</v>
       </c>
@@ -8715,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="IR111" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT111" s="3" t="n"/>
       <c r="IU111" s="3" t="n"/>
@@ -8733,6 +8942,9 @@
       <c r="LE111" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS111" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ111" s="2" t="s">
         <v>0</v>
       </c>
@@ -8743,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:407">
+    <row customHeight="1" ht="14.1" r="112" spans="1:407">
       <c r="BO112" s="2" t="s">
         <v>0</v>
       </c>
@@ -8778,7 +8990,7 @@
         <v>0</v>
       </c>
       <c r="IR112" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT112" s="3" t="n"/>
       <c r="IU112" s="3" t="n"/>
@@ -8796,6 +9008,9 @@
       <c r="LE112" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS112" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ112" s="2" t="s">
         <v>0</v>
       </c>
@@ -8806,7 +9021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:407">
+    <row customHeight="1" ht="14.1" r="113" spans="1:407">
       <c r="BO113" s="2" t="s">
         <v>0</v>
       </c>
@@ -8841,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="IR113" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT113" s="3" t="n"/>
       <c r="IU113" s="3" t="n"/>
@@ -8859,6 +9074,9 @@
       <c r="LE113" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS113" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ113" s="2" t="s">
         <v>0</v>
       </c>
@@ -8869,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:407">
+    <row customHeight="1" ht="14.1" r="114" spans="1:407">
       <c r="BO114" s="2" t="s">
         <v>0</v>
       </c>
@@ -8900,8 +9118,11 @@
       <c r="IF114" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="IJ114" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="IR114" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT114" s="3" t="n"/>
       <c r="IU114" s="3" t="n"/>
@@ -8919,6 +9140,9 @@
       <c r="LE114" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS114" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ114" s="2" t="s">
         <v>0</v>
       </c>
@@ -8929,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:407">
+    <row customHeight="1" ht="14.1" r="115" spans="1:407">
       <c r="BO115" s="2" t="s">
         <v>0</v>
       </c>
@@ -8945,11 +9169,20 @@
       <c r="GA115" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GH115" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="GT115" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="GX115" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="HC115" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="HH115" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="HJ115" s="3" t="n"/>
       <c r="HK115" s="3" t="n"/>
@@ -8957,11 +9190,14 @@
       <c r="HM115" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="HS115" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="IF115" s="2" t="s">
         <v>0</v>
       </c>
       <c r="IR115" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT115" s="3" t="n"/>
       <c r="IU115" s="3" t="n"/>
@@ -8979,6 +9215,9 @@
       <c r="LE115" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS115" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ115" s="2" t="s">
         <v>0</v>
       </c>
@@ -8986,7 +9225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:407">
+    <row customHeight="1" ht="14.1" r="116" spans="1:407">
       <c r="BO116" s="2" t="s">
         <v>0</v>
       </c>
@@ -9018,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="IR116" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT116" s="3" t="n"/>
       <c r="IU116" s="3" t="n"/>
@@ -9036,6 +9275,9 @@
       <c r="LE116" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS116" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ116" s="2" t="s">
         <v>0</v>
       </c>
@@ -9043,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:407">
+    <row customHeight="1" ht="14.1" r="117" spans="1:407">
       <c r="BO117" s="2" t="s">
         <v>0</v>
       </c>
@@ -9072,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="IR117" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT117" s="3" t="n"/>
       <c r="IU117" s="3" t="n"/>
@@ -9090,6 +9332,9 @@
       <c r="LE117" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS117" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ117" s="2" t="s">
         <v>0</v>
       </c>
@@ -9097,7 +9342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:407">
+    <row customHeight="1" ht="14.1" r="118" spans="1:407">
       <c r="BO118" s="2" t="s">
         <v>0</v>
       </c>
@@ -9126,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="IR118" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT118" s="3" t="n"/>
       <c r="IU118" s="3" t="n"/>
@@ -9144,6 +9389,9 @@
       <c r="LE118" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS118" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ118" s="2" t="s">
         <v>0</v>
       </c>
@@ -9151,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:407">
+    <row customHeight="1" ht="14.1" r="119" spans="1:407">
       <c r="BO119" s="2" t="s">
         <v>0</v>
       </c>
@@ -9181,9 +9429,6 @@
       </c>
       <c r="IR119" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="IS119" t="s">
-        <v>1</v>
       </c>
       <c r="IT119" s="3" t="n"/>
       <c r="IU119" s="3" t="n"/>
@@ -9210,6 +9455,9 @@
       <c r="LE119" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS119" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ119" s="2" t="s">
         <v>0</v>
       </c>
@@ -9220,7 +9468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:407">
+    <row customHeight="1" ht="14.1" r="120" spans="1:407">
       <c r="BO120" s="2" t="s">
         <v>0</v>
       </c>
@@ -9252,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="IS120" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT120" s="3" t="n"/>
       <c r="IU120" s="3" t="n"/>
@@ -9282,6 +9530,9 @@
       <c r="LE120" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS120" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ120" s="2" t="s">
         <v>0</v>
       </c>
@@ -9292,7 +9543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:407">
+    <row customHeight="1" ht="14.1" r="121" spans="1:407">
       <c r="BO121" s="2" t="s">
         <v>0</v>
       </c>
@@ -9369,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="IS121" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT121" s="3" t="n"/>
       <c r="IU121" s="3" t="n"/>
@@ -9411,6 +9662,9 @@
       <c r="LF121" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS121" t="s">
+        <v>4</v>
+      </c>
       <c r="LX121" s="2" t="s">
         <v>0</v>
       </c>
@@ -9433,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:407">
+    <row customHeight="1" ht="14.1" r="122" spans="1:407">
       <c r="BO122" s="2" t="s">
         <v>0</v>
       </c>
@@ -9930,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="IS122" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT122" s="3" t="n"/>
       <c r="IU122" s="3" t="n"/>
@@ -10095,6 +10349,9 @@
       <c r="LF122" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS122" t="s">
+        <v>4</v>
+      </c>
       <c r="LX122" s="2" t="s">
         <v>0</v>
       </c>
@@ -10117,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:407">
+    <row customHeight="1" ht="14.1" r="123" spans="1:407">
       <c r="BO123" s="2" t="s">
         <v>0</v>
       </c>
@@ -10551,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="IR123" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS123" s="2" t="s">
         <v>0</v>
@@ -10689,6 +10946,9 @@
       <c r="LF123" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LS123" t="s">
+        <v>4</v>
+      </c>
       <c r="LX123" s="2" t="s">
         <v>0</v>
       </c>
@@ -10711,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:407">
+    <row customHeight="1" ht="14.1" r="124" spans="1:407">
       <c r="BO124" s="2" t="s">
         <v>0</v>
       </c>
@@ -10871,9 +11131,7 @@
       <c r="IN124" s="3" t="n"/>
       <c r="IO124" s="3" t="n"/>
       <c r="IP124" s="3" t="n"/>
-      <c r="IQ124" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IQ124" s="3" t="n"/>
       <c r="IR124" s="3" t="n"/>
       <c r="IS124" s="3" t="n"/>
       <c r="IT124" s="3" t="n"/>
@@ -10921,6 +11179,9 @@
       <c r="LD124" s="3" t="n"/>
       <c r="LE124" s="3" t="n"/>
       <c r="LF124" s="3" t="n"/>
+      <c r="LS124" t="s">
+        <v>4</v>
+      </c>
       <c r="LX124" s="2" t="s">
         <v>0</v>
       </c>
@@ -10940,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:407">
+    <row customHeight="1" ht="14.1" r="125" spans="1:407">
       <c r="BO125" s="2" t="s">
         <v>0</v>
       </c>
@@ -11099,9 +11360,7 @@
       <c r="IM125" s="3" t="n"/>
       <c r="IN125" s="3" t="n"/>
       <c r="IO125" s="3" t="n"/>
-      <c r="IP125" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IP125" s="3" t="n"/>
       <c r="IQ125" s="3" t="n"/>
       <c r="IR125" s="3" t="n"/>
       <c r="IS125" s="3" t="n"/>
@@ -11141,6 +11400,12 @@
       <c r="LD125" s="3" t="n"/>
       <c r="LE125" s="3" t="n"/>
       <c r="LF125" s="3" t="n"/>
+      <c r="LS125" t="s">
+        <v>4</v>
+      </c>
+      <c r="MG125" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="NJ125" s="2" t="s">
         <v>0</v>
       </c>
@@ -11151,7 +11416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:407">
+    <row customHeight="1" ht="14.1" r="126" spans="1:407">
       <c r="BO126" s="2" t="s">
         <v>0</v>
       </c>
@@ -11309,9 +11574,7 @@
       <c r="IL126" s="3" t="n"/>
       <c r="IM126" s="3" t="n"/>
       <c r="IN126" s="3" t="n"/>
-      <c r="IO126" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IO126" s="3" t="n"/>
       <c r="IP126" s="3" t="n"/>
       <c r="IQ126" s="3" t="n"/>
       <c r="IR126" s="3" t="n"/>
@@ -11352,6 +11615,9 @@
       <c r="LD126" s="3" t="n"/>
       <c r="LE126" s="3" t="n"/>
       <c r="LF126" s="3" t="n"/>
+      <c r="LS126" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ126" s="2" t="s">
         <v>0</v>
       </c>
@@ -11359,18 +11625,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:407">
+    <row customHeight="1" ht="14.1" r="127" spans="1:407">
       <c r="BO127" s="2" t="s">
         <v>0</v>
       </c>
       <c r="BP127" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BV127" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="CD127" s="2" t="s">
         <v>0</v>
       </c>
       <c r="CI127" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="CQ127" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="DB127" s="2" t="s">
         <v>0</v>
@@ -11516,9 +11788,7 @@
       <c r="IK127" s="3" t="n"/>
       <c r="IL127" s="3" t="n"/>
       <c r="IM127" s="3" t="n"/>
-      <c r="IN127" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IN127" s="3" t="n"/>
       <c r="IO127" s="3" t="n"/>
       <c r="IP127" s="3" t="n"/>
       <c r="IQ127" s="3" t="n"/>
@@ -11560,6 +11830,9 @@
       <c r="LD127" s="3" t="n"/>
       <c r="LE127" s="3" t="n"/>
       <c r="LF127" s="3" t="n"/>
+      <c r="LS127" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ127" s="2" t="s">
         <v>0</v>
       </c>
@@ -11567,7 +11840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:407">
+    <row customHeight="1" ht="14.1" r="128" spans="1:407">
       <c r="BO128" s="2" t="s">
         <v>0</v>
       </c>
@@ -11722,9 +11995,7 @@
       <c r="IJ128" s="3" t="n"/>
       <c r="IK128" s="3" t="n"/>
       <c r="IL128" s="3" t="n"/>
-      <c r="IM128" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IM128" s="3" t="n"/>
       <c r="IN128" s="3" t="n"/>
       <c r="IO128" s="3" t="n"/>
       <c r="IP128" s="3" t="n"/>
@@ -11767,6 +12038,9 @@
       <c r="LD128" s="3" t="n"/>
       <c r="LE128" s="3" t="n"/>
       <c r="LF128" s="3" t="n"/>
+      <c r="LS128" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ128" s="2" t="s">
         <v>0</v>
       </c>
@@ -11774,7 +12048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:407">
+    <row customHeight="1" ht="14.1" r="129" spans="1:407">
       <c r="BO129" s="2" t="s">
         <v>0</v>
       </c>
@@ -11930,9 +12204,7 @@
       <c r="II129" s="3" t="n"/>
       <c r="IJ129" s="3" t="n"/>
       <c r="IK129" s="3" t="n"/>
-      <c r="IL129" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IL129" s="3" t="n"/>
       <c r="IM129" s="3" t="n"/>
       <c r="IN129" s="3" t="n"/>
       <c r="IO129" s="3" t="n"/>
@@ -11976,6 +12248,9 @@
       <c r="LD129" s="3" t="n"/>
       <c r="LE129" s="3" t="n"/>
       <c r="LF129" s="3" t="n"/>
+      <c r="LS129" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ129" s="2" t="s">
         <v>0</v>
       </c>
@@ -11983,7 +12258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:407">
+    <row customHeight="1" ht="14.1" r="130" spans="1:407">
       <c r="BO130" s="2" t="s">
         <v>0</v>
       </c>
@@ -12138,9 +12413,7 @@
       <c r="IH130" s="3" t="n"/>
       <c r="II130" s="3" t="n"/>
       <c r="IJ130" s="3" t="n"/>
-      <c r="IK130" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IK130" s="3" t="n"/>
       <c r="IL130" s="3" t="n"/>
       <c r="IM130" s="3" t="n"/>
       <c r="IN130" s="3" t="n"/>
@@ -12190,6 +12463,9 @@
       <c r="LD130" s="3" t="n"/>
       <c r="LE130" s="3" t="n"/>
       <c r="LF130" s="3" t="n"/>
+      <c r="LR130" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ130" s="2" t="s">
         <v>0</v>
       </c>
@@ -12200,7 +12476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:407">
+    <row customHeight="1" ht="14.1" r="131" spans="1:407">
       <c r="BO131" s="2" t="s">
         <v>0</v>
       </c>
@@ -12358,9 +12634,7 @@
       <c r="IG131" s="3" t="n"/>
       <c r="IH131" s="3" t="n"/>
       <c r="II131" s="3" t="n"/>
-      <c r="IJ131" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="IJ131" s="3" t="n"/>
       <c r="IK131" s="3" t="n"/>
       <c r="IL131" s="3" t="n"/>
       <c r="IM131" s="3" t="n"/>
@@ -12510,6 +12784,9 @@
       <c r="LP131" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LR131" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ131" s="2" t="s">
         <v>0</v>
       </c>
@@ -12520,7 +12797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:407">
+    <row customHeight="1" ht="14.1" r="132" spans="1:407">
       <c r="BO132" s="2" t="s">
         <v>0</v>
       </c>
@@ -12637,9 +12914,6 @@
       </c>
       <c r="DV132" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="II132" t="s">
-        <v>1</v>
       </c>
       <c r="IR132" s="2" t="s">
         <v>0</v>
@@ -12682,6 +12956,9 @@
       <c r="LP132" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LR132" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ132" s="2" t="s">
         <v>0</v>
       </c>
@@ -12692,7 +12969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:407">
+    <row customHeight="1" ht="14.1" r="133" spans="1:407">
       <c r="BO133" s="2" t="s">
         <v>0</v>
       </c>
@@ -12736,9 +13013,6 @@
       <c r="DU133" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IH133" t="s">
-        <v>1</v>
-      </c>
       <c r="IR133" s="2" t="s">
         <v>0</v>
       </c>
@@ -12778,10 +13052,15 @@
         <v>0</v>
       </c>
       <c r="LM133" s="3" t="n"/>
-      <c r="LN133" s="3" t="n"/>
+      <c r="LN133" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="LO133" s="3" t="n"/>
       <c r="LP133" s="3" t="n"/>
       <c r="LQ133" s="3" t="n"/>
+      <c r="LR133" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ133" s="2" t="s">
         <v>0</v>
       </c>
@@ -12792,7 +13071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:407">
+    <row customHeight="1" ht="14.1" r="134" spans="1:407">
       <c r="BO134" s="2" t="s">
         <v>0</v>
       </c>
@@ -12836,9 +13115,6 @@
       <c r="DU134" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IG134" t="s">
-        <v>1</v>
-      </c>
       <c r="IR134" s="2" t="s">
         <v>0</v>
       </c>
@@ -12870,6 +13146,9 @@
       <c r="LO134" s="3" t="n"/>
       <c r="LP134" s="3" t="n"/>
       <c r="LQ134" s="3" t="n"/>
+      <c r="LR134" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ134" s="2" t="s">
         <v>0</v>
       </c>
@@ -12877,7 +13156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:407">
+    <row customHeight="1" ht="14.1" r="135" spans="1:407">
       <c r="BO135" s="2" t="s">
         <v>0</v>
       </c>
@@ -12921,9 +13200,6 @@
       <c r="DU135" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IF135" t="s">
-        <v>1</v>
-      </c>
       <c r="IR135" s="2" t="s">
         <v>0</v>
       </c>
@@ -12970,6 +13246,9 @@
       <c r="LO135" s="3" t="n"/>
       <c r="LP135" s="3" t="n"/>
       <c r="LQ135" s="3" t="n"/>
+      <c r="LR135" t="s">
+        <v>4</v>
+      </c>
       <c r="MQ135" s="2" t="s">
         <v>0</v>
       </c>
@@ -12983,12 +13262,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:407">
+    <row customHeight="1" ht="14.1" r="136" spans="1:407">
       <c r="BO136" s="2" t="s">
         <v>0</v>
       </c>
       <c r="BP136" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="BW136" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="CD136" s="2" t="s">
         <v>0</v>
@@ -13027,9 +13309,6 @@
       <c r="DU136" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IE136" t="s">
-        <v>1</v>
-      </c>
       <c r="IR136" s="2" t="s">
         <v>0</v>
       </c>
@@ -13089,6 +13368,9 @@
       <c r="LP136" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LQ136" t="s">
+        <v>4</v>
+      </c>
       <c r="MQ136" s="2" t="s">
         <v>0</v>
       </c>
@@ -13102,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:407">
+    <row customHeight="1" ht="14.1" r="137" spans="1:407">
       <c r="BO137" s="2" t="s">
         <v>0</v>
       </c>
@@ -13146,9 +13428,6 @@
       <c r="DU137" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="ID137" t="s">
-        <v>1</v>
-      </c>
       <c r="IR137" s="2" t="s">
         <v>0</v>
       </c>
@@ -13181,6 +13460,9 @@
       <c r="LP137" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LQ137" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ137" s="2" t="s">
         <v>0</v>
       </c>
@@ -13188,7 +13470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:407">
+    <row customHeight="1" ht="14.1" r="138" spans="1:407">
       <c r="BO138" s="2" t="s">
         <v>0</v>
       </c>
@@ -13260,9 +13542,6 @@
       <c r="DU138" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IC138" t="s">
-        <v>1</v>
-      </c>
       <c r="IR138" s="2" t="s">
         <v>0</v>
       </c>
@@ -13316,6 +13595,9 @@
       <c r="LP138" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LQ138" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ138" s="2" t="s">
         <v>0</v>
       </c>
@@ -13326,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:407">
+    <row customHeight="1" ht="14.1" r="139" spans="1:407">
       <c r="BO139" s="2" t="s">
         <v>0</v>
       </c>
@@ -13389,9 +13671,6 @@
       <c r="DU139" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IB139" t="s">
-        <v>1</v>
-      </c>
       <c r="IR139" s="2" t="s">
         <v>0</v>
       </c>
@@ -13481,6 +13760,9 @@
       <c r="LP139" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LQ139" t="s">
+        <v>4</v>
+      </c>
       <c r="NJ139" s="2" t="s">
         <v>0</v>
       </c>
@@ -13491,7 +13773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:407">
+    <row customHeight="1" ht="14.1" r="140" spans="1:407">
       <c r="BO140" s="2" t="s">
         <v>0</v>
       </c>
@@ -13560,9 +13842,6 @@
       <c r="DU140" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IA140" t="s">
-        <v>1</v>
-      </c>
       <c r="IR140" s="2" t="s">
         <v>0</v>
       </c>
@@ -13708,7 +13987,9 @@
       </c>
       <c r="LN140" s="3" t="n"/>
       <c r="LO140" s="3" t="n"/>
-      <c r="LP140" s="3" t="n"/>
+      <c r="LP140" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="LQ140" s="3" t="n"/>
       <c r="LX140" s="2" t="s">
         <v>0</v>
@@ -13732,7 +14013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:407">
+    <row customHeight="1" ht="14.1" r="141" spans="1:407">
       <c r="W141" s="2" t="s">
         <v>0</v>
       </c>
@@ -13956,9 +14237,6 @@
       <c r="DU141" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="HZ141" t="s">
-        <v>1</v>
-      </c>
       <c r="IR141" s="2" t="s">
         <v>0</v>
       </c>
@@ -14004,7 +14282,9 @@
         <v>0</v>
       </c>
       <c r="LN141" s="3" t="n"/>
-      <c r="LO141" s="3" t="n"/>
+      <c r="LO141" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="LP141" s="3" t="n"/>
       <c r="LQ141" s="3" t="n"/>
       <c r="LX141" s="2" t="s">
@@ -14029,7 +14309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:407">
+    <row customHeight="1" ht="14.1" r="142" spans="1:407">
       <c r="W142" s="2" t="s">
         <v>0</v>
       </c>
@@ -14214,9 +14494,6 @@
       <c r="DU142" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="HY142" t="s">
-        <v>1</v>
-      </c>
       <c r="IR142" s="2" t="s">
         <v>0</v>
       </c>
@@ -14267,7 +14544,18 @@
       <c r="LF142" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="LN142" s="3" t="n"/>
+      <c r="LK142" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="LL142" t="s">
+        <v>4</v>
+      </c>
+      <c r="LM142" t="s">
+        <v>4</v>
+      </c>
+      <c r="LN142" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="LO142" s="3" t="n"/>
       <c r="LP142" s="3" t="n"/>
       <c r="LQ142" s="3" t="n"/>
@@ -14293,7 +14581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:407">
+    <row customHeight="1" ht="14.1" r="143" spans="1:407">
       <c r="W143" s="2" t="s">
         <v>0</v>
       </c>
@@ -14394,9 +14682,6 @@
       <c r="DU143" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="HX143" t="s">
-        <v>1</v>
-      </c>
       <c r="IR143" s="2" t="s">
         <v>0</v>
       </c>
@@ -14535,7 +14820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:407">
+    <row customHeight="1" ht="14.1" r="144" spans="1:407">
       <c r="W144" s="2" t="s">
         <v>0</v>
       </c>
@@ -14624,18 +14909,6 @@
       <c r="DU144" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="HT144" t="s">
-        <v>1</v>
-      </c>
-      <c r="HU144" t="s">
-        <v>1</v>
-      </c>
-      <c r="HV144" t="s">
-        <v>1</v>
-      </c>
-      <c r="HW144" t="s">
-        <v>1</v>
-      </c>
       <c r="IR144" s="2" t="s">
         <v>0</v>
       </c>
@@ -14717,7 +14990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:407">
+    <row customHeight="1" ht="14.1" r="145" spans="1:407">
       <c r="W145" s="2" t="s">
         <v>0</v>
       </c>
@@ -14750,6 +15023,9 @@
       </c>
       <c r="BP145" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="BV145" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="CA145" s="3" t="n"/>
       <c r="CB145" s="3" t="n"/>
@@ -14813,9 +15089,6 @@
       <c r="DU145" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="HS145" t="s">
-        <v>1</v>
-      </c>
       <c r="IR145" s="2" t="s">
         <v>0</v>
       </c>
@@ -14897,7 +15170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:407">
+    <row customHeight="1" ht="14.1" r="146" spans="1:407">
       <c r="W146" s="2" t="s">
         <v>0</v>
       </c>
@@ -14966,12 +15239,6 @@
       <c r="DU146" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="HQ146" t="s">
-        <v>1</v>
-      </c>
-      <c r="HR146" t="s">
-        <v>1</v>
-      </c>
       <c r="IR146" s="2" t="s">
         <v>0</v>
       </c>
@@ -15025,7 +15292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:407">
+    <row customHeight="1" ht="14.1" r="147" spans="1:407">
       <c r="W147" s="2" t="s">
         <v>0</v>
       </c>
@@ -15094,9 +15361,6 @@
       <c r="DU147" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="HP147" t="s">
-        <v>1</v>
-      </c>
       <c r="IR147" s="2" t="s">
         <v>0</v>
       </c>
@@ -15134,6 +15398,9 @@
       <c r="LP147" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="LV147" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="MC147" s="2" t="s">
         <v>0</v>
       </c>
@@ -15153,7 +15420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:407">
+    <row customHeight="1" ht="14.1" r="148" spans="1:407">
       <c r="W148" s="2" t="s">
         <v>0</v>
       </c>
@@ -15222,9 +15489,6 @@
       <c r="DU148" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="HO148" t="s">
-        <v>1</v>
-      </c>
       <c r="IR148" s="2" t="s">
         <v>0</v>
       </c>
@@ -15284,7 +15548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:407">
+    <row customHeight="1" ht="14.1" r="149" spans="1:407">
       <c r="W149" s="2" t="s">
         <v>0</v>
       </c>
@@ -15350,9 +15614,6 @@
       <c r="DU149" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="HN149" t="s">
-        <v>1</v>
-      </c>
       <c r="IR149" s="2" t="s">
         <v>0</v>
       </c>
@@ -15415,7 +15676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:407">
+    <row customHeight="1" ht="14.1" r="150" spans="1:407">
       <c r="W150" s="2" t="s">
         <v>0</v>
       </c>
@@ -15484,9 +15745,6 @@
       <c r="DU150" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="HM150" t="s">
-        <v>1</v>
-      </c>
       <c r="IR150" s="2" t="s">
         <v>0</v>
       </c>
@@ -15549,7 +15807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:407">
+    <row customHeight="1" ht="14.1" r="151" spans="1:407">
       <c r="W151" s="2" t="s">
         <v>0</v>
       </c>
@@ -15777,9 +16035,7 @@
       <c r="HI151" s="3" t="n"/>
       <c r="HJ151" s="3" t="n"/>
       <c r="HK151" s="3" t="n"/>
-      <c r="HL151" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="HL151" s="3" t="n"/>
       <c r="HM151" s="3" t="n"/>
       <c r="HN151" s="3" t="n"/>
       <c r="HO151" s="3" t="n"/>
@@ -16010,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:407">
+    <row customHeight="1" ht="14.1" r="152" spans="1:407">
       <c r="W152" s="2" t="s">
         <v>0</v>
       </c>
@@ -16181,9 +16437,7 @@
       <c r="HH152" s="3" t="n"/>
       <c r="HI152" s="3" t="n"/>
       <c r="HJ152" s="3" t="n"/>
-      <c r="HK152" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="HK152" s="3" t="n"/>
       <c r="HL152" s="3" t="n"/>
       <c r="HM152" s="3" t="n"/>
       <c r="HN152" s="3" t="n"/>
@@ -16311,7 +16565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:407">
+    <row customHeight="1" ht="14.1" r="153" spans="1:407">
       <c r="W153" s="2" t="s">
         <v>0</v>
       </c>
@@ -16501,9 +16755,7 @@
       <c r="HG153" s="3" t="n"/>
       <c r="HH153" s="3" t="n"/>
       <c r="HI153" s="3" t="n"/>
-      <c r="HJ153" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="HJ153" s="3" t="n"/>
       <c r="HK153" s="3" t="n"/>
       <c r="HL153" s="3" t="n"/>
       <c r="HM153" s="3" t="n"/>
@@ -16629,7 +16881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:407">
+    <row customHeight="1" ht="14.1" r="154" spans="1:407">
       <c r="W154" s="2" t="s">
         <v>0</v>
       </c>
@@ -16802,9 +17054,7 @@
       <c r="HF154" s="3" t="n"/>
       <c r="HG154" s="3" t="n"/>
       <c r="HH154" s="3" t="n"/>
-      <c r="HI154" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="HI154" s="3" t="n"/>
       <c r="HJ154" s="3" t="n"/>
       <c r="HK154" s="3" t="n"/>
       <c r="HL154" s="3" t="n"/>
@@ -16931,7 +17181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:407">
+    <row customHeight="1" ht="14.1" r="155" spans="1:407">
       <c r="Z155" s="2" t="s">
         <v>0</v>
       </c>
@@ -17093,9 +17343,7 @@
       <c r="HE155" s="3" t="n"/>
       <c r="HF155" s="3" t="n"/>
       <c r="HG155" s="3" t="n"/>
-      <c r="HH155" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="HH155" s="3" t="n"/>
       <c r="HI155" s="3" t="n"/>
       <c r="HJ155" s="3" t="n"/>
       <c r="HK155" s="3" t="n"/>
@@ -17223,7 +17471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:407">
+    <row customHeight="1" ht="14.1" r="156" spans="1:407">
       <c r="Z156" s="2" t="s">
         <v>0</v>
       </c>
@@ -17384,9 +17632,7 @@
       <c r="HD156" s="3" t="n"/>
       <c r="HE156" s="3" t="n"/>
       <c r="HF156" s="3" t="n"/>
-      <c r="HG156" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="HG156" s="3" t="n"/>
       <c r="HH156" s="3" t="n"/>
       <c r="HI156" s="3" t="n"/>
       <c r="HJ156" s="3" t="n"/>
@@ -17515,7 +17761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:407">
+    <row customHeight="1" ht="14.1" r="157" spans="1:407">
       <c r="A157" s="2" t="s">
         <v>0</v>
       </c>
@@ -17773,201 +18019,71 @@
       <c r="EQ157" s="3" t="n"/>
       <c r="ER157" s="3" t="n"/>
       <c r="ES157" s="3" t="n"/>
-      <c r="ET157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="EU157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="EV157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="EW157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="EX157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="EY157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="EZ157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FA157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FB157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FC157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FD157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FE157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FF157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FG157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FH157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FI157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FJ157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FK157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FL157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FM157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FN157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FO157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FP157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FQ157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FR157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FS157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FT157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FU157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FV157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FW157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FX157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FY157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="FZ157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GA157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GB157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GC157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GD157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GE157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GF157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GG157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GH157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GI157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GJ157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GK157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GL157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GM157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GN157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GO157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GP157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GQ157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GR157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GS157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GT157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GU157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GV157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GW157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GX157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GY157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="GZ157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="HA157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="HB157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="HC157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="HD157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="HE157" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="HF157" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="ET157" s="3" t="n"/>
+      <c r="EU157" s="3" t="n"/>
+      <c r="EV157" s="3" t="n"/>
+      <c r="EW157" s="3" t="n"/>
+      <c r="EX157" s="3" t="n"/>
+      <c r="EY157" s="3" t="n"/>
+      <c r="EZ157" s="3" t="n"/>
+      <c r="FA157" s="3" t="n"/>
+      <c r="FB157" s="3" t="n"/>
+      <c r="FC157" s="3" t="n"/>
+      <c r="FD157" s="3" t="n"/>
+      <c r="FE157" s="3" t="n"/>
+      <c r="FF157" s="3" t="n"/>
+      <c r="FG157" s="3" t="n"/>
+      <c r="FH157" s="3" t="n"/>
+      <c r="FI157" s="3" t="n"/>
+      <c r="FJ157" s="3" t="n"/>
+      <c r="FK157" s="3" t="n"/>
+      <c r="FL157" s="3" t="n"/>
+      <c r="FM157" s="3" t="n"/>
+      <c r="FN157" s="3" t="n"/>
+      <c r="FO157" s="3" t="n"/>
+      <c r="FP157" s="3" t="n"/>
+      <c r="FQ157" s="3" t="n"/>
+      <c r="FR157" s="3" t="n"/>
+      <c r="FS157" s="3" t="n"/>
+      <c r="FT157" s="3" t="n"/>
+      <c r="FU157" s="3" t="n"/>
+      <c r="FV157" s="3" t="n"/>
+      <c r="FW157" s="3" t="n"/>
+      <c r="FX157" s="3" t="n"/>
+      <c r="FY157" s="3" t="n"/>
+      <c r="FZ157" s="3" t="n"/>
+      <c r="GA157" s="3" t="n"/>
+      <c r="GB157" s="3" t="n"/>
+      <c r="GC157" s="3" t="n"/>
+      <c r="GD157" s="3" t="n"/>
+      <c r="GE157" s="3" t="n"/>
+      <c r="GF157" s="3" t="n"/>
+      <c r="GG157" s="3" t="n"/>
+      <c r="GH157" s="3" t="n"/>
+      <c r="GI157" s="3" t="n"/>
+      <c r="GJ157" s="3" t="n"/>
+      <c r="GK157" s="3" t="n"/>
+      <c r="GL157" s="3" t="n"/>
+      <c r="GM157" s="3" t="n"/>
+      <c r="GN157" s="3" t="n"/>
+      <c r="GO157" s="3" t="n"/>
+      <c r="GP157" s="3" t="n"/>
+      <c r="GQ157" s="3" t="n"/>
+      <c r="GR157" s="3" t="n"/>
+      <c r="GS157" s="3" t="n"/>
+      <c r="GT157" s="3" t="n"/>
+      <c r="GU157" s="3" t="n"/>
+      <c r="GV157" s="3" t="n"/>
+      <c r="GW157" s="3" t="n"/>
+      <c r="GX157" s="3" t="n"/>
+      <c r="GY157" s="3" t="n"/>
+      <c r="GZ157" s="3" t="n"/>
+      <c r="HA157" s="3" t="n"/>
+      <c r="HB157" s="3" t="n"/>
+      <c r="HC157" s="3" t="n"/>
+      <c r="HD157" s="3" t="n"/>
+      <c r="HE157" s="3" t="n"/>
+      <c r="HF157" s="3" t="n"/>
       <c r="HG157" s="3" t="n"/>
       <c r="HH157" s="3" t="n"/>
       <c r="HI157" s="3" t="n"/>
@@ -18100,7 +18216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:407">
+    <row customHeight="1" ht="14.1" r="158" spans="1:407">
       <c r="A158" s="2" t="s">
         <v>0</v>
       </c>
@@ -18285,36 +18401,16 @@
       <c r="EG158" s="3" t="n"/>
       <c r="EH158" s="3" t="n"/>
       <c r="EI158" s="3" t="n"/>
-      <c r="EJ158" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="EK158" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="EL158" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="EM158" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="EN158" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="EO158" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="EP158" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="EQ158" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="ER158" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="ES158" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="EJ158" s="3" t="n"/>
+      <c r="EK158" s="3" t="n"/>
+      <c r="EL158" s="3" t="n"/>
+      <c r="EM158" s="3" t="n"/>
+      <c r="EN158" s="3" t="n"/>
+      <c r="EO158" s="3" t="n"/>
+      <c r="EP158" s="3" t="n"/>
+      <c r="EQ158" s="3" t="n"/>
+      <c r="ER158" s="3" t="n"/>
+      <c r="ES158" s="3" t="n"/>
       <c r="ET158" s="3" t="n"/>
       <c r="EU158" s="3" t="n"/>
       <c r="EV158" s="3" t="n"/>
@@ -18512,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:407">
+    <row customHeight="1" ht="14.1" r="159" spans="1:407">
       <c r="A159" s="2" t="s">
         <v>0</v>
       </c>
@@ -18588,9 +18684,7 @@
       <c r="EF159" s="3" t="n"/>
       <c r="EG159" s="3" t="n"/>
       <c r="EH159" s="3" t="n"/>
-      <c r="EI159" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="EI159" s="3" t="n"/>
       <c r="EJ159" s="3" t="n"/>
       <c r="EK159" s="3" t="n"/>
       <c r="EL159" s="3" t="n"/>
@@ -18804,7 +18898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:407">
+    <row customHeight="1" ht="14.1" r="160" spans="1:407">
       <c r="A160" s="2" t="s">
         <v>0</v>
       </c>
@@ -18928,9 +19022,7 @@
       <c r="EF160" s="3" t="n"/>
       <c r="EG160" s="3" t="n"/>
       <c r="EH160" s="3" t="n"/>
-      <c r="EI160" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="EI160" s="3" t="n"/>
       <c r="EJ160" s="3" t="n"/>
       <c r="EK160" s="2" t="s">
         <v>0</v>
@@ -19484,7 +19576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:407">
+    <row customHeight="1" ht="14.1" r="161" spans="1:407">
       <c r="A161" s="2" t="s">
         <v>0</v>
       </c>
@@ -19710,9 +19802,7 @@
       <c r="EF161" s="3" t="n"/>
       <c r="EG161" s="3" t="n"/>
       <c r="EH161" s="3" t="n"/>
-      <c r="EI161" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="EI161" s="3" t="n"/>
       <c r="EJ161" s="3" t="n"/>
       <c r="EK161" s="2" t="s">
         <v>0</v>
@@ -20257,7 +20347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:407">
+    <row customHeight="1" ht="14.1" r="162" spans="1:407">
       <c r="A162" s="2" t="s">
         <v>0</v>
       </c>
@@ -20324,9 +20414,7 @@
       <c r="EF162" s="3" t="n"/>
       <c r="EG162" s="3" t="n"/>
       <c r="EH162" s="3" t="n"/>
-      <c r="EI162" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="EI162" s="3" t="n"/>
       <c r="EJ162" s="3" t="n"/>
       <c r="EN162" s="2" t="s">
         <v>0</v>
@@ -20463,7 +20551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:407">
+    <row customHeight="1" ht="14.1" r="163" spans="1:407">
       <c r="A163" s="2" t="s">
         <v>0</v>
       </c>
@@ -20512,9 +20600,7 @@
       <c r="EF163" s="3" t="n"/>
       <c r="EG163" s="3" t="n"/>
       <c r="EH163" s="3" t="n"/>
-      <c r="EI163" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="EI163" s="3" t="n"/>
       <c r="EJ163" s="3" t="n"/>
       <c r="EN163" s="2" t="s">
         <v>0</v>
@@ -20629,7 +20715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:407">
+    <row customHeight="1" ht="14.1" r="164" spans="1:407">
       <c r="A164" s="2" t="s">
         <v>0</v>
       </c>
@@ -20669,9 +20755,7 @@
       <c r="EF164" s="3" t="n"/>
       <c r="EG164" s="3" t="n"/>
       <c r="EH164" s="3" t="n"/>
-      <c r="EI164" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="EI164" s="3" t="n"/>
       <c r="EJ164" s="3" t="n"/>
       <c r="EN164" s="2" t="s">
         <v>0</v>
@@ -20748,7 +20832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:407">
+    <row customHeight="1" ht="14.1" r="165" spans="1:407">
       <c r="A165" s="2" t="s">
         <v>0</v>
       </c>
@@ -20776,9 +20860,7 @@
       <c r="EF165" s="3" t="n"/>
       <c r="EG165" s="3" t="n"/>
       <c r="EH165" s="3" t="n"/>
-      <c r="EI165" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="EI165" s="3" t="n"/>
       <c r="EJ165" s="3" t="n"/>
       <c r="EN165" s="2" t="s">
         <v>0</v>
@@ -20846,7 +20928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:407">
+    <row customHeight="1" ht="14.1" r="166" spans="1:407">
       <c r="A166" s="2" t="s">
         <v>0</v>
       </c>
@@ -20874,9 +20956,7 @@
       <c r="EF166" s="3" t="n"/>
       <c r="EG166" s="3" t="n"/>
       <c r="EH166" s="3" t="n"/>
-      <c r="EI166" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="EI166" s="3" t="n"/>
       <c r="EJ166" s="3" t="n"/>
       <c r="EN166" s="2" t="s">
         <v>0</v>
@@ -20953,7 +21033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:407">
+    <row customHeight="1" ht="14.1" r="167" spans="1:407">
       <c r="A167" s="2" t="s">
         <v>0</v>
       </c>
@@ -20986,9 +21066,7 @@
       </c>
       <c r="EF167" s="3" t="n"/>
       <c r="EG167" s="3" t="n"/>
-      <c r="EH167" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="EH167" s="3" t="n"/>
       <c r="EI167" s="3" t="n"/>
       <c r="EJ167" s="3" t="n"/>
       <c r="EN167" s="2" t="s">
@@ -21062,7 +21140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:407">
+    <row customHeight="1" ht="14.1" r="168" spans="1:407">
       <c r="A168" s="2" t="s">
         <v>0</v>
       </c>
@@ -21097,9 +21175,7 @@
         <v>0</v>
       </c>
       <c r="EF168" s="3" t="n"/>
-      <c r="EG168" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="EG168" s="3" t="n"/>
       <c r="EH168" s="3" t="n"/>
       <c r="EI168" s="3" t="n"/>
       <c r="EJ168" s="3" t="n"/>
@@ -21177,7 +21253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:407">
+    <row customHeight="1" ht="14.1" r="169" spans="1:407">
       <c r="A169" s="2" t="s">
         <v>0</v>
       </c>
@@ -21210,9 +21286,6 @@
       </c>
       <c r="CI169" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="EG169" t="s">
-        <v>1</v>
       </c>
       <c r="EN169" s="2" t="s">
         <v>0</v>
@@ -21301,7 +21374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:407">
+    <row customHeight="1" ht="14.1" r="170" spans="1:407">
       <c r="A170" s="2" t="s">
         <v>0</v>
       </c>
@@ -21370,9 +21443,6 @@
       </c>
       <c r="CV170" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="EF170" t="s">
-        <v>1</v>
       </c>
       <c r="EN170" s="2" t="s">
         <v>0</v>
@@ -21464,7 +21534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:407">
+    <row customHeight="1" ht="14.1" r="171" spans="1:407">
       <c r="A171" s="2" t="s">
         <v>0</v>
       </c>
@@ -21500,9 +21570,6 @@
       </c>
       <c r="CV171" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="EE171" t="s">
-        <v>1</v>
       </c>
       <c r="EN171" s="2" t="s">
         <v>0</v>
@@ -21696,7 +21763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:407">
+    <row customHeight="1" ht="14.1" r="172" spans="1:407">
       <c r="A172" s="2" t="s">
         <v>0</v>
       </c>
@@ -21735,9 +21802,6 @@
       </c>
       <c r="CV172" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="ED172" t="s">
-        <v>1</v>
       </c>
       <c r="EN172" s="2" t="s">
         <v>0</v>
@@ -21844,7 +21908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:407">
+    <row customHeight="1" ht="14.1" r="173" spans="1:407">
       <c r="A173" s="2" t="s">
         <v>0</v>
       </c>
@@ -21886,9 +21950,6 @@
       </c>
       <c r="CV173" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="ED173" t="s">
-        <v>1</v>
       </c>
       <c r="EF173" s="2" t="s">
         <v>0</v>
@@ -21980,7 +22041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:407">
+    <row customHeight="1" ht="14.1" r="174" spans="1:407">
       <c r="A174" s="2" t="s">
         <v>0</v>
       </c>
@@ -22013,9 +22074,6 @@
       </c>
       <c r="DT174" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="EC174" t="s">
-        <v>1</v>
       </c>
       <c r="EF174" s="2" t="s">
         <v>0</v>
@@ -22136,7 +22194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:407">
+    <row customHeight="1" ht="14.1" r="175" spans="1:407">
       <c r="A175" s="2" t="s">
         <v>0</v>
       </c>
@@ -22199,9 +22257,6 @@
       </c>
       <c r="DT175" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="EB175" t="s">
-        <v>1</v>
       </c>
       <c r="EN175" s="2" t="s">
         <v>0</v>
@@ -22286,7 +22341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:407">
+    <row customHeight="1" ht="14.1" r="176" spans="1:407">
       <c r="A176" s="2" t="s">
         <v>0</v>
       </c>
@@ -22355,9 +22410,6 @@
       </c>
       <c r="DT176" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="EA176" t="s">
-        <v>1</v>
       </c>
       <c r="EN176" s="2" t="s">
         <v>0</v>
@@ -22460,7 +22512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:407">
+    <row customHeight="1" ht="14.1" r="177" spans="1:407">
       <c r="A177" s="2" t="s">
         <v>0</v>
       </c>
@@ -22508,9 +22560,6 @@
       </c>
       <c r="DT177" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="DZ177" t="s">
-        <v>1</v>
       </c>
       <c r="EN177" s="2" t="s">
         <v>0</v>
@@ -22600,7 +22649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:407">
+    <row customHeight="1" ht="14.1" r="178" spans="1:407">
       <c r="A178" s="2" t="s">
         <v>0</v>
       </c>
@@ -22642,9 +22691,6 @@
       </c>
       <c r="DT178" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="DY178" t="s">
-        <v>1</v>
       </c>
       <c r="EF178" s="2" t="s">
         <v>0</v>
@@ -22773,7 +22819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:407">
+    <row customHeight="1" ht="14.1" r="179" spans="1:407">
       <c r="A179" s="2" t="s">
         <v>0</v>
       </c>
@@ -22889,7 +22935,7 @@
         <v>0</v>
       </c>
       <c r="DX179" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="EF179" s="2" t="s">
         <v>0</v>
@@ -23036,7 +23082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:407">
+    <row customHeight="1" ht="14.1" r="180" spans="1:407">
       <c r="A180" s="2" t="s">
         <v>0</v>
       </c>
@@ -23398,7 +23444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:407">
+    <row customHeight="1" ht="14.1" r="181" spans="1:407">
       <c r="A181" s="2" t="s">
         <v>0</v>
       </c>
@@ -23573,7 +23619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:407">
+    <row customHeight="1" ht="14.1" r="182" spans="1:407">
       <c r="A182" s="2" t="s">
         <v>0</v>
       </c>
@@ -23708,7 +23754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:407">
+    <row customHeight="1" ht="14.1" r="183" spans="1:407">
       <c r="A183" s="2" t="s">
         <v>0</v>
       </c>
@@ -23941,7 +23987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:407">
+    <row customHeight="1" ht="14.1" r="184" spans="1:407">
       <c r="A184" s="2" t="s">
         <v>0</v>
       </c>
@@ -24141,7 +24187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:407">
+    <row customHeight="1" ht="14.1" r="185" spans="1:407">
       <c r="A185" s="2" t="s">
         <v>0</v>
       </c>
@@ -24358,7 +24404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:407">
+    <row customHeight="1" ht="14.1" r="186" spans="1:407">
       <c r="W186" s="3" t="n"/>
       <c r="X186" s="3" t="n"/>
       <c r="Y186" s="3" t="n"/>
@@ -24480,7 +24526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:407">
+    <row customHeight="1" ht="14.1" r="187" spans="1:407">
       <c r="W187" s="3" t="n"/>
       <c r="X187" s="3" t="n"/>
       <c r="Y187" s="3" t="n"/>
@@ -24592,7 +24638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:407">
+    <row customHeight="1" ht="14.1" r="188" spans="1:407">
       <c r="BO188" s="2" t="s">
         <v>0</v>
       </c>
@@ -24688,7 +24734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:407">
+    <row customHeight="1" ht="14.1" r="189" spans="1:407">
       <c r="BO189" s="2" t="s">
         <v>0</v>
       </c>
@@ -24797,7 +24843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:407">
+    <row customHeight="1" ht="14.1" r="190" spans="1:407">
       <c r="BO190" s="2" t="s">
         <v>0</v>
       </c>
@@ -24891,7 +24937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:407">
+    <row customHeight="1" ht="14.1" r="191" spans="1:407">
       <c r="BO191" s="2" t="s">
         <v>0</v>
       </c>
@@ -24982,7 +25028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:407">
+    <row customHeight="1" ht="14.1" r="192" spans="1:407">
       <c r="BO192" s="2" t="s">
         <v>0</v>
       </c>
@@ -25066,7 +25112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:407">
+    <row customHeight="1" ht="14.1" r="193" spans="1:407">
       <c r="BO193" s="2" t="s">
         <v>0</v>
       </c>
@@ -25204,7 +25250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:407">
+    <row customHeight="1" ht="14.1" r="194" spans="1:407">
       <c r="BO194" s="2" t="s">
         <v>0</v>
       </c>
@@ -25333,7 +25379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:407">
+    <row customHeight="1" ht="14.1" r="195" spans="1:407">
       <c r="BO195" s="2" t="s">
         <v>0</v>
       </c>
@@ -25432,7 +25478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:407">
+    <row customHeight="1" ht="14.1" r="196" spans="1:407">
       <c r="BO196" s="2" t="s">
         <v>0</v>
       </c>
@@ -25528,7 +25574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:407">
+    <row customHeight="1" ht="14.1" r="197" spans="1:407">
       <c r="BO197" s="2" t="s">
         <v>0</v>
       </c>
@@ -25658,7 +25704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:407">
+    <row customHeight="1" ht="14.1" r="198" spans="1:407">
       <c r="BO198" s="2" t="s">
         <v>0</v>
       </c>
@@ -26412,7 +26458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:407">
+    <row customHeight="1" ht="14.1" r="199" spans="1:407">
       <c r="BO199" s="2" t="s">
         <v>0</v>
       </c>
@@ -26854,7 +26900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:407">
+    <row customHeight="1" ht="14.1" r="200" spans="1:407">
       <c r="BO200" s="2" t="s">
         <v>0</v>
       </c>
@@ -27668,7 +27714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:407">
+    <row customHeight="1" ht="14.1" r="201" spans="1:407">
       <c r="BV201" s="2" t="s">
         <v>0</v>
       </c>
@@ -27771,7 +27817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:407">
+    <row customHeight="1" ht="14.1" r="202" spans="1:407">
       <c r="BV202" s="2" t="s">
         <v>0</v>
       </c>
@@ -27877,7 +27923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:407">
+    <row customHeight="1" ht="14.1" r="203" spans="1:407">
       <c r="BW203" s="2" t="s">
         <v>0</v>
       </c>
@@ -27934,7 +27980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:407">
+    <row customHeight="1" ht="14.1" r="204" spans="1:407">
       <c r="BW204" s="2" t="s">
         <v>0</v>
       </c>
@@ -27988,7 +28034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:407">
+    <row customHeight="1" ht="14.1" r="205" spans="1:407">
       <c r="BV205" s="2" t="s">
         <v>0</v>
       </c>
@@ -28048,7 +28094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:407">
+    <row customHeight="1" ht="14.1" r="206" spans="1:407">
       <c r="BV206" s="2" t="s">
         <v>0</v>
       </c>
@@ -28132,7 +28178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:407">
+    <row customHeight="1" ht="14.1" r="207" spans="1:407">
       <c r="BO207" s="2" t="s">
         <v>0</v>
       </c>
@@ -28318,7 +28364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:407">
+    <row customHeight="1" ht="14.1" r="208" spans="1:407">
       <c r="BO208" s="2" t="s">
         <v>0</v>
       </c>
@@ -28570,7 +28616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:407">
+    <row customHeight="1" ht="14.1" r="209" spans="1:407">
       <c r="BO209" s="2" t="s">
         <v>0</v>
       </c>
@@ -28728,7 +28774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:407">
+    <row customHeight="1" ht="14.1" r="210" spans="1:407">
       <c r="BO210" s="2" t="s">
         <v>0</v>
       </c>
@@ -28817,7 +28863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:407">
+    <row customHeight="1" ht="14.1" r="211" spans="1:407">
       <c r="BO211" s="2" t="s">
         <v>0</v>
       </c>
@@ -28897,7 +28943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:407">
+    <row customHeight="1" ht="14.1" r="212" spans="1:407">
       <c r="BO212" s="2" t="s">
         <v>0</v>
       </c>
@@ -28980,7 +29026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:407">
+    <row customHeight="1" ht="14.1" r="213" spans="1:407">
       <c r="BO213" s="2" t="s">
         <v>0</v>
       </c>
@@ -29069,7 +29115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:407">
+    <row customHeight="1" ht="14.1" r="214" spans="1:407">
       <c r="BO214" s="2" t="s">
         <v>0</v>
       </c>
@@ -29155,7 +29201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:407">
+    <row customHeight="1" ht="15.75" r="215" spans="1:407">
       <c r="BO215" s="2" t="s">
         <v>0</v>
       </c>
@@ -29241,7 +29287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:407">
+    <row customHeight="1" ht="15.75" r="216" spans="1:407">
       <c r="BO216" s="2" t="s">
         <v>0</v>
       </c>
@@ -29324,7 +29370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:407">
+    <row customHeight="1" ht="15.75" r="217" spans="1:407">
       <c r="BO217" s="2" t="s">
         <v>0</v>
       </c>
@@ -29468,7 +29514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:407">
+    <row customHeight="1" ht="15.75" r="218" spans="1:407">
       <c r="BO218" s="2" t="s">
         <v>0</v>
       </c>
@@ -29618,7 +29664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:407">
+    <row customHeight="1" ht="15.75" r="219" spans="1:407">
       <c r="BO219" s="2" t="s">
         <v>0</v>
       </c>
@@ -29732,7 +29778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:407">
+    <row customHeight="1" ht="15.75" r="220" spans="1:407">
       <c r="BO220" s="2" t="s">
         <v>0</v>
       </c>
@@ -29837,7 +29883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:407">
+    <row customHeight="1" ht="15.75" r="221" spans="1:407">
       <c r="BO221" s="2" t="s">
         <v>0</v>
       </c>
@@ -29966,7 +30012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:407">
+    <row customHeight="1" ht="15.75" r="222" spans="1:407">
       <c r="BO222" s="2" t="s">
         <v>0</v>
       </c>
@@ -30074,7 +30120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:407">
+    <row customHeight="1" ht="15.75" r="223" spans="1:407">
       <c r="BO223" s="2" t="s">
         <v>0</v>
       </c>
@@ -30167,7 +30213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:407">
+    <row customHeight="1" ht="15.75" r="224" spans="1:407">
       <c r="BO224" s="2" t="s">
         <v>0</v>
       </c>
@@ -30266,7 +30312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:407">
+    <row customHeight="1" ht="15.75" r="225" spans="1:407">
       <c r="BO225" s="2" t="s">
         <v>0</v>
       </c>
@@ -30368,7 +30414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:407">
+    <row customHeight="1" ht="15.75" r="226" spans="1:407">
       <c r="BO226" s="2" t="s">
         <v>0</v>
       </c>
@@ -30563,7 +30609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:407">
+    <row customHeight="1" ht="15.75" r="227" spans="1:407">
       <c r="EF227" s="2" t="s">
         <v>0</v>
       </c>
@@ -30626,7 +30672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:407">
+    <row customHeight="1" ht="15.75" r="228" spans="1:407">
       <c r="ED228" s="2" t="s">
         <v>0</v>
       </c>
@@ -30704,7 +30750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:407">
+    <row customHeight="1" ht="15.75" r="229" spans="1:407">
       <c r="EC229" s="2" t="s">
         <v>0</v>
       </c>
@@ -30761,7 +30807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:407">
+    <row customHeight="1" ht="15.75" r="230" spans="1:407">
       <c r="EC230" s="2" t="s">
         <v>0</v>
       </c>
@@ -30821,7 +30867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:407">
+    <row customHeight="1" ht="15.75" r="231" spans="1:407">
       <c r="EH231" s="2" t="s">
         <v>0</v>
       </c>
@@ -30881,7 +30927,7 @@
       <c r="NG231" s="3" t="n"/>
       <c r="NH231" s="3" t="n"/>
     </row>
-    <row r="232" spans="1:407">
+    <row customHeight="1" ht="15.75" r="232" spans="1:407">
       <c r="EG232" s="2" t="s">
         <v>0</v>
       </c>
@@ -30920,7 +30966,7 @@
       <c r="NG232" s="3" t="n"/>
       <c r="NH232" s="3" t="n"/>
     </row>
-    <row r="233" spans="1:407">
+    <row customHeight="1" ht="15.75" r="233" spans="1:407">
       <c r="EF233" s="2" t="s">
         <v>0</v>
       </c>
@@ -31115,7 +31161,7 @@
       <c r="NG233" s="3" t="n"/>
       <c r="NH233" s="3" t="n"/>
     </row>
-    <row r="234" spans="1:407">
+    <row customHeight="1" ht="15.75" r="234" spans="1:407">
       <c r="EF234" s="2" t="s">
         <v>0</v>
       </c>
@@ -31482,5 +31528,6 @@
     <row r="407" spans="1:407"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/path.xlsx
+++ b/path.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
   <si>
     <t>.</t>
   </si>
@@ -310,9 +310,6 @@
     <t>H1.23</t>
   </si>
   <si>
-    <t>H1.20</t>
-  </si>
-  <si>
     <t>H1.20A</t>
   </si>
   <si>
@@ -346,9 +343,6 @@
     <t>H1.08K</t>
   </si>
   <si>
-    <t>H1.13</t>
-  </si>
-  <si>
     <t>H1.08I</t>
   </si>
   <si>
@@ -356,6 +350,9 @@
   </si>
   <si>
     <t>H1.15E</t>
+  </si>
+  <si>
+    <t>H1.17</t>
   </si>
   <si>
     <t>H1.08F</t>
@@ -389,9 +386,6 @@
   </si>
   <si>
     <t>H1.09A</t>
-  </si>
-  <si>
-    <t>H1.09E</t>
   </si>
   <si>
     <t>1_7_up</t>
@@ -457,6 +451,12 @@
     <t>H1.14</t>
   </si>
   <si>
+    <t>1_6_down</t>
+  </si>
+  <si>
+    <t>1_6_up</t>
+  </si>
+  <si>
     <t>H1.10E</t>
   </si>
   <si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t>H1.16M</t>
+  </si>
+  <si>
+    <t>H1.26G</t>
   </si>
   <si>
     <t>H1.10C</t>
@@ -493,9 +496,6 @@
     <t>H2.05</t>
   </si>
   <si>
-    <t>H2.06</t>
-  </si>
-  <si>
     <t>H2.07</t>
   </si>
   <si>
@@ -505,9 +505,6 @@
     <t>H2.18</t>
   </si>
   <si>
-    <t>H2.0</t>
-  </si>
-  <si>
     <t>H2.02</t>
   </si>
   <si>
@@ -515,9 +512,6 @@
   </si>
   <si>
     <t>H2.0B</t>
-  </si>
-  <si>
-    <t>2_3_down</t>
   </si>
   <si>
     <t>2_7_up</t>
@@ -589,7 +583,16 @@
     <t>H2.13</t>
   </si>
   <si>
+    <t>3_6_down</t>
+  </si>
+  <si>
+    <t>H3.01B</t>
+  </si>
+  <si>
     <t>H3.04</t>
+  </si>
+  <si>
+    <t>H3.06</t>
   </si>
   <si>
     <t>H.303</t>
@@ -18265,260 +18268,260 @@
       <c r="HZ66" s="5" t="n"/>
       <c r="IE66" s="5" t="n"/>
       <c r="IF66" s="5" t="n"/>
-      <c r="IV66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="IW66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="IX66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="IY66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="IZ66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JA66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JB66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JC66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JD66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JE66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JF66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JG66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JH66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JI66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JJ66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JK66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JL66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JM66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JN66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JO66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JP66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JQ66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JR66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JS66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JT66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JU66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JV66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JW66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JX66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JY66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JZ66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="KA66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="KB66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="KC66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="KD66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="KE66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="KF66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="KG66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="KH66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="KI66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="KJ66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="KK66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="KL66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="KM66" s="12" t="s">
-        <v>0</v>
+      <c r="IV66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="IW66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="IX66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="IY66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="IZ66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JA66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JB66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JC66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JD66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JE66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JF66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JG66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JH66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JI66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JJ66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JK66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JL66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JM66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JN66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JO66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JP66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JQ66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JR66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JS66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JT66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JU66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JV66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JW66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JX66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JY66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JZ66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="KA66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="KB66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="KC66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="KD66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="KE66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="KF66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="KG66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="KH66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="KI66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="KJ66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="KK66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="KL66" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="KM66" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="KN66" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="KO66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KP66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KQ66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KR66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KS66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KT66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KU66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KV66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KW66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KX66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KY66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KZ66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LA66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LB66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LC66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LD66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LE66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LF66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LG66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LH66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LI66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LJ66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LK66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LL66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LM66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LN66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LO66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LP66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LQ66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LR66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LS66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LT66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LU66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LV66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LW66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LX66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LY66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="LZ66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MA66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MB66" s="18" t="s">
-        <v>92</v>
+      <c r="KO66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KP66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KQ66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KR66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KS66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KT66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KU66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KV66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KW66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KX66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KY66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KZ66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LA66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LB66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LC66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LD66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LE66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LF66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LG66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LH66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LI66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LJ66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LK66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LL66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LM66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LN66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LO66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LP66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LQ66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LR66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LS66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LT66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LU66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LV66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LW66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LX66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LY66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="LZ66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MA66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MB66" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MC66" s="12" t="s">
         <v>0</v>
@@ -18546,8 +18549,8 @@
       <c r="IE67" s="5" t="n"/>
       <c r="IF67" s="5" t="n"/>
       <c r="IQ67" s="5" t="n"/>
-      <c r="IV67" s="12" t="s">
-        <v>0</v>
+      <c r="IV67" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="KG67" s="12" t="s">
         <v>0</v>
@@ -18561,8 +18564,8 @@
       <c r="LM67" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MB67" s="18" t="s">
-        <v>92</v>
+      <c r="MB67" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MR67" s="5" t="n"/>
       <c r="MS67" s="5" t="n"/>
@@ -18579,8 +18582,8 @@
       <c r="IE68" s="5" t="n"/>
       <c r="IF68" s="5" t="n"/>
       <c r="IQ68" s="5" t="n"/>
-      <c r="IV68" s="12" t="s">
-        <v>0</v>
+      <c r="IV68" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY68" s="5" t="n"/>
       <c r="IZ68" s="5" t="n"/>
@@ -18614,8 +18617,8 @@
       <c r="LM68" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MB68" s="18" t="s">
-        <v>92</v>
+      <c r="MB68" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MR68" s="5" t="n"/>
       <c r="MS68" s="5" t="n"/>
@@ -18628,8 +18631,8 @@
       <c r="IE69" s="5" t="n"/>
       <c r="IF69" s="5" t="n"/>
       <c r="IQ69" s="5" t="n"/>
-      <c r="IV69" s="12" t="s">
-        <v>0</v>
+      <c r="IV69" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JR69" s="5" t="n"/>
       <c r="KG69" s="12" t="s">
@@ -18644,8 +18647,8 @@
       <c r="LM69" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MB69" s="18" t="s">
-        <v>92</v>
+      <c r="MB69" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MR69" s="5" t="n"/>
       <c r="MS69" s="5" t="n"/>
@@ -18662,8 +18665,8 @@
       <c r="IE70" s="5" t="n"/>
       <c r="IF70" s="5" t="n"/>
       <c r="IQ70" s="5" t="n"/>
-      <c r="IV70" s="12" t="s">
-        <v>0</v>
+      <c r="IV70" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JR70" s="5" t="n"/>
       <c r="KG70" s="12" t="s">
@@ -18678,8 +18681,8 @@
       <c r="LM70" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MB70" s="18" t="s">
-        <v>92</v>
+      <c r="MB70" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MR70" s="5" t="n"/>
       <c r="MS70" s="5" t="n"/>
@@ -18692,8 +18695,8 @@
       <c r="IE71" s="5" t="n"/>
       <c r="IF71" s="5" t="n"/>
       <c r="IQ71" s="5" t="n"/>
-      <c r="IV71" s="12" t="s">
-        <v>0</v>
+      <c r="IV71" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IW71" s="12" t="s">
         <v>0</v>
@@ -18756,8 +18759,8 @@
       <c r="LM71" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MB71" s="18" t="s">
-        <v>92</v>
+      <c r="MB71" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MR71" s="5" t="n"/>
       <c r="MS71" s="5" t="n"/>
@@ -18770,8 +18773,8 @@
       <c r="IE72" s="5" t="n"/>
       <c r="IF72" s="5" t="n"/>
       <c r="IQ72" s="5" t="n"/>
-      <c r="IV72" s="12" t="s">
-        <v>0</v>
+      <c r="IV72" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JR72" s="5" t="n"/>
       <c r="KG72" s="12" t="s">
@@ -18786,8 +18789,8 @@
       <c r="LM72" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MB72" s="18" t="s">
-        <v>92</v>
+      <c r="MB72" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MR72" s="5" t="n"/>
       <c r="MS72" s="5" t="n"/>
@@ -18814,8 +18817,8 @@
       <c r="IO73" s="5" t="n"/>
       <c r="IP73" s="5" t="n"/>
       <c r="IQ73" s="5" t="n"/>
-      <c r="IV73" s="12" t="s">
-        <v>0</v>
+      <c r="IV73" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY73" s="5" t="n"/>
       <c r="IZ73" s="5" t="n"/>
@@ -18897,8 +18900,8 @@
       <c r="LV73" s="5" t="n"/>
       <c r="LW73" s="5" t="n"/>
       <c r="LX73" s="5" t="n"/>
-      <c r="MB73" s="18" t="s">
-        <v>92</v>
+      <c r="MB73" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MR73" s="5" t="n"/>
       <c r="MS73" s="5" t="n"/>
@@ -18909,8 +18912,8 @@
       <c r="GS74" s="5" t="n"/>
       <c r="IE74" s="5" t="n"/>
       <c r="IF74" s="5" t="n"/>
-      <c r="IV74" s="12" t="s">
-        <v>0</v>
+      <c r="IV74" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY74" s="5" t="n"/>
       <c r="JR74" s="5" t="n"/>
@@ -18918,8 +18921,8 @@
       <c r="KR74" s="5" t="n"/>
       <c r="LK74" s="5" t="n"/>
       <c r="LX74" s="5" t="n"/>
-      <c r="MB74" s="18" t="s">
-        <v>92</v>
+      <c r="MB74" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MR74" s="5" t="n"/>
       <c r="MS74" s="5" t="n"/>
@@ -18930,8 +18933,8 @@
       <c r="GS75" s="5" t="n"/>
       <c r="IE75" s="5" t="n"/>
       <c r="IF75" s="5" t="n"/>
-      <c r="IV75" s="12" t="s">
-        <v>0</v>
+      <c r="IV75" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY75" s="5" t="n"/>
       <c r="JR75" s="5" t="n"/>
@@ -18939,8 +18942,8 @@
       <c r="KR75" s="5" t="n"/>
       <c r="LK75" s="5" t="n"/>
       <c r="LX75" s="5" t="n"/>
-      <c r="MB75" s="18" t="s">
-        <v>92</v>
+      <c r="MB75" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MR75" s="5" t="n"/>
       <c r="MS75" s="5" t="n"/>
@@ -18951,8 +18954,8 @@
       <c r="GS76" s="5" t="n"/>
       <c r="IE76" s="5" t="n"/>
       <c r="IF76" s="5" t="n"/>
-      <c r="IV76" s="12" t="s">
-        <v>0</v>
+      <c r="IV76" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY76" s="5" t="n"/>
       <c r="JR76" s="5" t="n"/>
@@ -18960,8 +18963,8 @@
       <c r="KR76" s="5" t="n"/>
       <c r="LK76" s="5" t="n"/>
       <c r="LX76" s="5" t="n"/>
-      <c r="MB76" s="18" t="s">
-        <v>92</v>
+      <c r="MB76" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MR76" s="5" t="n"/>
       <c r="MS76" s="5" t="n"/>
@@ -18972,16 +18975,16 @@
       <c r="GS77" s="5" t="n"/>
       <c r="IE77" s="5" t="n"/>
       <c r="IF77" s="5" t="n"/>
-      <c r="IV77" s="12" t="s">
-        <v>0</v>
+      <c r="IV77" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JR77" s="5" t="n"/>
       <c r="KK77" s="5" t="n"/>
       <c r="KR77" s="5" t="n"/>
       <c r="LK77" s="5" t="n"/>
       <c r="LX77" s="5" t="n"/>
-      <c r="MB77" s="18" t="s">
-        <v>92</v>
+      <c r="MB77" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MR77" s="5" t="n"/>
       <c r="MS77" s="5" t="n"/>
@@ -18995,25 +18998,25 @@
       <c r="ID78" s="5" t="n"/>
       <c r="IE78" s="5" t="n"/>
       <c r="IF78" s="5" t="n"/>
-      <c r="IV78" s="12" t="s">
+      <c r="IV78" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="IW78" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="IX78" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="IY78" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="IW78" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="IX78" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="IY78" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="JR78" s="5" t="n"/>
       <c r="KK78" s="5" t="n"/>
       <c r="KR78" s="5" t="n"/>
       <c r="LK78" s="5" t="n"/>
       <c r="LX78" s="5" t="n"/>
-      <c r="MB78" s="18" t="s">
-        <v>92</v>
+      <c r="MB78" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MR78" s="5" t="n"/>
       <c r="MS78" s="5" t="n"/>
@@ -19026,16 +19029,16 @@
       <c r="IC79" s="5" t="n"/>
       <c r="IE79" s="5" t="n"/>
       <c r="IF79" s="5" t="n"/>
-      <c r="IV79" s="12" t="s">
-        <v>0</v>
+      <c r="IV79" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JR79" s="5" t="n"/>
       <c r="KK79" s="5" t="n"/>
       <c r="KR79" s="5" t="n"/>
       <c r="LK79" s="5" t="n"/>
       <c r="LX79" s="5" t="n"/>
-      <c r="MB79" s="18" t="s">
-        <v>92</v>
+      <c r="MB79" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MR79" s="5" t="n"/>
       <c r="MS79" s="5" t="n"/>
@@ -19056,8 +19059,8 @@
       <c r="ID80" s="5" t="n"/>
       <c r="IE80" s="5" t="n"/>
       <c r="IF80" s="5" t="n"/>
-      <c r="IV80" s="12" t="s">
-        <v>0</v>
+      <c r="IV80" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY80" s="5" t="n"/>
       <c r="JR80" s="5" t="n"/>
@@ -19065,8 +19068,8 @@
       <c r="KR80" s="5" t="n"/>
       <c r="LK80" s="5" t="n"/>
       <c r="LX80" s="5" t="n"/>
-      <c r="MB80" s="18" t="s">
-        <v>92</v>
+      <c r="MB80" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MR80" s="5" t="n"/>
       <c r="MS80" s="5" t="n"/>
@@ -19085,8 +19088,8 @@
       <c r="GU81" s="5" t="n"/>
       <c r="IE81" s="5" t="n"/>
       <c r="IF81" s="5" t="n"/>
-      <c r="IV81" s="12" t="s">
-        <v>0</v>
+      <c r="IV81" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY81" s="5" t="n"/>
       <c r="JR81" s="5" t="n"/>
@@ -19094,8 +19097,8 @@
       <c r="KR81" s="5" t="n"/>
       <c r="LK81" s="5" t="n"/>
       <c r="LX81" s="5" t="n"/>
-      <c r="MB81" s="18" t="s">
-        <v>92</v>
+      <c r="MB81" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MR81" s="5" t="n"/>
       <c r="MS81" s="5" t="n"/>
@@ -19114,8 +19117,8 @@
       <c r="IE82" s="5" t="n"/>
       <c r="IF82" s="5" t="n"/>
       <c r="IG82" s="5" t="n"/>
-      <c r="IV82" s="12" t="s">
-        <v>0</v>
+      <c r="IV82" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY82" s="5" t="n"/>
       <c r="IZ82" s="5" t="n"/>
@@ -19124,8 +19127,8 @@
       <c r="KR82" s="5" t="n"/>
       <c r="LK82" s="5" t="n"/>
       <c r="LX82" s="5" t="n"/>
-      <c r="MB82" s="18" t="s">
-        <v>92</v>
+      <c r="MB82" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ82" s="5" t="n"/>
       <c r="MR82" s="5" t="n"/>
@@ -19307,8 +19310,8 @@
       <c r="IE83" s="5" t="n"/>
       <c r="IF83" s="5" t="n"/>
       <c r="IG83" s="5" t="n"/>
-      <c r="IV83" s="12" t="s">
-        <v>0</v>
+      <c r="IV83" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY83" s="5" t="n"/>
       <c r="IZ83" s="5" t="n"/>
@@ -19318,8 +19321,8 @@
       <c r="LK83" s="5" t="n"/>
       <c r="LW83" s="5" t="n"/>
       <c r="LX83" s="5" t="n"/>
-      <c r="MB83" s="18" t="s">
-        <v>92</v>
+      <c r="MB83" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MP83" s="5" t="n"/>
       <c r="MQ83" s="5" t="n"/>
@@ -19529,8 +19532,8 @@
       <c r="IN84" s="5" t="n"/>
       <c r="IO84" s="5" t="n"/>
       <c r="IP84" s="5" t="n"/>
-      <c r="IV84" s="12" t="s">
-        <v>0</v>
+      <c r="IV84" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY84" s="9" t="n"/>
       <c r="IZ84" s="9" t="n"/>
@@ -19610,8 +19613,8 @@
       <c r="LV84" s="5" t="n"/>
       <c r="LW84" s="5" t="n"/>
       <c r="LX84" s="5" t="n"/>
-      <c r="MB84" s="18" t="s">
-        <v>92</v>
+      <c r="MB84" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MG84" s="5" t="n"/>
       <c r="MH84" s="5" t="n"/>
@@ -19677,8 +19680,8 @@
       <c r="IF85" s="5" t="n"/>
       <c r="IG85" s="5" t="n"/>
       <c r="IP85" s="5" t="n"/>
-      <c r="IV85" s="12" t="s">
-        <v>0</v>
+      <c r="IV85" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY85" s="9" t="n"/>
       <c r="IZ85" s="9" t="n"/>
@@ -19692,8 +19695,8 @@
       <c r="LE85" s="5" t="n"/>
       <c r="LF85" s="5" t="n"/>
       <c r="LX85" s="5" t="n"/>
-      <c r="MB85" s="18" t="s">
-        <v>92</v>
+      <c r="MB85" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ85" s="5" t="n"/>
       <c r="MR85" s="5" t="n"/>
@@ -19719,8 +19722,8 @@
       <c r="HZ86" s="5" t="n"/>
       <c r="IA86" s="5" t="n"/>
       <c r="IP86" s="5" t="n"/>
-      <c r="IV86" s="12" t="s">
-        <v>0</v>
+      <c r="IV86" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY86" s="14" t="n"/>
       <c r="IZ86" s="14" t="n"/>
@@ -19733,8 +19736,8 @@
       <c r="KL86" s="5" t="n"/>
       <c r="KR86" s="5" t="n"/>
       <c r="LE86" s="5" t="n"/>
-      <c r="MB86" s="18" t="s">
-        <v>92</v>
+      <c r="MB86" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ86" s="5" t="n"/>
       <c r="NK86" s="5" t="n"/>
@@ -19758,8 +19761,8 @@
       <c r="HZ87" s="5" t="n"/>
       <c r="IA87" s="5" t="n"/>
       <c r="IP87" s="5" t="n"/>
-      <c r="IV87" s="12" t="s">
-        <v>0</v>
+      <c r="IV87" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY87" s="14" t="n"/>
       <c r="IZ87" s="14" t="n"/>
@@ -19772,8 +19775,8 @@
       <c r="KL87" s="5" t="n"/>
       <c r="KR87" s="5" t="n"/>
       <c r="LE87" s="5" t="n"/>
-      <c r="MB87" s="18" t="s">
-        <v>92</v>
+      <c r="MB87" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ87" s="5" t="n"/>
       <c r="NK87" s="5" t="n"/>
@@ -19797,8 +19800,8 @@
       <c r="HZ88" s="5" t="n"/>
       <c r="IA88" s="5" t="n"/>
       <c r="IP88" s="5" t="n"/>
-      <c r="IV88" s="12" t="s">
-        <v>0</v>
+      <c r="IV88" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY88" s="9" t="n"/>
       <c r="IZ88" s="9" t="n"/>
@@ -19821,8 +19824,8 @@
       <c r="KR88" s="5" t="n"/>
       <c r="KS88" s="5" t="n"/>
       <c r="LE88" s="5" t="n"/>
-      <c r="MB88" s="18" t="s">
-        <v>92</v>
+      <c r="MB88" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ88" s="5" t="n"/>
       <c r="NK88" s="5" t="n"/>
@@ -19863,8 +19866,8 @@
       <c r="HZ89" s="5" t="n"/>
       <c r="IA89" s="5" t="n"/>
       <c r="IP89" s="5" t="n"/>
-      <c r="IV89" s="12" t="s">
-        <v>0</v>
+      <c r="IV89" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY89" s="5" t="n"/>
       <c r="IZ89" s="5" t="n"/>
@@ -19889,8 +19892,8 @@
       <c r="KL89" s="5" t="n"/>
       <c r="KS89" s="5" t="n"/>
       <c r="LE89" s="5" t="n"/>
-      <c r="MB89" s="18" t="s">
-        <v>92</v>
+      <c r="MB89" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ89" s="5" t="n"/>
       <c r="NK89" s="5" t="n"/>
@@ -19932,8 +19935,8 @@
       <c r="HZ90" s="5" t="n"/>
       <c r="IA90" s="5" t="n"/>
       <c r="IP90" s="5" t="n"/>
-      <c r="IV90" s="12" t="s">
-        <v>0</v>
+      <c r="IV90" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY90" s="5" t="n"/>
       <c r="JD90" s="5" t="n"/>
@@ -19942,8 +19945,8 @@
       <c r="KL90" s="5" t="n"/>
       <c r="KS90" s="5" t="n"/>
       <c r="LE90" s="5" t="n"/>
-      <c r="MB90" s="18" t="s">
-        <v>92</v>
+      <c r="MB90" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ90" s="5" t="n"/>
       <c r="NK90" s="5" t="n"/>
@@ -19962,8 +19965,8 @@
       <c r="HM91" s="5" t="n"/>
       <c r="IA91" s="5" t="n"/>
       <c r="IP91" s="5" t="n"/>
-      <c r="IV91" s="12" t="s">
-        <v>0</v>
+      <c r="IV91" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY91" s="5" t="n"/>
       <c r="JD91" s="5" t="n"/>
@@ -19972,8 +19975,8 @@
       <c r="KL91" s="5" t="n"/>
       <c r="KS91" s="5" t="n"/>
       <c r="LE91" s="5" t="n"/>
-      <c r="MB91" s="18" t="s">
-        <v>92</v>
+      <c r="MB91" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ91" s="5" t="n"/>
       <c r="NK91" s="5" t="n"/>
@@ -19992,8 +19995,8 @@
       <c r="HM92" s="5" t="n"/>
       <c r="IA92" s="5" t="n"/>
       <c r="IP92" s="5" t="n"/>
-      <c r="IV92" s="12" t="s">
-        <v>0</v>
+      <c r="IV92" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY92" s="5" t="n"/>
       <c r="JD92" s="5" t="n"/>
@@ -20002,8 +20005,8 @@
       <c r="KL92" s="5" t="n"/>
       <c r="KS92" s="5" t="n"/>
       <c r="LE92" s="5" t="n"/>
-      <c r="MB92" s="18" t="s">
-        <v>92</v>
+      <c r="MB92" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ92" s="5" t="n"/>
       <c r="NK92" s="5" t="n"/>
@@ -20023,16 +20026,16 @@
       <c r="HM93" s="5" t="n"/>
       <c r="IA93" s="5" t="n"/>
       <c r="IP93" s="5" t="n"/>
-      <c r="IV93" s="12" t="s">
-        <v>0</v>
+      <c r="IV93" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY93" s="5" t="n"/>
       <c r="JS93" s="5" t="n"/>
       <c r="KL93" s="5" t="n"/>
       <c r="KS93" s="5" t="n"/>
       <c r="LE93" s="5" t="n"/>
-      <c r="MB93" s="18" t="s">
-        <v>92</v>
+      <c r="MB93" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ93" s="5" t="n"/>
       <c r="NK93" s="5" t="n"/>
@@ -20052,8 +20055,8 @@
       <c r="HM94" s="5" t="n"/>
       <c r="IA94" s="5" t="n"/>
       <c r="IP94" s="5" t="n"/>
-      <c r="IV94" s="12" t="s">
-        <v>0</v>
+      <c r="IV94" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY94" s="5" t="n"/>
       <c r="IZ94" s="5" t="n"/>
@@ -20079,8 +20082,8 @@
       <c r="KL94" s="5" t="n"/>
       <c r="KS94" s="5" t="n"/>
       <c r="LE94" s="5" t="n"/>
-      <c r="MB94" s="18" t="s">
-        <v>92</v>
+      <c r="MB94" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ94" s="5" t="n"/>
       <c r="NK94" s="5" t="n"/>
@@ -20265,16 +20268,16 @@
       <c r="HM95" s="5" t="n"/>
       <c r="IA95" s="5" t="n"/>
       <c r="IP95" s="5" t="n"/>
-      <c r="IV95" s="12" t="s">
-        <v>0</v>
+      <c r="IV95" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY95" s="5" t="n"/>
       <c r="JS95" s="5" t="n"/>
       <c r="KL95" s="5" t="n"/>
       <c r="KS95" s="5" t="n"/>
       <c r="LE95" s="5" t="n"/>
-      <c r="MB95" s="18" t="s">
-        <v>92</v>
+      <c r="MB95" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ95" s="5" t="n"/>
       <c r="NK95" s="5" t="n"/>
@@ -20301,16 +20304,16 @@
       <c r="HM96" s="5" t="n"/>
       <c r="IA96" s="5" t="n"/>
       <c r="IP96" s="5" t="n"/>
-      <c r="IV96" s="12" t="s">
-        <v>0</v>
+      <c r="IV96" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY96" s="5" t="n"/>
       <c r="JS96" s="5" t="n"/>
       <c r="KL96" s="5" t="n"/>
       <c r="KS96" s="5" t="n"/>
       <c r="LE96" s="5" t="n"/>
-      <c r="MB96" s="18" t="s">
-        <v>92</v>
+      <c r="MB96" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ96" s="5" t="n"/>
       <c r="NK96" s="5" t="n"/>
@@ -20363,16 +20366,16 @@
       <c r="IN97" s="5" t="n"/>
       <c r="IO97" s="5" t="n"/>
       <c r="IP97" s="5" t="n"/>
-      <c r="IV97" s="12" t="s">
-        <v>0</v>
+      <c r="IV97" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY97" s="5" t="n"/>
       <c r="JS97" s="5" t="n"/>
       <c r="KL97" s="5" t="n"/>
       <c r="KS97" s="5" t="n"/>
       <c r="LE97" s="5" t="n"/>
-      <c r="MB97" s="18" t="s">
-        <v>92</v>
+      <c r="MB97" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ97" s="5" t="n"/>
       <c r="NK97" s="5" t="n"/>
@@ -20394,7 +20397,7 @@
       <c r="GR98" s="5" t="n"/>
       <c r="HD98" s="5" t="n"/>
       <c r="HJ98" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="HL98" s="5" t="n"/>
       <c r="HM98" s="5" t="n"/>
@@ -20404,16 +20407,16 @@
       <c r="II98" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV98" s="12" t="s">
-        <v>0</v>
+      <c r="IV98" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY98" s="5" t="n"/>
       <c r="JS98" s="5" t="n"/>
       <c r="KL98" s="5" t="n"/>
       <c r="KS98" s="5" t="n"/>
       <c r="LE98" s="5" t="n"/>
-      <c r="MB98" s="18" t="s">
-        <v>92</v>
+      <c r="MB98" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ98" s="5" t="n"/>
       <c r="NK98" s="5" t="n"/>
@@ -20444,16 +20447,16 @@
       <c r="II99" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV99" s="12" t="s">
-        <v>0</v>
+      <c r="IV99" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY99" s="5" t="n"/>
       <c r="JS99" s="5" t="n"/>
       <c r="KL99" s="5" t="n"/>
       <c r="KS99" s="5" t="n"/>
       <c r="LE99" s="5" t="n"/>
-      <c r="MB99" s="18" t="s">
-        <v>92</v>
+      <c r="MB99" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ99" s="5" t="n"/>
       <c r="NK99" s="5" t="n"/>
@@ -20528,7 +20531,7 @@
         <v>0</v>
       </c>
       <c r="IA100" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="IB100" s="12" t="s">
         <v>0</v>
@@ -20590,16 +20593,16 @@
       <c r="IU100" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV100" s="12" t="s">
-        <v>0</v>
+      <c r="IV100" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY100" s="5" t="n"/>
       <c r="JS100" s="5" t="n"/>
       <c r="KL100" s="5" t="n"/>
       <c r="KS100" s="5" t="n"/>
       <c r="LE100" s="5" t="n"/>
-      <c r="MB100" s="18" t="s">
-        <v>92</v>
+      <c r="MB100" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ100" s="5" t="n"/>
       <c r="NK100" s="5" t="n"/>
@@ -20636,8 +20639,8 @@
       <c r="HK101" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV101" s="12" t="s">
-        <v>0</v>
+      <c r="IV101" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY101" s="5" t="n"/>
       <c r="IZ101" s="5" t="n"/>
@@ -20646,8 +20649,8 @@
       <c r="KS101" s="5" t="n"/>
       <c r="LE101" s="5" t="n"/>
       <c r="LX101" s="5" t="n"/>
-      <c r="MB101" s="18" t="s">
-        <v>92</v>
+      <c r="MB101" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ101" s="5" t="n"/>
       <c r="MR101" s="5" t="n"/>
@@ -20695,8 +20698,8 @@
       <c r="HJ102" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV102" s="12" t="s">
-        <v>0</v>
+      <c r="IV102" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY102" s="5" t="n"/>
       <c r="IZ102" s="5" t="n"/>
@@ -20710,8 +20713,8 @@
       <c r="LF102" s="5" t="n"/>
       <c r="LX102" s="5" t="n"/>
       <c r="LY102" s="5" t="n"/>
-      <c r="MB102" s="18" t="s">
-        <v>92</v>
+      <c r="MB102" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ102" s="5" t="n"/>
       <c r="MR102" s="5" t="n"/>
@@ -20745,7 +20748,7 @@
       <c r="GB103" s="5" t="n"/>
       <c r="GC103" s="5" t="n"/>
       <c r="GE103" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="GG103" s="5" t="n"/>
       <c r="GH103" s="5" t="n"/>
@@ -20759,7 +20762,7 @@
       <c r="GW103" s="5" t="n"/>
       <c r="GX103" s="5" t="n"/>
       <c r="HA103" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="HC103" s="5" t="n"/>
       <c r="HD103" s="5" t="n"/>
@@ -20806,8 +20809,8 @@
       <c r="IP103" s="5" t="n"/>
       <c r="IQ103" s="5" t="n"/>
       <c r="IR103" s="5" t="n"/>
-      <c r="IV103" s="12" t="s">
-        <v>0</v>
+      <c r="IV103" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY103" s="5" t="n"/>
       <c r="IZ103" s="5" t="n"/>
@@ -20822,8 +20825,8 @@
       <c r="LF103" s="5" t="n"/>
       <c r="LX103" s="5" t="n"/>
       <c r="LY103" s="5" t="n"/>
-      <c r="MB103" s="18" t="s">
-        <v>92</v>
+      <c r="MB103" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ103" s="5" t="n"/>
       <c r="MR103" s="5" t="n"/>
@@ -20880,8 +20883,8 @@
       <c r="IF104" s="5" t="n"/>
       <c r="IG104" s="5" t="n"/>
       <c r="IR104" s="5" t="n"/>
-      <c r="IV104" s="12" t="s">
-        <v>0</v>
+      <c r="IV104" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY104" s="5" t="n"/>
       <c r="IZ104" s="5" t="n"/>
@@ -20894,7 +20897,7 @@
       <c r="KR104" s="5" t="n"/>
       <c r="KS104" s="5" t="n"/>
       <c r="KV104" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="KX104" s="5" t="n"/>
       <c r="KY104" s="5" t="n"/>
@@ -20907,8 +20910,8 @@
       <c r="LF104" s="5" t="n"/>
       <c r="LX104" s="5" t="n"/>
       <c r="LY104" s="5" t="n"/>
-      <c r="MB104" s="18" t="s">
-        <v>92</v>
+      <c r="MB104" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ104" s="5" t="n"/>
       <c r="MR104" s="5" t="n"/>
@@ -20947,8 +20950,8 @@
       <c r="HM105" s="5" t="n"/>
       <c r="IF105" s="5" t="n"/>
       <c r="IR105" s="5" t="n"/>
-      <c r="IV105" s="12" t="s">
-        <v>0</v>
+      <c r="IV105" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JS105" s="5" t="n"/>
       <c r="KL105" s="5" t="n"/>
@@ -20956,8 +20959,8 @@
         <v>0</v>
       </c>
       <c r="LE105" s="5" t="n"/>
-      <c r="MB105" s="18" t="s">
-        <v>92</v>
+      <c r="MB105" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ105" s="5" t="n"/>
       <c r="NK105" s="5" t="n"/>
@@ -20971,181 +20974,181 @@
       </c>
       <c r="DB106" s="5" t="n"/>
       <c r="EH106" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="EI106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="EJ106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="EK106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="EL106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="EM106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="EN106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="EO106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="EP106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="EQ106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="ER106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="ES106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="ET106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="EU106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="EV106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="EW106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="EX106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="EY106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="EZ106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FA106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FB106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FC106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FD106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FE106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FF106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FG106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FH106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FI106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FJ106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FK106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FL106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FM106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FN106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FO106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FP106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FQ106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FR106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FS106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FT106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FU106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FV106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FW106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FX106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FY106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="FZ106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="GA106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="GB106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="GC106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="GD106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="GE106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="GF106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="GG106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="GH106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="GI106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="GJ106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="GK106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="GL106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="GM106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="GN106" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="EI106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="EJ106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="EK106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="EL106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="EM106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="EN106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="EO106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="EP106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="EQ106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="ER106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="ES106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="ET106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="EU106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="EV106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="EW106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="EX106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="EY106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="EZ106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FA106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FB106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FC106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FD106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FE106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FF106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FG106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FH106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FI106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FJ106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FK106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FL106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FM106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FN106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FO106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FP106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FQ106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FR106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FS106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FT106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FU106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FV106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FW106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FX106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FY106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="FZ106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="GA106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="GB106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="GC106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="GD106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="GE106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="GF106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="GG106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="GH106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="GI106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="GJ106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="GK106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="GL106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="GM106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="GN106" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="GO106" s="12" t="s">
         <v>0</v>
@@ -21216,8 +21219,8 @@
       <c r="HM106" s="5" t="n"/>
       <c r="IF106" s="5" t="n"/>
       <c r="IR106" s="5" t="n"/>
-      <c r="IV106" s="12" t="s">
-        <v>0</v>
+      <c r="IV106" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IW106" s="12" t="s">
         <v>0</v>
@@ -21226,7 +21229,7 @@
         <v>0</v>
       </c>
       <c r="IY106" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="JS106" s="5" t="n"/>
       <c r="KL106" s="5" t="n"/>
@@ -21246,8 +21249,8 @@
         <v>0</v>
       </c>
       <c r="LE106" s="5" t="n"/>
-      <c r="MB106" s="18" t="s">
-        <v>92</v>
+      <c r="MB106" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ106" s="5" t="n"/>
       <c r="NK106" s="5" t="n"/>
@@ -21275,8 +21278,8 @@
       <c r="HM107" s="5" t="n"/>
       <c r="IF107" s="5" t="n"/>
       <c r="IR107" s="5" t="n"/>
-      <c r="IV107" s="12" t="s">
-        <v>0</v>
+      <c r="IV107" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JS107" s="5" t="n"/>
       <c r="KL107" s="5" t="n"/>
@@ -21284,8 +21287,8 @@
         <v>0</v>
       </c>
       <c r="LE107" s="5" t="n"/>
-      <c r="MB107" s="18" t="s">
-        <v>92</v>
+      <c r="MB107" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ107" s="5" t="n"/>
       <c r="NK107" s="5" t="n"/>
@@ -21309,8 +21312,8 @@
       <c r="HM108" s="5" t="n"/>
       <c r="IF108" s="5" t="n"/>
       <c r="IR108" s="5" t="n"/>
-      <c r="IV108" s="12" t="s">
-        <v>0</v>
+      <c r="IV108" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JS108" s="5" t="n"/>
       <c r="KL108" s="5" t="n"/>
@@ -21318,8 +21321,8 @@
         <v>0</v>
       </c>
       <c r="LE108" s="5" t="n"/>
-      <c r="MB108" s="18" t="s">
-        <v>92</v>
+      <c r="MB108" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ108" s="5" t="n"/>
       <c r="NK108" s="5" t="n"/>
@@ -21361,7 +21364,7 @@
       <c r="GX109" s="5" t="n"/>
       <c r="GY109" s="5" t="n"/>
       <c r="HA109" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="HC109" s="5" t="n"/>
       <c r="HD109" s="5" t="n"/>
@@ -21371,13 +21374,13 @@
       <c r="HH109" s="5" t="n"/>
       <c r="HI109" s="5" t="n"/>
       <c r="HK109" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="HM109" s="5" t="n"/>
       <c r="IF109" s="5" t="n"/>
       <c r="IR109" s="5" t="n"/>
-      <c r="IV109" s="12" t="s">
-        <v>0</v>
+      <c r="IV109" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY109" s="5" t="n"/>
       <c r="JS109" s="5" t="n"/>
@@ -21386,8 +21389,8 @@
         <v>0</v>
       </c>
       <c r="LE109" s="5" t="n"/>
-      <c r="MB109" s="18" t="s">
-        <v>92</v>
+      <c r="MB109" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ109" s="5" t="n"/>
       <c r="NK109" s="5" t="n"/>
@@ -21410,8 +21413,8 @@
       <c r="HM110" s="5" t="n"/>
       <c r="IF110" s="5" t="n"/>
       <c r="IR110" s="5" t="n"/>
-      <c r="IV110" s="12" t="s">
-        <v>0</v>
+      <c r="IV110" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY110" s="5" t="n"/>
       <c r="JS110" s="5" t="n"/>
@@ -21420,8 +21423,8 @@
         <v>0</v>
       </c>
       <c r="LE110" s="5" t="n"/>
-      <c r="MB110" s="18" t="s">
-        <v>92</v>
+      <c r="MB110" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ110" s="5" t="n"/>
       <c r="NK110" s="5" t="n"/>
@@ -21443,8 +21446,8 @@
       <c r="HM111" s="5" t="n"/>
       <c r="IF111" s="5" t="n"/>
       <c r="IR111" s="5" t="n"/>
-      <c r="IV111" s="12" t="s">
-        <v>0</v>
+      <c r="IV111" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY111" s="5" t="n"/>
       <c r="JS111" s="5" t="n"/>
@@ -21453,8 +21456,8 @@
         <v>0</v>
       </c>
       <c r="LE111" s="5" t="n"/>
-      <c r="MB111" s="18" t="s">
-        <v>92</v>
+      <c r="MB111" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ111" s="5" t="n"/>
       <c r="NK111" s="5" t="n"/>
@@ -21477,8 +21480,8 @@
       <c r="HM112" s="5" t="n"/>
       <c r="IF112" s="5" t="n"/>
       <c r="IR112" s="5" t="n"/>
-      <c r="IV112" s="12" t="s">
-        <v>0</v>
+      <c r="IV112" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY112" s="5" t="n"/>
       <c r="JS112" s="5" t="n"/>
@@ -21487,8 +21490,8 @@
         <v>0</v>
       </c>
       <c r="LE112" s="5" t="n"/>
-      <c r="MB112" s="18" t="s">
-        <v>92</v>
+      <c r="MB112" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ112" s="5" t="n"/>
       <c r="NK112" s="5" t="n"/>
@@ -21511,8 +21514,8 @@
       <c r="HM113" s="5" t="n"/>
       <c r="IF113" s="5" t="n"/>
       <c r="IR113" s="5" t="n"/>
-      <c r="IV113" s="12" t="s">
-        <v>0</v>
+      <c r="IV113" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY113" s="5" t="n"/>
       <c r="JS113" s="5" t="n"/>
@@ -21521,8 +21524,8 @@
         <v>0</v>
       </c>
       <c r="LE113" s="5" t="n"/>
-      <c r="MB113" s="18" t="s">
-        <v>92</v>
+      <c r="MB113" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ113" s="5" t="n"/>
       <c r="NK113" s="5" t="n"/>
@@ -21545,8 +21548,8 @@
       <c r="HM114" s="5" t="n"/>
       <c r="IF114" s="5" t="n"/>
       <c r="IR114" s="5" t="n"/>
-      <c r="IV114" s="12" t="s">
-        <v>109</v>
+      <c r="IV114" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY114" s="5" t="n"/>
       <c r="JS114" s="5" t="n"/>
@@ -21555,8 +21558,8 @@
         <v>0</v>
       </c>
       <c r="LE114" s="5" t="n"/>
-      <c r="MB114" s="18" t="s">
-        <v>92</v>
+      <c r="MB114" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ114" s="5" t="n"/>
       <c r="NK114" s="5" t="n"/>
@@ -21579,8 +21582,8 @@
       <c r="HM115" s="5" t="n"/>
       <c r="IF115" s="5" t="n"/>
       <c r="IR115" s="5" t="n"/>
-      <c r="IV115" s="12" t="s">
-        <v>0</v>
+      <c r="IV115" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY115" s="5" t="n"/>
       <c r="JS115" s="5" t="n"/>
@@ -21589,8 +21592,8 @@
         <v>0</v>
       </c>
       <c r="LE115" s="5" t="n"/>
-      <c r="MB115" s="18" t="s">
-        <v>92</v>
+      <c r="MB115" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ115" s="5" t="n"/>
       <c r="NK115" s="5" t="n"/>
@@ -21612,8 +21615,8 @@
       <c r="HM116" s="5" t="n"/>
       <c r="IF116" s="5" t="n"/>
       <c r="IR116" s="5" t="n"/>
-      <c r="IV116" s="12" t="s">
-        <v>0</v>
+      <c r="IV116" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY116" s="5" t="n"/>
       <c r="JS116" s="5" t="n"/>
@@ -21622,8 +21625,8 @@
         <v>0</v>
       </c>
       <c r="LE116" s="5" t="n"/>
-      <c r="MB116" s="18" t="s">
-        <v>92</v>
+      <c r="MB116" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ116" s="5" t="n"/>
       <c r="NK116" s="5" t="n"/>
@@ -21645,8 +21648,8 @@
       <c r="HM117" s="5" t="n"/>
       <c r="IF117" s="5" t="n"/>
       <c r="IR117" s="5" t="n"/>
-      <c r="IV117" s="12" t="s">
-        <v>0</v>
+      <c r="IV117" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY117" s="5" t="n"/>
       <c r="JS117" s="5" t="n"/>
@@ -21655,8 +21658,8 @@
         <v>0</v>
       </c>
       <c r="LE117" s="5" t="n"/>
-      <c r="MB117" s="18" t="s">
-        <v>92</v>
+      <c r="MB117" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ117" s="5" t="n"/>
       <c r="NK117" s="5" t="n"/>
@@ -21678,8 +21681,8 @@
       <c r="HM118" s="5" t="n"/>
       <c r="IF118" s="5" t="n"/>
       <c r="IR118" s="5" t="n"/>
-      <c r="IV118" s="12" t="s">
-        <v>0</v>
+      <c r="IV118" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY118" s="5" t="n"/>
       <c r="JS118" s="5" t="n"/>
@@ -21688,8 +21691,8 @@
         <v>0</v>
       </c>
       <c r="LE118" s="5" t="n"/>
-      <c r="MB118" s="18" t="s">
-        <v>92</v>
+      <c r="MB118" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ118" s="5" t="n"/>
       <c r="NK118" s="5" t="n"/>
@@ -21711,8 +21714,8 @@
       <c r="HM119" s="5" t="n"/>
       <c r="IF119" s="5" t="n"/>
       <c r="IR119" s="5" t="n"/>
-      <c r="IV119" s="12" t="s">
-        <v>0</v>
+      <c r="IV119" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IY119" s="5" t="n"/>
       <c r="JS119" s="5" t="n"/>
@@ -21721,8 +21724,8 @@
         <v>0</v>
       </c>
       <c r="LE119" s="5" t="n"/>
-      <c r="MB119" s="18" t="s">
-        <v>92</v>
+      <c r="MB119" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ119" s="5" t="n"/>
       <c r="NK119" s="5" t="n"/>
@@ -21746,8 +21749,8 @@
       <c r="IF120" s="5" t="n"/>
       <c r="IR120" s="5" t="n"/>
       <c r="IS120" s="5" t="n"/>
-      <c r="IV120" s="12" t="s">
-        <v>0</v>
+      <c r="IV120" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IX120" s="5" t="n"/>
       <c r="IY120" s="5" t="n"/>
@@ -21757,8 +21760,8 @@
         <v>0</v>
       </c>
       <c r="LE120" s="5" t="n"/>
-      <c r="MB120" s="18" t="s">
-        <v>92</v>
+      <c r="MB120" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ120" s="5" t="n"/>
       <c r="NK120" s="5" t="n"/>
@@ -21797,8 +21800,8 @@
       <c r="IG121" s="5" t="n"/>
       <c r="IR121" s="5" t="n"/>
       <c r="IS121" s="5" t="n"/>
-      <c r="IV121" s="12" t="s">
-        <v>0</v>
+      <c r="IV121" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IX121" s="5" t="n"/>
       <c r="IY121" s="5" t="n"/>
@@ -21814,8 +21817,8 @@
       <c r="LF121" s="5" t="n"/>
       <c r="LX121" s="5" t="n"/>
       <c r="LY121" s="5" t="n"/>
-      <c r="MB121" s="18" t="s">
-        <v>92</v>
+      <c r="MB121" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ121" s="5" t="n"/>
       <c r="MR121" s="5" t="n"/>
@@ -21948,7 +21951,7 @@
       <c r="GL122" s="5" t="n"/>
       <c r="GM122" s="5" t="n"/>
       <c r="GP122" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="GS122" s="5" t="n"/>
       <c r="GT122" s="5" t="n"/>
@@ -21985,14 +21988,14 @@
       <c r="HY122" s="5" t="n"/>
       <c r="HZ122" s="5" t="n"/>
       <c r="IC122" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="IE122" s="5" t="n"/>
       <c r="IF122" s="5" t="n"/>
       <c r="IG122" s="5" t="n"/>
       <c r="IH122" s="5" t="n"/>
       <c r="IJ122" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="IL122" s="5" t="n"/>
       <c r="IM122" s="5" t="n"/>
@@ -22002,8 +22005,8 @@
       <c r="IQ122" s="5" t="n"/>
       <c r="IR122" s="5" t="n"/>
       <c r="IS122" s="5" t="n"/>
-      <c r="IV122" s="12" t="s">
-        <v>0</v>
+      <c r="IV122" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IX122" s="5" t="n"/>
       <c r="IY122" s="5" t="n"/>
@@ -22036,7 +22039,7 @@
       <c r="KB122" s="5" t="n"/>
       <c r="KC122" s="5" t="n"/>
       <c r="KG122" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="KJ122" s="5" t="n"/>
       <c r="KK122" s="5" t="n"/>
@@ -22063,8 +22066,8 @@
       <c r="LF122" s="5" t="n"/>
       <c r="LX122" s="5" t="n"/>
       <c r="LY122" s="5" t="n"/>
-      <c r="MB122" s="18" t="s">
-        <v>92</v>
+      <c r="MB122" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ122" s="5" t="n"/>
       <c r="MR122" s="5" t="n"/>
@@ -22231,8 +22234,8 @@
       <c r="IQ123" s="5" t="n"/>
       <c r="IR123" s="5" t="n"/>
       <c r="IS123" s="5" t="n"/>
-      <c r="IV123" s="12" t="s">
-        <v>0</v>
+      <c r="IV123" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IX123" s="5" t="n"/>
       <c r="IY123" s="5" t="n"/>
@@ -22282,8 +22285,8 @@
       <c r="LF123" s="5" t="n"/>
       <c r="LX123" s="5" t="n"/>
       <c r="LY123" s="5" t="n"/>
-      <c r="MB123" s="18" t="s">
-        <v>92</v>
+      <c r="MB123" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ123" s="5" t="n"/>
       <c r="MR123" s="5" t="n"/>
@@ -22313,8 +22316,8 @@
       <c r="IJ124" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV124" s="12" t="s">
-        <v>0</v>
+      <c r="IV124" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="KG124" s="12" t="s">
         <v>0</v>
@@ -22324,8 +22327,8 @@
         <v>0</v>
       </c>
       <c r="LX124" s="5" t="n"/>
-      <c r="MB124" s="18" t="s">
-        <v>92</v>
+      <c r="MB124" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ124" s="5" t="n"/>
       <c r="MR124" s="5" t="n"/>
@@ -22355,8 +22358,8 @@
       <c r="IJ125" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV125" s="12" t="s">
-        <v>0</v>
+      <c r="IV125" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="KG125" s="12" t="s">
         <v>0</v>
@@ -22364,8 +22367,8 @@
       <c r="KZ125" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MB125" s="18" t="s">
-        <v>92</v>
+      <c r="MB125" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ125" s="5" t="n"/>
       <c r="NK125" s="5" t="n"/>
@@ -22393,8 +22396,8 @@
       <c r="IJ126" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV126" s="12" t="s">
-        <v>0</v>
+      <c r="IV126" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="KG126" s="12" t="s">
         <v>0</v>
@@ -22402,8 +22405,8 @@
       <c r="KZ126" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MB126" s="18" t="s">
-        <v>92</v>
+      <c r="MB126" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ126" s="5" t="n"/>
       <c r="NK126" s="5" t="n"/>
@@ -22430,8 +22433,8 @@
       <c r="IJ127" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV127" s="12" t="s">
-        <v>0</v>
+      <c r="IV127" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="KG127" s="12" t="s">
         <v>0</v>
@@ -22439,8 +22442,8 @@
       <c r="KZ127" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MB127" s="18" t="s">
-        <v>92</v>
+      <c r="MB127" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ127" s="5" t="n"/>
       <c r="NK127" s="5" t="n"/>
@@ -22852,8 +22855,8 @@
       <c r="IU128" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV128" s="12" t="s">
-        <v>0</v>
+      <c r="IV128" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IW128" s="12" t="s">
         <v>0</v>
@@ -22976,7 +22979,7 @@
         <v>0</v>
       </c>
       <c r="KK128" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="KL128" s="12" t="s">
         <v>0</v>
@@ -23104,38 +23107,38 @@
       <c r="MA128" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MB128" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MC128" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MD128" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="ME128" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MF128" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MG128" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MH128" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MI128" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MJ128" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MK128" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="ML128" s="18" t="s">
-        <v>92</v>
+      <c r="MB128" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="MC128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MD128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="ME128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MF128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MG128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MH128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MI128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MJ128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MK128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="ML128" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ128" s="5" t="n"/>
       <c r="NK128" s="5" t="n"/>
@@ -23148,7 +23151,7 @@
       </c>
       <c r="CI129" s="5" t="n"/>
       <c r="DB129" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="DC129" s="12" t="s">
         <v>0</v>
@@ -23207,8 +23210,8 @@
       <c r="GP129" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV129" s="12" t="s">
-        <v>0</v>
+      <c r="IV129" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="KP129" s="12" t="s">
         <v>0</v>
@@ -23216,8 +23219,8 @@
       <c r="LS129" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="ML129" s="18" t="s">
-        <v>92</v>
+      <c r="ML129" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ129" s="5" t="n"/>
       <c r="NK129" s="5" t="n"/>
@@ -23226,7 +23229,7 @@
       <c r="BO130" s="5" t="n"/>
       <c r="BP130" s="5" t="n"/>
       <c r="CD130" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CE130" s="12" t="s">
         <v>0</v>
@@ -23244,8 +23247,8 @@
       <c r="GP130" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV130" s="12" t="s">
-        <v>0</v>
+      <c r="IV130" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="KP130" s="12" t="s">
         <v>0</v>
@@ -23253,8 +23256,8 @@
       <c r="LS130" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="ML130" s="18" t="s">
-        <v>92</v>
+      <c r="ML130" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ130" s="5" t="n"/>
       <c r="NK130" s="5" t="n"/>
@@ -23279,8 +23282,8 @@
       <c r="GP131" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="IV131" s="12" t="s">
-        <v>0</v>
+      <c r="IV131" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JS131" s="5" t="n"/>
       <c r="JV131" s="5" t="n"/>
@@ -23301,7 +23304,7 @@
       <c r="KM131" s="5" t="n"/>
       <c r="KN131" s="5" t="n"/>
       <c r="KP131" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="KR131" s="5" t="n"/>
       <c r="KS131" s="5" t="n"/>
@@ -23331,8 +23334,8 @@
       <c r="LS131" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="ML131" s="18" t="s">
-        <v>92</v>
+      <c r="ML131" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ131" s="5" t="n"/>
       <c r="NK131" s="5" t="n"/>
@@ -23391,8 +23394,8 @@
         <v>0</v>
       </c>
       <c r="IR132" s="5" t="n"/>
-      <c r="IV132" s="12" t="s">
-        <v>0</v>
+      <c r="IV132" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JS132" s="5" t="n"/>
       <c r="JV132" s="5" t="n"/>
@@ -23406,8 +23409,8 @@
       <c r="LS132" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="ML132" s="18" t="s">
-        <v>92</v>
+      <c r="ML132" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ132" s="5" t="n"/>
       <c r="NK132" s="5" t="n"/>
@@ -23436,8 +23439,8 @@
         <v>0</v>
       </c>
       <c r="IR133" s="5" t="n"/>
-      <c r="IV133" s="12" t="s">
-        <v>0</v>
+      <c r="IV133" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JS133" s="5" t="n"/>
       <c r="JV133" s="5" t="n"/>
@@ -23450,8 +23453,8 @@
       <c r="LS133" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="ML133" s="18" t="s">
-        <v>92</v>
+      <c r="ML133" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ133" s="5" t="n"/>
       <c r="NK133" s="5" t="n"/>
@@ -23480,15 +23483,15 @@
         <v>0</v>
       </c>
       <c r="IR134" s="5" t="n"/>
-      <c r="IV134" s="12" t="s">
-        <v>0</v>
+      <c r="IV134" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JS134" s="5" t="n"/>
       <c r="KB134" s="5" t="n"/>
       <c r="KL134" s="5" t="n"/>
       <c r="LE134" s="5" t="n"/>
       <c r="LP134" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="LQ134" s="12" t="s">
         <v>0</v>
@@ -23499,8 +23502,8 @@
       <c r="LS134" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="ML134" s="18" t="s">
-        <v>92</v>
+      <c r="ML134" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ134" s="5" t="n"/>
       <c r="NK134" s="5" t="n"/>
@@ -23567,8 +23570,8 @@
         <v>0</v>
       </c>
       <c r="IR135" s="5" t="n"/>
-      <c r="IV135" s="12" t="s">
-        <v>0</v>
+      <c r="IV135" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="IW135" s="12" t="s">
         <v>0</v>
@@ -23639,8 +23642,8 @@
       <c r="LS135" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="ML135" s="18" t="s">
-        <v>92</v>
+      <c r="ML135" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ135" s="5" t="n"/>
       <c r="MR135" s="5" t="n"/>
@@ -23673,8 +23676,8 @@
         <v>0</v>
       </c>
       <c r="IR136" s="5" t="n"/>
-      <c r="IV136" s="12" t="s">
-        <v>0</v>
+      <c r="IV136" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JO136" s="12" t="s">
         <v>0</v>
@@ -23698,8 +23701,8 @@
       <c r="LS136" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="ML136" s="18" t="s">
-        <v>92</v>
+      <c r="ML136" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ136" s="5" t="n"/>
       <c r="MR136" s="5" t="n"/>
@@ -23711,7 +23714,7 @@
       <c r="BP137" s="5" t="n"/>
       <c r="CD137" s="5" t="n"/>
       <c r="CF137" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI137" s="5" t="n"/>
       <c r="CR137" s="5" t="n"/>
@@ -23732,8 +23735,8 @@
         <v>0</v>
       </c>
       <c r="IR137" s="5" t="n"/>
-      <c r="IV137" s="12" t="s">
-        <v>0</v>
+      <c r="IV137" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JO137" s="12" t="s">
         <v>0</v>
@@ -23748,8 +23751,8 @@
       <c r="LS137" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="ML137" s="18" t="s">
-        <v>92</v>
+      <c r="ML137" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ137" s="5" t="n"/>
       <c r="NK137" s="5" t="n"/>
@@ -23788,8 +23791,8 @@
         <v>0</v>
       </c>
       <c r="IR138" s="5" t="n"/>
-      <c r="IV138" s="12" t="s">
-        <v>0</v>
+      <c r="IV138" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JE138" s="5" t="n"/>
       <c r="JF138" s="5" t="n"/>
@@ -23811,8 +23814,8 @@
       <c r="LS138" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="ML138" s="18" t="s">
-        <v>92</v>
+      <c r="ML138" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ138" s="5" t="n"/>
       <c r="NK138" s="5" t="n"/>
@@ -23822,7 +23825,7 @@
       <c r="BO139" s="5" t="n"/>
       <c r="BP139" s="5" t="n"/>
       <c r="CD139" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="CE139" s="12" t="s">
         <v>0</v>
@@ -23855,8 +23858,8 @@
         <v>0</v>
       </c>
       <c r="IR139" s="5" t="n"/>
-      <c r="IV139" s="12" t="s">
-        <v>0</v>
+      <c r="IV139" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JE139" s="5" t="n"/>
       <c r="JF139" s="5" t="n"/>
@@ -23890,8 +23893,8 @@
       <c r="LS139" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="ML139" s="18" t="s">
-        <v>92</v>
+      <c r="ML139" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ139" s="5" t="n"/>
       <c r="NK139" s="5" t="n"/>
@@ -23909,7 +23912,7 @@
       <c r="DB140" s="5" t="n"/>
       <c r="DC140" s="5" t="n"/>
       <c r="DF140" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DH140" s="5" t="n"/>
       <c r="DI140" s="5" t="n"/>
@@ -23930,8 +23933,8 @@
         <v>0</v>
       </c>
       <c r="IR140" s="5" t="n"/>
-      <c r="IV140" s="12" t="s">
-        <v>0</v>
+      <c r="IV140" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JE140" s="5" t="n"/>
       <c r="JF140" s="5" t="n"/>
@@ -23942,7 +23945,7 @@
       <c r="JL140" s="5" t="n"/>
       <c r="JM140" s="5" t="n"/>
       <c r="JO140" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="JS140" s="5" t="n"/>
       <c r="JV140" s="5" t="n"/>
@@ -23985,8 +23988,8 @@
       </c>
       <c r="LX140" s="5" t="n"/>
       <c r="LY140" s="5" t="n"/>
-      <c r="ML140" s="18" t="s">
-        <v>92</v>
+      <c r="ML140" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ140" s="5" t="n"/>
       <c r="MR140" s="5" t="n"/>
@@ -24077,8 +24080,8 @@
         <v>0</v>
       </c>
       <c r="IR141" s="5" t="n"/>
-      <c r="IV141" s="12" t="s">
-        <v>0</v>
+      <c r="IV141" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JH141" s="5" t="n"/>
       <c r="JI141" s="5" t="n"/>
@@ -24092,7 +24095,7 @@
       <c r="LE141" s="5" t="n"/>
       <c r="LF141" s="5" t="n"/>
       <c r="LP141" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="LQ141" s="12" t="s">
         <v>0</v>
@@ -24105,8 +24108,8 @@
       </c>
       <c r="LX141" s="5" t="n"/>
       <c r="LY141" s="5" t="n"/>
-      <c r="ML141" s="18" t="s">
-        <v>92</v>
+      <c r="ML141" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ141" s="5" t="n"/>
       <c r="MR141" s="5" t="n"/>
@@ -24174,18 +24177,18 @@
       <c r="DL142" s="5" t="n"/>
       <c r="DM142" s="5" t="n"/>
       <c r="DS142" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="DU142" s="5" t="n"/>
       <c r="DX142" s="12" t="s">
         <v>0</v>
       </c>
       <c r="GP142" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="IR142" s="5" t="n"/>
-      <c r="IV142" s="12" t="s">
-        <v>124</v>
+      <c r="IV142" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JH142" s="5" t="n"/>
       <c r="JI142" s="5" t="n"/>
@@ -24206,7 +24209,7 @@
       <c r="LX142" s="5" t="n"/>
       <c r="LY142" s="5" t="n"/>
       <c r="MH142" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="MI142" s="12" t="s">
         <v>0</v>
@@ -24217,8 +24220,8 @@
       <c r="MK142" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="ML142" s="18" t="s">
-        <v>92</v>
+      <c r="ML142" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ142" s="5" t="n"/>
       <c r="MR142" s="5" t="n"/>
@@ -24252,7 +24255,7 @@
       <c r="DB143" s="5" t="n"/>
       <c r="DC143" s="5" t="n"/>
       <c r="DF143" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DH143" s="5" t="n"/>
       <c r="DI143" s="5" t="n"/>
@@ -24273,8 +24276,8 @@
         <v>0</v>
       </c>
       <c r="IR143" s="5" t="n"/>
-      <c r="IV143" s="12" t="s">
-        <v>0</v>
+      <c r="IV143" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JE143" s="5" t="n"/>
       <c r="JF143" s="5" t="n"/>
@@ -24284,8 +24287,8 @@
       <c r="JK143" s="5" t="n"/>
       <c r="JL143" s="5" t="n"/>
       <c r="JM143" s="5" t="n"/>
-      <c r="JO143" s="12" t="s">
-        <v>120</v>
+      <c r="JO143" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JS143" s="5" t="n"/>
       <c r="JV143" s="5" t="n"/>
@@ -24307,7 +24310,7 @@
       <c r="LP143" s="5" t="n"/>
       <c r="LQ143" s="5" t="n"/>
       <c r="LS143" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="LU143" s="5" t="n"/>
       <c r="LV143" s="5" t="n"/>
@@ -24318,8 +24321,8 @@
       <c r="MA143" s="5" t="n"/>
       <c r="MB143" s="5" t="n"/>
       <c r="MC143" s="5" t="n"/>
-      <c r="ML143" s="18" t="s">
-        <v>92</v>
+      <c r="ML143" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ143" s="5" t="n"/>
       <c r="MR143" s="5" t="n"/>
@@ -24370,8 +24373,8 @@
         <v>0</v>
       </c>
       <c r="IR144" s="5" t="n"/>
-      <c r="IV144" s="12" t="s">
-        <v>0</v>
+      <c r="IV144" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JE144" s="5" t="n"/>
       <c r="JF144" s="5" t="n"/>
@@ -24382,8 +24385,8 @@
       <c r="JK144" s="5" t="n"/>
       <c r="JL144" s="5" t="n"/>
       <c r="JM144" s="5" t="n"/>
-      <c r="JO144" s="12" t="s">
-        <v>0</v>
+      <c r="JO144" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JS144" s="5" t="n"/>
       <c r="JY144" s="5" t="n"/>
@@ -24392,8 +24395,8 @@
       <c r="LE144" s="5" t="n"/>
       <c r="LP144" s="5" t="n"/>
       <c r="MC144" s="5" t="n"/>
-      <c r="ML144" s="18" t="s">
-        <v>92</v>
+      <c r="ML144" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MZ144" s="9" t="n"/>
       <c r="NA144" s="14" t="n"/>
@@ -24453,8 +24456,8 @@
         <v>0</v>
       </c>
       <c r="IR145" s="5" t="n"/>
-      <c r="IV145" s="12" t="s">
-        <v>0</v>
+      <c r="IV145" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JE145" s="5" t="n"/>
       <c r="JF145" s="5" t="n"/>
@@ -24465,8 +24468,8 @@
       <c r="JK145" s="5" t="n"/>
       <c r="JL145" s="5" t="n"/>
       <c r="JM145" s="5" t="n"/>
-      <c r="JO145" s="12" t="s">
-        <v>0</v>
+      <c r="JO145" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JS145" s="5" t="n"/>
       <c r="JY145" s="5" t="n"/>
@@ -24475,8 +24478,8 @@
       <c r="LE145" s="5" t="n"/>
       <c r="LP145" s="5" t="n"/>
       <c r="MC145" s="5" t="n"/>
-      <c r="ML145" s="18" t="s">
-        <v>92</v>
+      <c r="ML145" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MZ145" s="5" t="n"/>
       <c r="NJ145" s="5" t="n"/>
@@ -24496,7 +24499,7 @@
       <c r="BO146" s="5" t="n"/>
       <c r="BP146" s="5" t="n"/>
       <c r="CD146" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="CE146" s="12" t="s">
         <v>0</v>
@@ -24524,11 +24527,11 @@
         <v>0</v>
       </c>
       <c r="IR146" s="5" t="n"/>
-      <c r="IV146" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JO146" s="12" t="s">
-        <v>0</v>
+      <c r="IV146" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JO146" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JS146" s="5" t="n"/>
       <c r="JY146" s="5" t="n"/>
@@ -24537,8 +24540,8 @@
       <c r="LE146" s="5" t="n"/>
       <c r="LP146" s="5" t="n"/>
       <c r="MC146" s="5" t="n"/>
-      <c r="ML146" s="18" t="s">
-        <v>92</v>
+      <c r="ML146" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MZ146" s="5" t="n"/>
       <c r="NJ146" s="5" t="n"/>
@@ -24579,11 +24582,11 @@
         <v>0</v>
       </c>
       <c r="IR147" s="5" t="n"/>
-      <c r="IV147" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JO147" s="12" t="s">
-        <v>0</v>
+      <c r="IV147" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JO147" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JS147" s="5" t="n"/>
       <c r="JY147" s="5" t="n"/>
@@ -24592,8 +24595,8 @@
       <c r="LE147" s="5" t="n"/>
       <c r="LP147" s="5" t="n"/>
       <c r="MC147" s="5" t="n"/>
-      <c r="ML147" s="18" t="s">
-        <v>92</v>
+      <c r="ML147" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ147" s="5" t="n"/>
       <c r="MR147" s="5" t="n"/>
@@ -24611,7 +24614,7 @@
       <c r="BD148" s="5" t="n"/>
       <c r="BE148" s="5" t="n"/>
       <c r="BG148" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BO148" s="5" t="n"/>
       <c r="BP148" s="5" t="n"/>
@@ -24675,65 +24678,65 @@
         <v>0</v>
       </c>
       <c r="IR148" s="5" t="n"/>
-      <c r="IV148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="IW148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="IX148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="IY148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="IZ148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JA148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JB148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JC148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JD148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JE148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JF148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JG148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JH148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JI148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JJ148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JK148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JL148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JM148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JN148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="JO148" s="12" t="s">
-        <v>0</v>
+      <c r="IV148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="IW148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="IX148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="IY148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="IZ148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JA148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JB148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JC148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JD148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JE148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JF148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JG148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JH148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JI148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JJ148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JK148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JL148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JM148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JN148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="JO148" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="JS148" s="5" t="n"/>
       <c r="JY148" s="5" t="n"/>
@@ -24743,8 +24746,8 @@
       <c r="LE148" s="5" t="n"/>
       <c r="LP148" s="5" t="n"/>
       <c r="MC148" s="5" t="n"/>
-      <c r="ML148" s="18" t="s">
-        <v>92</v>
+      <c r="ML148" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ148" s="5" t="n"/>
       <c r="MR148" s="5" t="n"/>
@@ -24795,8 +24798,8 @@
       <c r="LE149" s="5" t="n"/>
       <c r="LP149" s="5" t="n"/>
       <c r="MC149" s="5" t="n"/>
-      <c r="ML149" s="18" t="s">
-        <v>92</v>
+      <c r="ML149" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ149" s="5" t="n"/>
       <c r="NK149" s="5" t="n"/>
@@ -24845,8 +24848,8 @@
       <c r="LE150" s="5" t="n"/>
       <c r="LP150" s="5" t="n"/>
       <c r="MC150" s="5" t="n"/>
-      <c r="ML150" s="18" t="s">
-        <v>92</v>
+      <c r="ML150" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MM150" s="12" t="s">
         <v>0</v>
@@ -24888,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="MZ150" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="NJ150" s="5" t="n"/>
       <c r="NK150" s="5" t="n"/>
@@ -24979,7 +24982,7 @@
       <c r="KY151" s="5" t="n"/>
       <c r="KZ151" s="5" t="n"/>
       <c r="LB151" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="LC151" s="5" t="n"/>
       <c r="LD151" s="5" t="n"/>
@@ -25010,8 +25013,8 @@
       <c r="MC151" s="5" t="n"/>
       <c r="MD151" s="5" t="n"/>
       <c r="ME151" s="5" t="n"/>
-      <c r="ML151" s="18" t="s">
-        <v>92</v>
+      <c r="ML151" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NJ151" s="5" t="n"/>
       <c r="NK151" s="5" t="n"/>
@@ -25049,8 +25052,8 @@
         <v>0</v>
       </c>
       <c r="ME152" s="5" t="n"/>
-      <c r="ML152" s="18" t="s">
-        <v>92</v>
+      <c r="ML152" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MZ152" s="5" t="n"/>
       <c r="NJ152" s="5" t="n"/>
@@ -25063,7 +25066,7 @@
       <c r="AA153" s="2" t="n"/>
       <c r="AN153" s="5" t="n"/>
       <c r="AP153" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AR153" s="5" t="n"/>
       <c r="AS153" s="5" t="n"/>
@@ -25097,8 +25100,8 @@
         <v>0</v>
       </c>
       <c r="ME153" s="5" t="n"/>
-      <c r="ML153" s="18" t="s">
-        <v>92</v>
+      <c r="ML153" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MZ153" s="5" t="n"/>
       <c r="NJ153" s="5" t="n"/>
@@ -25136,8 +25139,8 @@
         <v>0</v>
       </c>
       <c r="ME154" s="5" t="n"/>
-      <c r="ML154" s="18" t="s">
-        <v>92</v>
+      <c r="ML154" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MZ154" s="5" t="n"/>
       <c r="NJ154" s="5" t="n"/>
@@ -25150,7 +25153,7 @@
       <c r="AK155" s="3" t="n"/>
       <c r="AL155" s="3" t="n"/>
       <c r="AN155" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AO155" s="12" t="s">
         <v>0</v>
@@ -25264,8 +25267,8 @@
         <v>0</v>
       </c>
       <c r="ME155" s="5" t="n"/>
-      <c r="ML155" s="18" t="s">
-        <v>92</v>
+      <c r="ML155" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MZ155" s="5" t="n"/>
       <c r="NJ155" s="5" t="n"/>
@@ -25338,7 +25341,7 @@
         <v>0</v>
       </c>
       <c r="CL156" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="CM156" s="12" t="s">
         <v>0</v>
@@ -26019,7 +26022,7 @@
         <v>0</v>
       </c>
       <c r="LE156" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="LF156" s="12" t="s">
         <v>0</v>
@@ -26091,8 +26094,8 @@
         <v>0</v>
       </c>
       <c r="ME156" s="5" t="n"/>
-      <c r="ML156" s="18" t="s">
-        <v>92</v>
+      <c r="ML156" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MZ156" s="5" t="n"/>
       <c r="NJ156" s="5" t="n"/>
@@ -26185,8 +26188,8 @@
         <v>0</v>
       </c>
       <c r="ME157" s="5" t="n"/>
-      <c r="ML157" s="18" t="s">
-        <v>92</v>
+      <c r="ML157" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MZ157" s="5" t="n"/>
       <c r="NJ157" s="5" t="n"/>
@@ -26259,8 +26262,8 @@
         <v>0</v>
       </c>
       <c r="ME158" s="5" t="n"/>
-      <c r="ML158" s="18" t="s">
-        <v>92</v>
+      <c r="ML158" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MZ158" s="5" t="n"/>
       <c r="NJ158" s="5" t="n"/>
@@ -26297,8 +26300,8 @@
         <v>0</v>
       </c>
       <c r="ME159" s="5" t="n"/>
-      <c r="ML159" s="18" t="s">
-        <v>92</v>
+      <c r="ML159" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ159" s="5" t="n"/>
       <c r="MR159" s="5" t="n"/>
@@ -26404,7 +26407,7 @@
       <c r="GL160" s="5" t="n"/>
       <c r="GM160" s="5" t="n"/>
       <c r="GP160" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="GS160" s="5" t="n"/>
       <c r="GT160" s="5" t="n"/>
@@ -26542,8 +26545,8 @@
         <v>0</v>
       </c>
       <c r="ME160" s="5" t="n"/>
-      <c r="ML160" s="18" t="s">
-        <v>92</v>
+      <c r="ML160" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ160" s="5" t="n"/>
       <c r="MR160" s="5" t="n"/>
@@ -26631,7 +26634,7 @@
       <c r="ED161" s="5" t="n"/>
       <c r="EE161" s="5" t="n"/>
       <c r="EH161" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EK161" s="5" t="n"/>
       <c r="EL161" s="5" t="n"/>
@@ -26651,7 +26654,7 @@
       <c r="EZ161" s="5" t="n"/>
       <c r="FA161" s="5" t="n"/>
       <c r="FD161" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="FG161" s="5" t="n"/>
       <c r="FH161" s="5" t="n"/>
@@ -26714,7 +26717,7 @@
       <c r="HX161" s="5" t="n"/>
       <c r="HY161" s="5" t="n"/>
       <c r="IA161" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="IC161" s="5" t="n"/>
       <c r="ID161" s="5" t="n"/>
@@ -26820,8 +26823,8 @@
         <v>0</v>
       </c>
       <c r="ME161" s="5" t="n"/>
-      <c r="ML161" s="18" t="s">
-        <v>92</v>
+      <c r="ML161" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ161" s="5" t="n"/>
       <c r="MR161" s="5" t="n"/>
@@ -26890,8 +26893,8 @@
       <c r="ME162" s="5" t="n"/>
       <c r="MF162" s="5" t="n"/>
       <c r="MJ162" s="5" t="n"/>
-      <c r="ML162" s="18" t="s">
-        <v>92</v>
+      <c r="ML162" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ162" s="5" t="n"/>
       <c r="MR162" s="5" t="n"/>
@@ -26958,8 +26961,8 @@
       <c r="MG163" s="5" t="n"/>
       <c r="MI163" s="5" t="n"/>
       <c r="MJ163" s="5" t="n"/>
-      <c r="ML163" s="18" t="s">
-        <v>92</v>
+      <c r="ML163" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MY163" s="5" t="n"/>
       <c r="MZ163" s="5" t="n"/>
@@ -27016,8 +27019,8 @@
       </c>
       <c r="MG164" s="5" t="n"/>
       <c r="MH164" s="5" t="n"/>
-      <c r="ML164" s="18" t="s">
-        <v>92</v>
+      <c r="ML164" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MX164" s="5" t="n"/>
       <c r="MY164" s="5" t="n"/>
@@ -27054,7 +27057,7 @@
       <c r="KG165" s="5" t="n"/>
       <c r="KW165" s="5" t="n"/>
       <c r="LJ165" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="LK165" s="12" t="s">
         <v>0</v>
@@ -27069,11 +27072,11 @@
       <c r="MC165" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MK165" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="ML165" s="18" t="s">
-        <v>92</v>
+      <c r="MK165" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="ML165" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MW165" s="5" t="n"/>
       <c r="MX165" s="5" t="n"/>
@@ -27103,7 +27106,7 @@
       <c r="HM166" s="5" t="n"/>
       <c r="IC166" s="5" t="n"/>
       <c r="IR166" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="IS166" s="12" t="s">
         <v>0</v>
@@ -27158,11 +27161,11 @@
       <c r="MD166" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MJ166" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MK166" s="18" t="s">
-        <v>92</v>
+      <c r="MJ166" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MK166" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MM166" s="5" t="n"/>
       <c r="MN166" s="5" t="n"/>
@@ -27223,17 +27226,17 @@
       <c r="MF167" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MG167" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MH167" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MI167" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MJ167" s="18" t="s">
-        <v>92</v>
+      <c r="MG167" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MH167" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MI167" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MJ167" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MM167" s="5" t="n"/>
       <c r="MU167" s="5" t="n"/>
@@ -27291,8 +27294,8 @@
       <c r="MD168" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MG168" s="18" t="s">
-        <v>92</v>
+      <c r="MG168" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="ML168" s="5" t="n"/>
       <c r="MT168" s="5" t="n"/>
@@ -27352,8 +27355,8 @@
       <c r="MD169" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MG169" s="18" t="s">
-        <v>92</v>
+      <c r="MG169" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="ML169" s="5" t="n"/>
       <c r="MM169" s="5" t="n"/>
@@ -27429,11 +27432,11 @@
       <c r="MD170" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MG170" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MH170" s="18" t="s">
-        <v>92</v>
+      <c r="MG170" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MH170" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MM170" s="5" t="n"/>
       <c r="MN170" s="5" t="n"/>
@@ -27537,11 +27540,11 @@
       <c r="MD171" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MH171" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MI171" s="18" t="s">
-        <v>92</v>
+      <c r="MH171" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MI171" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MN171" s="5" t="n"/>
       <c r="MO171" s="5" t="n"/>
@@ -27595,7 +27598,7 @@
         <v>0</v>
       </c>
       <c r="JN172" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="JV172" s="5" t="n"/>
       <c r="JZ172" s="12" t="s">
@@ -27610,11 +27613,11 @@
       <c r="MD172" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MI172" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MJ172" s="18" t="s">
-        <v>92</v>
+      <c r="MI172" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MJ172" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MO172" s="5" t="n"/>
       <c r="MP172" s="5" t="n"/>
@@ -27685,11 +27688,11 @@
       <c r="MD173" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="MJ173" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MK173" s="18" t="s">
-        <v>92</v>
+      <c r="MJ173" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MK173" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MO173" s="5" t="n"/>
       <c r="MP173" s="5" t="n"/>
@@ -27709,7 +27712,7 @@
       <c r="B174" s="2" t="n"/>
       <c r="AA174" s="2" t="n"/>
       <c r="AM174" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AN174" s="12" t="s">
         <v>0</v>
@@ -27774,14 +27777,14 @@
         <v>0</v>
       </c>
       <c r="MC174" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="MF174" s="5" t="n"/>
-      <c r="MK174" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="ML174" s="18" t="s">
-        <v>92</v>
+      <c r="MK174" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="ML174" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MP174" s="5" t="n"/>
       <c r="MQ174" s="5" t="n"/>
@@ -27821,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="AW175" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BO175" s="5" t="n"/>
       <c r="BP175" s="5" t="n"/>
@@ -27926,11 +27929,11 @@
       <c r="MD175" s="5" t="n"/>
       <c r="ME175" s="5" t="n"/>
       <c r="MG175" s="5" t="n"/>
-      <c r="ML175" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MM175" s="18" t="s">
-        <v>92</v>
+      <c r="ML175" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MM175" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MQ175" s="5" t="n"/>
       <c r="MR175" s="5" t="n"/>
@@ -27983,7 +27986,7 @@
       <c r="IC176" s="5" t="n"/>
       <c r="IR176" s="5" t="n"/>
       <c r="IV176" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="IZ176" s="5" t="n"/>
       <c r="JG176" s="12" t="s">
@@ -27997,11 +28000,11 @@
       <c r="LC176" s="5" t="n"/>
       <c r="MD176" s="5" t="n"/>
       <c r="MH176" s="5" t="n"/>
-      <c r="MM176" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MN176" s="18" t="s">
-        <v>92</v>
+      <c r="MM176" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MN176" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MR176" s="5" t="n"/>
       <c r="MS176" s="5" t="n"/>
@@ -28063,24 +28066,24 @@
       <c r="KL177" s="5" t="n"/>
       <c r="LC177" s="5" t="n"/>
       <c r="MI177" s="5" t="n"/>
-      <c r="MN177" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MO177" s="18" t="s">
-        <v>92</v>
+      <c r="MN177" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MO177" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MR177" s="5" t="n"/>
       <c r="MS177" s="5" t="n"/>
       <c r="MT177" s="5" t="n"/>
       <c r="MV177" s="5" t="n"/>
-      <c r="NF177" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="NG177" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="NH177" s="18" t="s">
-        <v>92</v>
+      <c r="NF177" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="NG177" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="NH177" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="NJ177" s="5" t="n"/>
       <c r="NK177" s="5" t="n"/>
@@ -28155,20 +28158,20 @@
       <c r="MJ178" s="5" t="n"/>
       <c r="MK178" s="5" t="n"/>
       <c r="ML178" s="5" t="n"/>
-      <c r="MO178" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MP178" s="18" t="s">
-        <v>92</v>
+      <c r="MO178" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MP178" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MT178" s="5" t="n"/>
       <c r="MU178" s="5" t="n"/>
       <c r="MV178" s="5" t="n"/>
-      <c r="NE178" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="NF178" s="18" t="s">
-        <v>92</v>
+      <c r="NE178" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="NF178" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NH178" s="5" t="n"/>
       <c r="NI178" s="5" t="n"/>
@@ -28266,20 +28269,20 @@
       <c r="MJ179" s="5" t="n"/>
       <c r="MK179" s="5" t="n"/>
       <c r="ML179" s="5" t="n"/>
-      <c r="MP179" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MQ179" s="18" t="s">
-        <v>92</v>
+      <c r="MP179" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MQ179" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MU179" s="5" t="n"/>
       <c r="MV179" s="5" t="n"/>
       <c r="NB179" s="5" t="n"/>
-      <c r="ND179" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="NE179" s="18" t="s">
-        <v>92</v>
+      <c r="ND179" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="NE179" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NI179" s="5" t="n"/>
       <c r="NJ179" s="5" t="n"/>
@@ -28412,17 +28415,17 @@
       <c r="MK180" s="5" t="n"/>
       <c r="ML180" s="5" t="n"/>
       <c r="MM180" s="14" t="n"/>
-      <c r="MQ180" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MR180" s="18" t="s">
-        <v>92</v>
+      <c r="MQ180" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MR180" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MV180" s="5" t="n"/>
       <c r="MW180" s="5" t="n"/>
       <c r="NA180" s="5" t="n"/>
-      <c r="ND180" s="18" t="s">
-        <v>92</v>
+      <c r="ND180" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NH180" s="5" t="n"/>
       <c r="NJ180" s="5" t="n"/>
@@ -28495,20 +28498,20 @@
       <c r="MJ181" s="5" t="n"/>
       <c r="MM181" s="5" t="n"/>
       <c r="MN181" s="5" t="n"/>
-      <c r="MR181" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MS181" s="18" t="s">
-        <v>92</v>
+      <c r="MR181" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MS181" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MW181" s="5" t="n"/>
       <c r="MX181" s="5" t="n"/>
       <c r="MZ181" s="5" t="n"/>
-      <c r="NC181" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="ND181" s="18" t="s">
-        <v>92</v>
+      <c r="NC181" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="ND181" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NG181" s="5" t="n"/>
       <c r="NK181" s="5" t="n"/>
@@ -28566,22 +28569,22 @@
       <c r="MI182" s="5" t="n"/>
       <c r="MN182" s="5" t="n"/>
       <c r="MO182" s="5" t="n"/>
-      <c r="MS182" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MT182" s="18" t="s">
-        <v>92</v>
+      <c r="MS182" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MT182" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="MX182" s="5" t="n"/>
       <c r="MY182" s="5" t="n"/>
-      <c r="NA182" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="NB182" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="NC182" s="18" t="s">
-        <v>92</v>
+      <c r="NA182" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="NB182" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="NC182" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="ND182" s="12" t="s">
         <v>0</v>
@@ -28717,17 +28720,17 @@
       <c r="MJ183" s="5" t="n"/>
       <c r="MO183" s="5" t="n"/>
       <c r="MP183" s="5" t="n"/>
-      <c r="MT183" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MU183" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MZ183" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="NA183" s="18" t="s">
-        <v>92</v>
+      <c r="MT183" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MU183" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MZ183" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="NA183" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NE183" s="12" t="s">
         <v>0</v>
@@ -28828,17 +28831,17 @@
       <c r="MO184" s="5" t="n"/>
       <c r="MP184" s="5" t="n"/>
       <c r="MQ184" s="5" t="n"/>
-      <c r="MU184" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MV184" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MY184" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MZ184" s="18" t="s">
-        <v>92</v>
+      <c r="MU184" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MV184" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MY184" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MZ184" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NL184" s="12" t="s">
         <v>0</v>
@@ -28926,17 +28929,17 @@
       <c r="MO185" s="5" t="n"/>
       <c r="MQ185" s="5" t="n"/>
       <c r="MR185" s="5" t="n"/>
-      <c r="MV185" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MW185" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MX185" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="MY185" s="18" t="s">
-        <v>92</v>
+      <c r="MV185" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MW185" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="MX185" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="MY185" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="NB185" s="5" t="n"/>
       <c r="NC185" s="5" t="n"/>
@@ -29269,11 +29272,11 @@
         <v>0</v>
       </c>
       <c r="HM190" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="IC190" s="5" t="n"/>
       <c r="IR190" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="IS190" s="12" t="s">
         <v>0</v>
@@ -29318,7 +29321,7 @@
         <v>0</v>
       </c>
       <c r="KI190" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="KJ190" s="12" t="s">
         <v>0</v>
@@ -29668,10 +29671,10 @@
       <c r="LZ196" s="5" t="n"/>
       <c r="MA196" s="5" t="n"/>
       <c r="MM196" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="MN196" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="MR196" s="5" t="n"/>
       <c r="NB196" s="5" t="n"/>
@@ -31162,7 +31165,7 @@
       <c r="MG209" s="5" t="n"/>
       <c r="MH209" s="5" t="n"/>
       <c r="NF209" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="OE209" s="2" t="n"/>
       <c r="OF209" s="2" t="n"/>
@@ -36328,7 +36331,7 @@
       <c r="BY65" s="11" t="n"/>
       <c r="BZ65" s="11" t="n"/>
       <c r="CA65" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CB65" s="11" t="n"/>
       <c r="CC65" s="11" t="n"/>
@@ -36368,7 +36371,7 @@
       <c r="DK65" s="11" t="n"/>
       <c r="DL65" s="11" t="n"/>
       <c r="DM65" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DN65" s="11" t="n"/>
       <c r="DO65" s="11" t="n"/>
@@ -36408,7 +36411,7 @@
       <c r="EW65" s="11" t="n"/>
       <c r="EX65" s="11" t="n"/>
       <c r="EY65" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="EZ65" s="11" t="n"/>
       <c r="FA65" s="11" t="n"/>
@@ -36448,8 +36451,8 @@
       <c r="GI65" s="11" t="n"/>
       <c r="GJ65" s="11" t="n"/>
       <c r="GK65" s="11" t="n"/>
-      <c r="GL65" s="12" t="s">
-        <v>158</v>
+      <c r="GL65" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="GM65" s="11" t="n"/>
       <c r="GN65" s="11" t="n"/>
@@ -36675,8 +36678,8 @@
       <c r="GI66" s="11" t="n"/>
       <c r="GJ66" s="11" t="n"/>
       <c r="GK66" s="11" t="n"/>
-      <c r="GL66" s="15" t="s">
-        <v>0</v>
+      <c r="GL66" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="GM66" s="11" t="n"/>
       <c r="GN66" s="11" t="n"/>
@@ -36767,8 +36770,8 @@
       </c>
       <c r="GF67" s="11" t="n"/>
       <c r="GJ67" s="11" t="n"/>
-      <c r="GL67" s="15" t="s">
-        <v>0</v>
+      <c r="GL67" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HK67" s="11" t="n"/>
       <c r="HV67" s="15" t="s">
@@ -36807,8 +36810,8 @@
       </c>
       <c r="GG68" s="11" t="n"/>
       <c r="GJ68" s="11" t="n"/>
-      <c r="GL68" s="15" t="s">
-        <v>0</v>
+      <c r="GL68" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HH68" s="11" t="n"/>
       <c r="HI68" s="11" t="n"/>
@@ -36852,8 +36855,8 @@
       </c>
       <c r="GG69" s="11" t="n"/>
       <c r="GJ69" s="11" t="n"/>
-      <c r="GL69" s="15" t="s">
-        <v>0</v>
+      <c r="GL69" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HH69" s="11" t="n"/>
       <c r="HV69" s="15" t="s">
@@ -37337,17 +37340,17 @@
       <c r="GK70" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="GL70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GM70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GN70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GO70" s="15" t="s">
-        <v>0</v>
+      <c r="GL70" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="GM70" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="GN70" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="GO70" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="GP70" s="15" t="s">
         <v>0</v>
@@ -37542,8 +37545,8 @@
       <c r="BQ71" s="11" t="n"/>
       <c r="GH71" s="11" t="n"/>
       <c r="GJ71" s="11" t="n"/>
-      <c r="GO71" s="15" t="s">
-        <v>0</v>
+      <c r="GO71" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HI71" s="11" t="n"/>
       <c r="IG71" s="15" t="s">
@@ -37583,8 +37586,8 @@
       <c r="BR72" s="11" t="n"/>
       <c r="GG72" s="11" t="n"/>
       <c r="GJ72" s="11" t="n"/>
-      <c r="GO72" s="15" t="s">
-        <v>0</v>
+      <c r="GO72" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HH72" s="11" t="n"/>
       <c r="IG72" s="15" t="s">
@@ -37624,8 +37627,8 @@
       <c r="BS73" s="11" t="n"/>
       <c r="GF73" s="11" t="n"/>
       <c r="GJ73" s="11" t="n"/>
-      <c r="GO73" s="15" t="s">
-        <v>0</v>
+      <c r="GO73" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HH73" s="11" t="n"/>
       <c r="HI73" s="11" t="n"/>
@@ -37792,8 +37795,8 @@
       <c r="GI74" s="11" t="n"/>
       <c r="GJ74" s="11" t="n"/>
       <c r="GK74" s="11" t="n"/>
-      <c r="GO74" s="15" t="s">
-        <v>0</v>
+      <c r="GO74" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HK74" s="11" t="n"/>
       <c r="HN74" s="11" t="n"/>
@@ -37855,8 +37858,8 @@
       <c r="BO75" s="11" t="n"/>
       <c r="GJ75" s="11" t="n"/>
       <c r="GK75" s="11" t="n"/>
-      <c r="GO75" s="15" t="s">
-        <v>0</v>
+      <c r="GO75" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HK75" s="11" t="n"/>
       <c r="HN75" s="11" t="n"/>
@@ -37898,8 +37901,8 @@
       </c>
       <c r="BO76" s="11" t="n"/>
       <c r="GJ76" s="11" t="n"/>
-      <c r="GO76" s="15" t="s">
-        <v>0</v>
+      <c r="GO76" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HK76" s="11" t="n"/>
       <c r="HN76" s="11" t="n"/>
@@ -37978,8 +37981,8 @@
       </c>
       <c r="BO77" s="11" t="n"/>
       <c r="GJ77" s="11" t="n"/>
-      <c r="GO77" s="15" t="s">
-        <v>0</v>
+      <c r="GO77" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HK77" s="11" t="n"/>
       <c r="HL77" s="11" t="n"/>
@@ -38023,8 +38026,8 @@
       </c>
       <c r="BO78" s="11" t="n"/>
       <c r="GJ78" s="11" t="n"/>
-      <c r="GO78" s="15" t="s">
-        <v>0</v>
+      <c r="GO78" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HK78" s="11" t="n"/>
       <c r="HM78" s="11" t="n"/>
@@ -38071,8 +38074,8 @@
       </c>
       <c r="BO79" s="11" t="n"/>
       <c r="GJ79" s="11" t="n"/>
-      <c r="GO79" s="15" t="s">
-        <v>0</v>
+      <c r="GO79" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HK79" s="11" t="n"/>
       <c r="HO79" s="11" t="n"/>
@@ -38130,8 +38133,8 @@
       </c>
       <c r="BO80" s="11" t="n"/>
       <c r="GJ80" s="11" t="n"/>
-      <c r="GO80" s="15" t="s">
-        <v>0</v>
+      <c r="GO80" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="GX80" s="11" t="n"/>
       <c r="GY80" s="11" t="n"/>
@@ -38188,8 +38191,8 @@
       </c>
       <c r="BO81" s="11" t="n"/>
       <c r="GJ81" s="11" t="n"/>
-      <c r="GO81" s="15" t="s">
-        <v>0</v>
+      <c r="GO81" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="GX81" s="11" t="n"/>
       <c r="GY81" s="11" t="n"/>
@@ -38244,8 +38247,8 @@
       </c>
       <c r="BO82" s="11" t="n"/>
       <c r="GJ82" s="11" t="n"/>
-      <c r="GO82" s="15" t="s">
-        <v>0</v>
+      <c r="GO82" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="GX82" s="11" t="n"/>
       <c r="GY82" s="11" t="n"/>
@@ -38312,8 +38315,8 @@
       </c>
       <c r="BO83" s="11" t="n"/>
       <c r="GJ83" s="11" t="n"/>
-      <c r="GO83" s="12" t="s">
-        <v>162</v>
+      <c r="GO83" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="GX83" s="11" t="n"/>
       <c r="GZ83" s="11" t="n"/>
@@ -38360,14 +38363,14 @@
       <c r="S84" s="11" t="n"/>
       <c r="T84" s="11" t="n"/>
       <c r="AO84" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS84" s="11" t="n"/>
       <c r="AT84" s="11" t="n"/>
       <c r="AU84" s="11" t="n"/>
       <c r="AV84" s="11" t="n"/>
       <c r="AY84" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BB84" s="11" t="n"/>
       <c r="BC84" s="11" t="n"/>
@@ -38378,8 +38381,8 @@
       </c>
       <c r="BO84" s="11" t="n"/>
       <c r="GJ84" s="11" t="n"/>
-      <c r="GO84" s="15" t="s">
-        <v>0</v>
+      <c r="GO84" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HA84" s="11" t="n"/>
       <c r="HB84" s="11" t="n"/>
@@ -38402,7 +38405,7 @@
       <c r="IM84" s="11" t="n"/>
       <c r="IN84" s="11" t="n"/>
       <c r="IQ84" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="IU84" s="11" t="n"/>
       <c r="IV84" s="11" t="n"/>
@@ -38448,8 +38451,8 @@
       </c>
       <c r="BO85" s="11" t="n"/>
       <c r="GJ85" s="11" t="n"/>
-      <c r="GO85" s="15" t="s">
-        <v>0</v>
+      <c r="GO85" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="GX85" s="11" t="n"/>
       <c r="GZ85" s="11" t="n"/>
@@ -38458,8 +38461,8 @@
       <c r="HC85" s="11" t="n"/>
       <c r="HD85" s="11" t="n"/>
       <c r="HE85" s="11" t="n"/>
-      <c r="HH85" s="12" t="s">
-        <v>166</v>
+      <c r="HH85" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HK85" s="11" t="n"/>
       <c r="HN85" s="11" t="n"/>
@@ -38508,8 +38511,8 @@
       </c>
       <c r="BO86" s="11" t="n"/>
       <c r="GJ86" s="11" t="n"/>
-      <c r="GO86" s="15" t="s">
-        <v>0</v>
+      <c r="GO86" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="GX86" s="11" t="n"/>
       <c r="GY86" s="11" t="n"/>
@@ -38517,8 +38520,8 @@
       <c r="HC86" s="11" t="n"/>
       <c r="HD86" s="11" t="n"/>
       <c r="HE86" s="11" t="n"/>
-      <c r="HH86" s="15" t="s">
-        <v>0</v>
+      <c r="HH86" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HK86" s="11" t="n"/>
       <c r="HN86" s="11" t="n"/>
@@ -38576,8 +38579,8 @@
       </c>
       <c r="BO87" s="11" t="n"/>
       <c r="GJ87" s="11" t="n"/>
-      <c r="GO87" s="15" t="s">
-        <v>0</v>
+      <c r="GO87" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="GX87" s="11" t="n"/>
       <c r="GY87" s="11" t="n"/>
@@ -38587,8 +38590,8 @@
       <c r="HC87" s="11" t="n"/>
       <c r="HD87" s="11" t="n"/>
       <c r="HE87" s="11" t="n"/>
-      <c r="HH87" s="15" t="s">
-        <v>0</v>
+      <c r="HH87" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HK87" s="11" t="n"/>
       <c r="HN87" s="11" t="n"/>
@@ -38636,8 +38639,8 @@
       </c>
       <c r="BO88" s="11" t="n"/>
       <c r="GJ88" s="11" t="n"/>
-      <c r="GO88" s="15" t="s">
-        <v>0</v>
+      <c r="GO88" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="GX88" s="11" t="n"/>
       <c r="GY88" s="11" t="n"/>
@@ -38647,8 +38650,8 @@
       <c r="HC88" s="11" t="n"/>
       <c r="HD88" s="11" t="n"/>
       <c r="HE88" s="11" t="n"/>
-      <c r="HH88" s="15" t="s">
-        <v>0</v>
+      <c r="HH88" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HK88" s="11" t="n"/>
       <c r="HM88" s="11" t="n"/>
@@ -38668,7 +38671,7 @@
       <c r="JW88" s="11" t="n"/>
       <c r="JZ88" s="11" t="n"/>
       <c r="KC88" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="KD88" s="15" t="s">
         <v>0</v>
@@ -38695,7 +38698,7 @@
         <v>0</v>
       </c>
       <c r="KL88" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="KZ88" s="11" t="n"/>
       <c r="LA88" s="11" t="n"/>
@@ -38718,11 +38721,11 @@
       </c>
       <c r="BO89" s="11" t="n"/>
       <c r="GJ89" s="11" t="n"/>
-      <c r="GO89" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="HH89" s="15" t="s">
-        <v>0</v>
+      <c r="GO89" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="HH89" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HK89" s="11" t="n"/>
       <c r="HQ89" s="11" t="n"/>
@@ -38771,11 +38774,11 @@
       </c>
       <c r="BO90" s="11" t="n"/>
       <c r="GJ90" s="11" t="n"/>
-      <c r="GO90" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="HH90" s="15" t="s">
-        <v>0</v>
+      <c r="GO90" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="HH90" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HK90" s="11" t="n"/>
       <c r="HQ90" s="11" t="n"/>
@@ -38821,65 +38824,65 @@
       </c>
       <c r="BO91" s="11" t="n"/>
       <c r="GJ91" s="11" t="n"/>
-      <c r="GO91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GP91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GQ91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GR91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GS91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GT91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GU91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GV91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GW91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GX91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GY91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GZ91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="HA91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="HB91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="HC91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="HD91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="HE91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="HF91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="HG91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="HH91" s="15" t="s">
-        <v>0</v>
+      <c r="GO91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="GP91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="GQ91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="GR91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="GS91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="GT91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="GU91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="GV91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="GW91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="GX91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="GY91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="GZ91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="HA91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="HB91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="HC91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="HD91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="HE91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="HF91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="HG91" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="HH91" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="HK91" s="11" t="n"/>
       <c r="HL91" s="11" t="n"/>
@@ -38916,7 +38919,7 @@
       <c r="T92" s="11" t="n"/>
       <c r="Z92" s="11" t="n"/>
       <c r="AB92" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AC92" s="15" t="s">
         <v>0</v>
@@ -39207,7 +39210,7 @@
       <c r="IE94" s="11" t="n"/>
       <c r="IF94" s="11" t="n"/>
       <c r="IH94" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="II94" s="11" t="n"/>
       <c r="IJ94" s="11" t="n"/>
@@ -39905,7 +39908,7 @@
         <v>0</v>
       </c>
       <c r="HW97" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="HX97" s="15" t="s">
         <v>0</v>
@@ -40451,7 +40454,7 @@
       <c r="BZ103" s="11" t="n"/>
       <c r="CA103" s="11" t="n"/>
       <c r="CB103" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="CC103" s="11" t="n"/>
       <c r="CD103" s="11" t="n"/>
@@ -40557,7 +40560,7 @@
       <c r="FZ103" s="11" t="n"/>
       <c r="GA103" s="11" t="n"/>
       <c r="GB103" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="GC103" s="11" t="n"/>
       <c r="GD103" s="11" t="n"/>
@@ -40606,7 +40609,7 @@
       <c r="HU103" s="11" t="n"/>
       <c r="HV103" s="11" t="n"/>
       <c r="HW103" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="HX103" s="11" t="n"/>
       <c r="HY103" s="11" t="n"/>
@@ -41631,7 +41634,7 @@
       <c r="KL117" s="11" t="n"/>
       <c r="KM117" s="11" t="n"/>
       <c r="KP117" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="KQ117" s="15" t="s">
         <v>0</v>
@@ -41640,7 +41643,7 @@
       <c r="KW117" s="11" t="n"/>
       <c r="KY117" s="11" t="n"/>
       <c r="KZ117" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="LA117" s="11" t="n"/>
       <c r="LD117" s="11" t="n"/>
@@ -41716,10 +41719,10 @@
       <c r="KW118" s="11" t="n"/>
       <c r="KX118" s="11" t="n"/>
       <c r="KY118" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="KZ118" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="LB118" s="11" t="n"/>
       <c r="LC118" s="11" t="n"/>
@@ -42343,7 +42346,7 @@
       <c r="KG125" s="11" t="n"/>
       <c r="KH125" s="11" t="n"/>
       <c r="KO125" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="KP125" s="15" t="s">
         <v>0</v>
@@ -42500,7 +42503,7 @@
       <c r="Q127" s="11" t="n"/>
       <c r="T127" s="11" t="n"/>
       <c r="AB127" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AC127" s="15" t="s">
         <v>0</v>
@@ -42939,7 +42942,7 @@
       <c r="JZ131" s="11" t="n"/>
       <c r="KB131" s="11" t="n"/>
       <c r="KC131" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="KD131" s="15" t="s">
         <v>0</v>
@@ -43211,7 +43214,7 @@
       <c r="KB134" s="11" t="n"/>
       <c r="KC134" s="11" t="n"/>
       <c r="KG134" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="KH134" s="15" t="s">
         <v>0</v>
@@ -43358,7 +43361,7 @@
       <c r="Q136" s="11" t="n"/>
       <c r="T136" s="11" t="n"/>
       <c r="AB136" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AC136" s="15" t="s">
         <v>0</v>
@@ -43552,7 +43555,7 @@
         <v>0</v>
       </c>
       <c r="KG137" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="KJ137" s="11" t="n"/>
       <c r="KK137" s="11" t="n"/>
@@ -43721,10 +43724,10 @@
       <c r="JQ139" s="11" t="n"/>
       <c r="JR139" s="11" t="n"/>
       <c r="KC139" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="KD139" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="KE139" s="15" t="s">
         <v>0</v>
@@ -43749,7 +43752,7 @@
       </c>
       <c r="LI139" s="11" t="n"/>
       <c r="LM139" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="MD139" s="11" t="n"/>
       <c r="ME139" s="11" t="n"/>
@@ -43970,7 +43973,7 @@
       <c r="JQ140" s="11" t="n"/>
       <c r="JR140" s="11" t="n"/>
       <c r="KC140" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="KD140" s="11" t="n"/>
       <c r="KF140" s="11" t="n"/>
@@ -44244,7 +44247,7 @@
       <c r="KF141" s="11" t="n"/>
       <c r="KG141" s="11" t="n"/>
       <c r="KQ141" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="KR141" s="15" t="s">
         <v>0</v>
@@ -45587,8 +45590,8 @@
       <c r="AF16" s="11" t="n"/>
       <c r="AH16" s="11" t="n"/>
       <c r="AI16" s="11" t="n"/>
-      <c r="AK16" s="18" t="s">
-        <v>92</v>
+      <c r="AK16" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="AL16" s="11" t="n"/>
       <c r="AM16" s="11" t="n"/>
@@ -45610,8 +45613,8 @@
       <c r="AF17" s="11" t="n"/>
       <c r="AI17" s="11" t="n"/>
       <c r="AJ17" s="11" t="n"/>
-      <c r="AK17" s="18" t="s">
-        <v>92</v>
+      <c r="AK17" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="AN17" s="11" t="n"/>
       <c r="AP17" s="11" t="n"/>
@@ -45631,11 +45634,11 @@
       <c r="AD18" s="11" t="n"/>
       <c r="AE18" s="11" t="n"/>
       <c r="AH18" s="11" t="n"/>
-      <c r="AJ18" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK18" s="18" t="s">
-        <v>92</v>
+      <c r="AJ18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="AN18" s="11" t="n"/>
       <c r="AO18" s="11" t="n"/>
@@ -45655,11 +45658,11 @@
       <c r="AF19" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="AI19" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ19" s="18" t="s">
-        <v>92</v>
+      <c r="AI19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="AL19" s="11" t="n"/>
       <c r="AM19" s="11" t="n"/>
@@ -45683,11 +45686,11 @@
       <c r="AG20" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AH20" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI20" s="18" t="s">
-        <v>92</v>
+      <c r="AH20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="AL20" s="11" t="n"/>
       <c r="AM20" s="11" t="n"/>
@@ -45709,14 +45712,14 @@
       <c r="AG21" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AH21" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM21" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN21" s="18" t="s">
-        <v>92</v>
+      <c r="AH21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="BF21" s="11" t="n"/>
       <c r="BG21" s="11" t="n"/>
@@ -45737,17 +45740,17 @@
       <c r="AG22" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AH22" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI22" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL22" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM22" s="18" t="s">
-        <v>92</v>
+      <c r="AH22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="AN22" s="11" t="n"/>
       <c r="AO22" s="11" t="n"/>
@@ -45772,17 +45775,17 @@
       <c r="AF23" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AI23" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ23" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK23" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL23" s="18" t="s">
-        <v>92</v>
+      <c r="AI23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="AO23" s="11" t="n"/>
       <c r="AP23" s="11" t="n"/>
@@ -45857,7 +45860,7 @@
       <c r="U26" s="11" t="n"/>
       <c r="X26" s="11" t="n"/>
       <c r="Z26" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA26" s="15" t="s">
         <v>0</v>
@@ -46086,7 +46089,7 @@
       <c r="N33" s="11" t="n"/>
       <c r="O33" s="11" t="n"/>
       <c r="S33" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T33" s="15" t="s">
         <v>0</v>
@@ -46204,7 +46207,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BA35" s="11" t="n"/>
       <c r="BP35" s="11" t="n"/>
@@ -46291,10 +46294,10 @@
       <c r="D38" s="11" t="n"/>
       <c r="E38" s="11" t="n"/>
       <c r="O38" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q38" s="15" t="s">
         <v>0</v>
@@ -46328,7 +46331,7 @@
         <v>0</v>
       </c>
       <c r="AW38" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AX38" s="11" t="n"/>
       <c r="AY38" s="11" t="n"/>
@@ -46633,7 +46636,7 @@
         <v>0</v>
       </c>
       <c r="AI51" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK51" s="11" t="n"/>
       <c r="BG51" s="11" t="n"/>

--- a/path.xlsx
+++ b/path.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="Denne_projektmappe"/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Basement" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GroundFloor" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="SecondFloor" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Tower" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Basement" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GroundFloor" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SecondFloor" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tower" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>.</t>
   </si>
@@ -295,7 +295,7 @@
     <t>H1.25D</t>
   </si>
   <si>
-    <t>x</t>
+    <t>H1.25</t>
   </si>
   <si>
     <t>1_4_up</t>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>H1.23</t>
+  </si>
+  <si>
+    <t>H1.20</t>
   </si>
   <si>
     <t>H1.20A</t>
@@ -341,6 +344,9 @@
   </si>
   <si>
     <t>H1.08K</t>
+  </si>
+  <si>
+    <t>H1.13</t>
   </si>
   <si>
     <t>H1.08I</t>
@@ -388,7 +394,13 @@
     <t>H1.09A</t>
   </si>
   <si>
+    <t>H1.09E</t>
+  </si>
+  <si>
     <t>1_7_up</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>H1.17D</t>
@@ -410,9 +422,6 @@
   </si>
   <si>
     <t>H1.02</t>
-  </si>
-  <si>
-    <t>H1.07</t>
   </si>
   <si>
     <t>H1.16B</t>
@@ -437,9 +446,6 @@
   </si>
   <si>
     <t>H1.16</t>
-  </si>
-  <si>
-    <t>H1.01</t>
   </si>
   <si>
     <t>H1.16I</t>
@@ -505,13 +511,16 @@
     <t>H2.18</t>
   </si>
   <si>
+    <t>H2.0</t>
+  </si>
+  <si>
     <t>H2.02</t>
   </si>
   <si>
-    <t>2_2_down</t>
+    <t>H2.0B</t>
   </si>
   <si>
-    <t>H2.0B</t>
+    <t>2_3_down</t>
   </si>
   <si>
     <t>2_7_up</t>
@@ -735,7 +744,7 @@
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -18268,139 +18277,139 @@
       <c r="HZ66" s="5" t="n"/>
       <c r="IE66" s="5" t="n"/>
       <c r="IF66" s="5" t="n"/>
-      <c r="IV66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="IW66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="IX66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="IY66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="IZ66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JA66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JB66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JC66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JD66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JE66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JF66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JG66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JH66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JI66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JJ66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JK66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JL66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JM66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JN66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JO66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JP66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JQ66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JR66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JS66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JT66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JU66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JV66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JW66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JX66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JY66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JZ66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KA66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KB66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KC66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KD66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KE66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KF66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KG66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KH66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KI66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KJ66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KK66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KL66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KM66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="KN66" s="18" t="s">
+      <c r="IV66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="IW66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="IX66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="IY66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="IZ66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JA66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JB66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JC66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JD66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JE66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JF66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JG66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JH66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JI66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JJ66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JK66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JL66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JM66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JN66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JO66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JP66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JQ66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JR66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JS66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JT66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JU66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JV66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JW66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JX66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JY66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JZ66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KA66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KB66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KC66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KD66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KE66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KF66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KG66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KH66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KI66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KJ66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KK66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KL66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KM66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="KN66" s="12" t="s">
         <v>92</v>
       </c>
       <c r="KO66" s="12" t="s">
@@ -18549,8 +18558,8 @@
       <c r="IE67" s="5" t="n"/>
       <c r="IF67" s="5" t="n"/>
       <c r="IQ67" s="5" t="n"/>
-      <c r="IV67" s="18" t="s">
-        <v>92</v>
+      <c r="IV67" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="KG67" s="12" t="s">
         <v>0</v>
@@ -18582,8 +18591,8 @@
       <c r="IE68" s="5" t="n"/>
       <c r="IF68" s="5" t="n"/>
       <c r="IQ68" s="5" t="n"/>
-      <c r="IV68" s="18" t="s">
-        <v>92</v>
+      <c r="IV68" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY68" s="5" t="n"/>
       <c r="IZ68" s="5" t="n"/>
@@ -18631,8 +18640,8 @@
       <c r="IE69" s="5" t="n"/>
       <c r="IF69" s="5" t="n"/>
       <c r="IQ69" s="5" t="n"/>
-      <c r="IV69" s="18" t="s">
-        <v>92</v>
+      <c r="IV69" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JR69" s="5" t="n"/>
       <c r="KG69" s="12" t="s">
@@ -18665,8 +18674,8 @@
       <c r="IE70" s="5" t="n"/>
       <c r="IF70" s="5" t="n"/>
       <c r="IQ70" s="5" t="n"/>
-      <c r="IV70" s="18" t="s">
-        <v>92</v>
+      <c r="IV70" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JR70" s="5" t="n"/>
       <c r="KG70" s="12" t="s">
@@ -18695,8 +18704,8 @@
       <c r="IE71" s="5" t="n"/>
       <c r="IF71" s="5" t="n"/>
       <c r="IQ71" s="5" t="n"/>
-      <c r="IV71" s="18" t="s">
-        <v>92</v>
+      <c r="IV71" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IW71" s="12" t="s">
         <v>0</v>
@@ -18773,8 +18782,8 @@
       <c r="IE72" s="5" t="n"/>
       <c r="IF72" s="5" t="n"/>
       <c r="IQ72" s="5" t="n"/>
-      <c r="IV72" s="18" t="s">
-        <v>92</v>
+      <c r="IV72" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JR72" s="5" t="n"/>
       <c r="KG72" s="12" t="s">
@@ -18817,8 +18826,8 @@
       <c r="IO73" s="5" t="n"/>
       <c r="IP73" s="5" t="n"/>
       <c r="IQ73" s="5" t="n"/>
-      <c r="IV73" s="18" t="s">
-        <v>92</v>
+      <c r="IV73" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY73" s="5" t="n"/>
       <c r="IZ73" s="5" t="n"/>
@@ -18912,8 +18921,8 @@
       <c r="GS74" s="5" t="n"/>
       <c r="IE74" s="5" t="n"/>
       <c r="IF74" s="5" t="n"/>
-      <c r="IV74" s="18" t="s">
-        <v>92</v>
+      <c r="IV74" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY74" s="5" t="n"/>
       <c r="JR74" s="5" t="n"/>
@@ -18933,8 +18942,8 @@
       <c r="GS75" s="5" t="n"/>
       <c r="IE75" s="5" t="n"/>
       <c r="IF75" s="5" t="n"/>
-      <c r="IV75" s="18" t="s">
-        <v>92</v>
+      <c r="IV75" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY75" s="5" t="n"/>
       <c r="JR75" s="5" t="n"/>
@@ -18954,8 +18963,8 @@
       <c r="GS76" s="5" t="n"/>
       <c r="IE76" s="5" t="n"/>
       <c r="IF76" s="5" t="n"/>
-      <c r="IV76" s="18" t="s">
-        <v>92</v>
+      <c r="IV76" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY76" s="5" t="n"/>
       <c r="JR76" s="5" t="n"/>
@@ -18975,8 +18984,8 @@
       <c r="GS77" s="5" t="n"/>
       <c r="IE77" s="5" t="n"/>
       <c r="IF77" s="5" t="n"/>
-      <c r="IV77" s="18" t="s">
-        <v>92</v>
+      <c r="IV77" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JR77" s="5" t="n"/>
       <c r="KK77" s="5" t="n"/>
@@ -18998,8 +19007,8 @@
       <c r="ID78" s="5" t="n"/>
       <c r="IE78" s="5" t="n"/>
       <c r="IF78" s="5" t="n"/>
-      <c r="IV78" s="18" t="s">
-        <v>92</v>
+      <c r="IV78" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="IW78" s="12" t="s">
         <v>0</v>
@@ -19008,7 +19017,7 @@
         <v>0</v>
       </c>
       <c r="IY78" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="JR78" s="5" t="n"/>
       <c r="KK78" s="5" t="n"/>
@@ -19029,8 +19038,8 @@
       <c r="IC79" s="5" t="n"/>
       <c r="IE79" s="5" t="n"/>
       <c r="IF79" s="5" t="n"/>
-      <c r="IV79" s="18" t="s">
-        <v>92</v>
+      <c r="IV79" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JR79" s="5" t="n"/>
       <c r="KK79" s="5" t="n"/>
@@ -19059,8 +19068,8 @@
       <c r="ID80" s="5" t="n"/>
       <c r="IE80" s="5" t="n"/>
       <c r="IF80" s="5" t="n"/>
-      <c r="IV80" s="18" t="s">
-        <v>92</v>
+      <c r="IV80" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY80" s="5" t="n"/>
       <c r="JR80" s="5" t="n"/>
@@ -19088,8 +19097,8 @@
       <c r="GU81" s="5" t="n"/>
       <c r="IE81" s="5" t="n"/>
       <c r="IF81" s="5" t="n"/>
-      <c r="IV81" s="18" t="s">
-        <v>92</v>
+      <c r="IV81" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY81" s="5" t="n"/>
       <c r="JR81" s="5" t="n"/>
@@ -19117,8 +19126,8 @@
       <c r="IE82" s="5" t="n"/>
       <c r="IF82" s="5" t="n"/>
       <c r="IG82" s="5" t="n"/>
-      <c r="IV82" s="18" t="s">
-        <v>92</v>
+      <c r="IV82" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY82" s="5" t="n"/>
       <c r="IZ82" s="5" t="n"/>
@@ -19310,8 +19319,8 @@
       <c r="IE83" s="5" t="n"/>
       <c r="IF83" s="5" t="n"/>
       <c r="IG83" s="5" t="n"/>
-      <c r="IV83" s="18" t="s">
-        <v>92</v>
+      <c r="IV83" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY83" s="5" t="n"/>
       <c r="IZ83" s="5" t="n"/>
@@ -19532,8 +19541,8 @@
       <c r="IN84" s="5" t="n"/>
       <c r="IO84" s="5" t="n"/>
       <c r="IP84" s="5" t="n"/>
-      <c r="IV84" s="18" t="s">
-        <v>92</v>
+      <c r="IV84" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY84" s="9" t="n"/>
       <c r="IZ84" s="9" t="n"/>
@@ -19680,8 +19689,8 @@
       <c r="IF85" s="5" t="n"/>
       <c r="IG85" s="5" t="n"/>
       <c r="IP85" s="5" t="n"/>
-      <c r="IV85" s="18" t="s">
-        <v>92</v>
+      <c r="IV85" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY85" s="9" t="n"/>
       <c r="IZ85" s="9" t="n"/>
@@ -19722,8 +19731,8 @@
       <c r="HZ86" s="5" t="n"/>
       <c r="IA86" s="5" t="n"/>
       <c r="IP86" s="5" t="n"/>
-      <c r="IV86" s="18" t="s">
-        <v>92</v>
+      <c r="IV86" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY86" s="14" t="n"/>
       <c r="IZ86" s="14" t="n"/>
@@ -19761,8 +19770,8 @@
       <c r="HZ87" s="5" t="n"/>
       <c r="IA87" s="5" t="n"/>
       <c r="IP87" s="5" t="n"/>
-      <c r="IV87" s="18" t="s">
-        <v>92</v>
+      <c r="IV87" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY87" s="14" t="n"/>
       <c r="IZ87" s="14" t="n"/>
@@ -19800,8 +19809,8 @@
       <c r="HZ88" s="5" t="n"/>
       <c r="IA88" s="5" t="n"/>
       <c r="IP88" s="5" t="n"/>
-      <c r="IV88" s="18" t="s">
-        <v>92</v>
+      <c r="IV88" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY88" s="9" t="n"/>
       <c r="IZ88" s="9" t="n"/>
@@ -19866,8 +19875,8 @@
       <c r="HZ89" s="5" t="n"/>
       <c r="IA89" s="5" t="n"/>
       <c r="IP89" s="5" t="n"/>
-      <c r="IV89" s="18" t="s">
-        <v>92</v>
+      <c r="IV89" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY89" s="5" t="n"/>
       <c r="IZ89" s="5" t="n"/>
@@ -19935,8 +19944,8 @@
       <c r="HZ90" s="5" t="n"/>
       <c r="IA90" s="5" t="n"/>
       <c r="IP90" s="5" t="n"/>
-      <c r="IV90" s="18" t="s">
-        <v>92</v>
+      <c r="IV90" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY90" s="5" t="n"/>
       <c r="JD90" s="5" t="n"/>
@@ -19965,8 +19974,8 @@
       <c r="HM91" s="5" t="n"/>
       <c r="IA91" s="5" t="n"/>
       <c r="IP91" s="5" t="n"/>
-      <c r="IV91" s="18" t="s">
-        <v>92</v>
+      <c r="IV91" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY91" s="5" t="n"/>
       <c r="JD91" s="5" t="n"/>
@@ -19995,8 +20004,8 @@
       <c r="HM92" s="5" t="n"/>
       <c r="IA92" s="5" t="n"/>
       <c r="IP92" s="5" t="n"/>
-      <c r="IV92" s="18" t="s">
-        <v>92</v>
+      <c r="IV92" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY92" s="5" t="n"/>
       <c r="JD92" s="5" t="n"/>
@@ -20026,8 +20035,8 @@
       <c r="HM93" s="5" t="n"/>
       <c r="IA93" s="5" t="n"/>
       <c r="IP93" s="5" t="n"/>
-      <c r="IV93" s="18" t="s">
-        <v>92</v>
+      <c r="IV93" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY93" s="5" t="n"/>
       <c r="JS93" s="5" t="n"/>
@@ -20055,8 +20064,8 @@
       <c r="HM94" s="5" t="n"/>
       <c r="IA94" s="5" t="n"/>
       <c r="IP94" s="5" t="n"/>
-      <c r="IV94" s="18" t="s">
-        <v>92</v>
+      <c r="IV94" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY94" s="5" t="n"/>
       <c r="IZ94" s="5" t="n"/>
@@ -20268,8 +20277,8 @@
       <c r="HM95" s="5" t="n"/>
       <c r="IA95" s="5" t="n"/>
       <c r="IP95" s="5" t="n"/>
-      <c r="IV95" s="18" t="s">
-        <v>92</v>
+      <c r="IV95" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY95" s="5" t="n"/>
       <c r="JS95" s="5" t="n"/>
@@ -20304,8 +20313,8 @@
       <c r="HM96" s="5" t="n"/>
       <c r="IA96" s="5" t="n"/>
       <c r="IP96" s="5" t="n"/>
-      <c r="IV96" s="18" t="s">
-        <v>92</v>
+      <c r="IV96" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY96" s="5" t="n"/>
       <c r="JS96" s="5" t="n"/>
@@ -20366,8 +20375,8 @@
       <c r="IN97" s="5" t="n"/>
       <c r="IO97" s="5" t="n"/>
       <c r="IP97" s="5" t="n"/>
-      <c r="IV97" s="18" t="s">
-        <v>92</v>
+      <c r="IV97" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY97" s="5" t="n"/>
       <c r="JS97" s="5" t="n"/>
@@ -20397,7 +20406,7 @@
       <c r="GR98" s="5" t="n"/>
       <c r="HD98" s="5" t="n"/>
       <c r="HJ98" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="HL98" s="5" t="n"/>
       <c r="HM98" s="5" t="n"/>
@@ -20407,8 +20416,8 @@
       <c r="II98" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV98" s="18" t="s">
-        <v>92</v>
+      <c r="IV98" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY98" s="5" t="n"/>
       <c r="JS98" s="5" t="n"/>
@@ -20447,8 +20456,8 @@
       <c r="II99" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV99" s="18" t="s">
-        <v>92</v>
+      <c r="IV99" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY99" s="5" t="n"/>
       <c r="JS99" s="5" t="n"/>
@@ -20531,7 +20540,7 @@
         <v>0</v>
       </c>
       <c r="IA100" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="IB100" s="12" t="s">
         <v>0</v>
@@ -20593,8 +20602,8 @@
       <c r="IU100" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV100" s="18" t="s">
-        <v>92</v>
+      <c r="IV100" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY100" s="5" t="n"/>
       <c r="JS100" s="5" t="n"/>
@@ -20639,8 +20648,8 @@
       <c r="HK101" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV101" s="18" t="s">
-        <v>92</v>
+      <c r="IV101" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY101" s="5" t="n"/>
       <c r="IZ101" s="5" t="n"/>
@@ -20698,8 +20707,8 @@
       <c r="HJ102" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV102" s="18" t="s">
-        <v>92</v>
+      <c r="IV102" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY102" s="5" t="n"/>
       <c r="IZ102" s="5" t="n"/>
@@ -20748,7 +20757,7 @@
       <c r="GB103" s="5" t="n"/>
       <c r="GC103" s="5" t="n"/>
       <c r="GE103" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="GG103" s="5" t="n"/>
       <c r="GH103" s="5" t="n"/>
@@ -20762,7 +20771,7 @@
       <c r="GW103" s="5" t="n"/>
       <c r="GX103" s="5" t="n"/>
       <c r="HA103" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="HC103" s="5" t="n"/>
       <c r="HD103" s="5" t="n"/>
@@ -20809,8 +20818,8 @@
       <c r="IP103" s="5" t="n"/>
       <c r="IQ103" s="5" t="n"/>
       <c r="IR103" s="5" t="n"/>
-      <c r="IV103" s="18" t="s">
-        <v>92</v>
+      <c r="IV103" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY103" s="5" t="n"/>
       <c r="IZ103" s="5" t="n"/>
@@ -20883,8 +20892,8 @@
       <c r="IF104" s="5" t="n"/>
       <c r="IG104" s="5" t="n"/>
       <c r="IR104" s="5" t="n"/>
-      <c r="IV104" s="18" t="s">
-        <v>92</v>
+      <c r="IV104" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY104" s="5" t="n"/>
       <c r="IZ104" s="5" t="n"/>
@@ -20897,7 +20906,7 @@
       <c r="KR104" s="5" t="n"/>
       <c r="KS104" s="5" t="n"/>
       <c r="KV104" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="KX104" s="5" t="n"/>
       <c r="KY104" s="5" t="n"/>
@@ -20950,8 +20959,8 @@
       <c r="HM105" s="5" t="n"/>
       <c r="IF105" s="5" t="n"/>
       <c r="IR105" s="5" t="n"/>
-      <c r="IV105" s="18" t="s">
-        <v>92</v>
+      <c r="IV105" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JS105" s="5" t="n"/>
       <c r="KL105" s="5" t="n"/>
@@ -20974,7 +20983,7 @@
       </c>
       <c r="DB106" s="5" t="n"/>
       <c r="EH106" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="EI106" s="12" t="s">
         <v>0</v>
@@ -21148,7 +21157,7 @@
         <v>0</v>
       </c>
       <c r="GN106" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="GO106" s="12" t="s">
         <v>0</v>
@@ -21219,8 +21228,8 @@
       <c r="HM106" s="5" t="n"/>
       <c r="IF106" s="5" t="n"/>
       <c r="IR106" s="5" t="n"/>
-      <c r="IV106" s="18" t="s">
-        <v>92</v>
+      <c r="IV106" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IW106" s="12" t="s">
         <v>0</v>
@@ -21229,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="IY106" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="JS106" s="5" t="n"/>
       <c r="KL106" s="5" t="n"/>
@@ -21278,8 +21287,8 @@
       <c r="HM107" s="5" t="n"/>
       <c r="IF107" s="5" t="n"/>
       <c r="IR107" s="5" t="n"/>
-      <c r="IV107" s="18" t="s">
-        <v>92</v>
+      <c r="IV107" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JS107" s="5" t="n"/>
       <c r="KL107" s="5" t="n"/>
@@ -21312,8 +21321,8 @@
       <c r="HM108" s="5" t="n"/>
       <c r="IF108" s="5" t="n"/>
       <c r="IR108" s="5" t="n"/>
-      <c r="IV108" s="18" t="s">
-        <v>92</v>
+      <c r="IV108" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JS108" s="5" t="n"/>
       <c r="KL108" s="5" t="n"/>
@@ -21364,7 +21373,7 @@
       <c r="GX109" s="5" t="n"/>
       <c r="GY109" s="5" t="n"/>
       <c r="HA109" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="HC109" s="5" t="n"/>
       <c r="HD109" s="5" t="n"/>
@@ -21374,13 +21383,13 @@
       <c r="HH109" s="5" t="n"/>
       <c r="HI109" s="5" t="n"/>
       <c r="HK109" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="HM109" s="5" t="n"/>
       <c r="IF109" s="5" t="n"/>
       <c r="IR109" s="5" t="n"/>
-      <c r="IV109" s="18" t="s">
-        <v>92</v>
+      <c r="IV109" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY109" s="5" t="n"/>
       <c r="JS109" s="5" t="n"/>
@@ -21413,8 +21422,8 @@
       <c r="HM110" s="5" t="n"/>
       <c r="IF110" s="5" t="n"/>
       <c r="IR110" s="5" t="n"/>
-      <c r="IV110" s="18" t="s">
-        <v>92</v>
+      <c r="IV110" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY110" s="5" t="n"/>
       <c r="JS110" s="5" t="n"/>
@@ -21446,8 +21455,8 @@
       <c r="HM111" s="5" t="n"/>
       <c r="IF111" s="5" t="n"/>
       <c r="IR111" s="5" t="n"/>
-      <c r="IV111" s="18" t="s">
-        <v>92</v>
+      <c r="IV111" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY111" s="5" t="n"/>
       <c r="JS111" s="5" t="n"/>
@@ -21480,8 +21489,8 @@
       <c r="HM112" s="5" t="n"/>
       <c r="IF112" s="5" t="n"/>
       <c r="IR112" s="5" t="n"/>
-      <c r="IV112" s="18" t="s">
-        <v>92</v>
+      <c r="IV112" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY112" s="5" t="n"/>
       <c r="JS112" s="5" t="n"/>
@@ -21514,8 +21523,8 @@
       <c r="HM113" s="5" t="n"/>
       <c r="IF113" s="5" t="n"/>
       <c r="IR113" s="5" t="n"/>
-      <c r="IV113" s="18" t="s">
-        <v>92</v>
+      <c r="IV113" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY113" s="5" t="n"/>
       <c r="JS113" s="5" t="n"/>
@@ -21548,8 +21557,8 @@
       <c r="HM114" s="5" t="n"/>
       <c r="IF114" s="5" t="n"/>
       <c r="IR114" s="5" t="n"/>
-      <c r="IV114" s="18" t="s">
-        <v>92</v>
+      <c r="IV114" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="IY114" s="5" t="n"/>
       <c r="JS114" s="5" t="n"/>
@@ -21582,8 +21591,8 @@
       <c r="HM115" s="5" t="n"/>
       <c r="IF115" s="5" t="n"/>
       <c r="IR115" s="5" t="n"/>
-      <c r="IV115" s="18" t="s">
-        <v>92</v>
+      <c r="IV115" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY115" s="5" t="n"/>
       <c r="JS115" s="5" t="n"/>
@@ -21615,8 +21624,8 @@
       <c r="HM116" s="5" t="n"/>
       <c r="IF116" s="5" t="n"/>
       <c r="IR116" s="5" t="n"/>
-      <c r="IV116" s="18" t="s">
-        <v>92</v>
+      <c r="IV116" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY116" s="5" t="n"/>
       <c r="JS116" s="5" t="n"/>
@@ -21648,8 +21657,8 @@
       <c r="HM117" s="5" t="n"/>
       <c r="IF117" s="5" t="n"/>
       <c r="IR117" s="5" t="n"/>
-      <c r="IV117" s="18" t="s">
-        <v>92</v>
+      <c r="IV117" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY117" s="5" t="n"/>
       <c r="JS117" s="5" t="n"/>
@@ -21681,8 +21690,8 @@
       <c r="HM118" s="5" t="n"/>
       <c r="IF118" s="5" t="n"/>
       <c r="IR118" s="5" t="n"/>
-      <c r="IV118" s="18" t="s">
-        <v>92</v>
+      <c r="IV118" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY118" s="5" t="n"/>
       <c r="JS118" s="5" t="n"/>
@@ -21714,8 +21723,8 @@
       <c r="HM119" s="5" t="n"/>
       <c r="IF119" s="5" t="n"/>
       <c r="IR119" s="5" t="n"/>
-      <c r="IV119" s="18" t="s">
-        <v>92</v>
+      <c r="IV119" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IY119" s="5" t="n"/>
       <c r="JS119" s="5" t="n"/>
@@ -21749,8 +21758,8 @@
       <c r="IF120" s="5" t="n"/>
       <c r="IR120" s="5" t="n"/>
       <c r="IS120" s="5" t="n"/>
-      <c r="IV120" s="18" t="s">
-        <v>92</v>
+      <c r="IV120" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IX120" s="5" t="n"/>
       <c r="IY120" s="5" t="n"/>
@@ -21800,8 +21809,8 @@
       <c r="IG121" s="5" t="n"/>
       <c r="IR121" s="5" t="n"/>
       <c r="IS121" s="5" t="n"/>
-      <c r="IV121" s="18" t="s">
-        <v>92</v>
+      <c r="IV121" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IX121" s="5" t="n"/>
       <c r="IY121" s="5" t="n"/>
@@ -21951,7 +21960,7 @@
       <c r="GL122" s="5" t="n"/>
       <c r="GM122" s="5" t="n"/>
       <c r="GP122" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="GS122" s="5" t="n"/>
       <c r="GT122" s="5" t="n"/>
@@ -21988,14 +21997,14 @@
       <c r="HY122" s="5" t="n"/>
       <c r="HZ122" s="5" t="n"/>
       <c r="IC122" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="IE122" s="5" t="n"/>
       <c r="IF122" s="5" t="n"/>
       <c r="IG122" s="5" t="n"/>
       <c r="IH122" s="5" t="n"/>
       <c r="IJ122" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="IL122" s="5" t="n"/>
       <c r="IM122" s="5" t="n"/>
@@ -22005,8 +22014,8 @@
       <c r="IQ122" s="5" t="n"/>
       <c r="IR122" s="5" t="n"/>
       <c r="IS122" s="5" t="n"/>
-      <c r="IV122" s="18" t="s">
-        <v>92</v>
+      <c r="IV122" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IX122" s="5" t="n"/>
       <c r="IY122" s="5" t="n"/>
@@ -22039,7 +22048,7 @@
       <c r="KB122" s="5" t="n"/>
       <c r="KC122" s="5" t="n"/>
       <c r="KG122" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="KJ122" s="5" t="n"/>
       <c r="KK122" s="5" t="n"/>
@@ -22234,8 +22243,8 @@
       <c r="IQ123" s="5" t="n"/>
       <c r="IR123" s="5" t="n"/>
       <c r="IS123" s="5" t="n"/>
-      <c r="IV123" s="18" t="s">
-        <v>92</v>
+      <c r="IV123" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IX123" s="5" t="n"/>
       <c r="IY123" s="5" t="n"/>
@@ -22316,8 +22325,8 @@
       <c r="IJ124" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV124" s="18" t="s">
-        <v>92</v>
+      <c r="IV124" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="KG124" s="12" t="s">
         <v>0</v>
@@ -22358,8 +22367,8 @@
       <c r="IJ125" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV125" s="18" t="s">
-        <v>92</v>
+      <c r="IV125" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="KG125" s="12" t="s">
         <v>0</v>
@@ -22396,8 +22405,8 @@
       <c r="IJ126" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV126" s="18" t="s">
-        <v>92</v>
+      <c r="IV126" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="KG126" s="12" t="s">
         <v>0</v>
@@ -22433,8 +22442,8 @@
       <c r="IJ127" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV127" s="18" t="s">
-        <v>92</v>
+      <c r="IV127" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="KG127" s="12" t="s">
         <v>0</v>
@@ -22855,8 +22864,8 @@
       <c r="IU128" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV128" s="18" t="s">
-        <v>92</v>
+      <c r="IV128" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IW128" s="12" t="s">
         <v>0</v>
@@ -22979,7 +22988,7 @@
         <v>0</v>
       </c>
       <c r="KK128" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="KL128" s="12" t="s">
         <v>0</v>
@@ -23108,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="MB128" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="MC128" s="12" t="s">
         <v>0</v>
@@ -23151,7 +23160,7 @@
       </c>
       <c r="CI129" s="5" t="n"/>
       <c r="DB129" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="DC129" s="12" t="s">
         <v>0</v>
@@ -23210,8 +23219,8 @@
       <c r="GP129" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV129" s="18" t="s">
-        <v>92</v>
+      <c r="IV129" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="KP129" s="12" t="s">
         <v>0</v>
@@ -23229,7 +23238,7 @@
       <c r="BO130" s="5" t="n"/>
       <c r="BP130" s="5" t="n"/>
       <c r="CD130" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="CE130" s="12" t="s">
         <v>0</v>
@@ -23247,8 +23256,8 @@
       <c r="GP130" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="IV130" s="18" t="s">
-        <v>92</v>
+      <c r="IV130" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="KP130" s="12" t="s">
         <v>0</v>
@@ -23282,8 +23291,8 @@
       <c r="GP131" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="IV131" s="18" t="s">
-        <v>92</v>
+      <c r="IV131" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JS131" s="5" t="n"/>
       <c r="JV131" s="5" t="n"/>
@@ -23304,7 +23313,7 @@
       <c r="KM131" s="5" t="n"/>
       <c r="KN131" s="5" t="n"/>
       <c r="KP131" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="KR131" s="5" t="n"/>
       <c r="KS131" s="5" t="n"/>
@@ -23394,8 +23403,8 @@
         <v>0</v>
       </c>
       <c r="IR132" s="5" t="n"/>
-      <c r="IV132" s="18" t="s">
-        <v>92</v>
+      <c r="IV132" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JS132" s="5" t="n"/>
       <c r="JV132" s="5" t="n"/>
@@ -23439,8 +23448,8 @@
         <v>0</v>
       </c>
       <c r="IR133" s="5" t="n"/>
-      <c r="IV133" s="18" t="s">
-        <v>92</v>
+      <c r="IV133" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JS133" s="5" t="n"/>
       <c r="JV133" s="5" t="n"/>
@@ -23483,15 +23492,15 @@
         <v>0</v>
       </c>
       <c r="IR134" s="5" t="n"/>
-      <c r="IV134" s="18" t="s">
-        <v>92</v>
+      <c r="IV134" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JS134" s="5" t="n"/>
       <c r="KB134" s="5" t="n"/>
       <c r="KL134" s="5" t="n"/>
       <c r="LE134" s="5" t="n"/>
       <c r="LP134" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="LQ134" s="12" t="s">
         <v>0</v>
@@ -23570,8 +23579,8 @@
         <v>0</v>
       </c>
       <c r="IR135" s="5" t="n"/>
-      <c r="IV135" s="18" t="s">
-        <v>92</v>
+      <c r="IV135" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="IW135" s="12" t="s">
         <v>0</v>
@@ -23676,8 +23685,8 @@
         <v>0</v>
       </c>
       <c r="IR136" s="5" t="n"/>
-      <c r="IV136" s="18" t="s">
-        <v>92</v>
+      <c r="IV136" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JO136" s="12" t="s">
         <v>0</v>
@@ -23714,7 +23723,7 @@
       <c r="BP137" s="5" t="n"/>
       <c r="CD137" s="5" t="n"/>
       <c r="CF137" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="CI137" s="5" t="n"/>
       <c r="CR137" s="5" t="n"/>
@@ -23735,8 +23744,8 @@
         <v>0</v>
       </c>
       <c r="IR137" s="5" t="n"/>
-      <c r="IV137" s="18" t="s">
-        <v>92</v>
+      <c r="IV137" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JO137" s="12" t="s">
         <v>0</v>
@@ -23791,8 +23800,8 @@
         <v>0</v>
       </c>
       <c r="IR138" s="5" t="n"/>
-      <c r="IV138" s="18" t="s">
-        <v>92</v>
+      <c r="IV138" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JE138" s="5" t="n"/>
       <c r="JF138" s="5" t="n"/>
@@ -23825,7 +23834,7 @@
       <c r="BO139" s="5" t="n"/>
       <c r="BP139" s="5" t="n"/>
       <c r="CD139" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="CE139" s="12" t="s">
         <v>0</v>
@@ -23858,8 +23867,8 @@
         <v>0</v>
       </c>
       <c r="IR139" s="5" t="n"/>
-      <c r="IV139" s="18" t="s">
-        <v>92</v>
+      <c r="IV139" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JE139" s="5" t="n"/>
       <c r="JF139" s="5" t="n"/>
@@ -23912,7 +23921,7 @@
       <c r="DB140" s="5" t="n"/>
       <c r="DC140" s="5" t="n"/>
       <c r="DF140" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="DH140" s="5" t="n"/>
       <c r="DI140" s="5" t="n"/>
@@ -23933,8 +23942,8 @@
         <v>0</v>
       </c>
       <c r="IR140" s="5" t="n"/>
-      <c r="IV140" s="18" t="s">
-        <v>92</v>
+      <c r="IV140" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JE140" s="5" t="n"/>
       <c r="JF140" s="5" t="n"/>
@@ -23945,7 +23954,7 @@
       <c r="JL140" s="5" t="n"/>
       <c r="JM140" s="5" t="n"/>
       <c r="JO140" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="JS140" s="5" t="n"/>
       <c r="JV140" s="5" t="n"/>
@@ -24080,8 +24089,8 @@
         <v>0</v>
       </c>
       <c r="IR141" s="5" t="n"/>
-      <c r="IV141" s="18" t="s">
-        <v>92</v>
+      <c r="IV141" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JH141" s="5" t="n"/>
       <c r="JI141" s="5" t="n"/>
@@ -24095,7 +24104,7 @@
       <c r="LE141" s="5" t="n"/>
       <c r="LF141" s="5" t="n"/>
       <c r="LP141" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="LQ141" s="12" t="s">
         <v>0</v>
@@ -24177,18 +24186,18 @@
       <c r="DL142" s="5" t="n"/>
       <c r="DM142" s="5" t="n"/>
       <c r="DS142" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="DU142" s="5" t="n"/>
       <c r="DX142" s="12" t="s">
         <v>0</v>
       </c>
       <c r="GP142" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="IR142" s="5" t="n"/>
-      <c r="IV142" s="18" t="s">
-        <v>92</v>
+      <c r="IV142" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="JH142" s="5" t="n"/>
       <c r="JI142" s="5" t="n"/>
@@ -24209,7 +24218,7 @@
       <c r="LX142" s="5" t="n"/>
       <c r="LY142" s="5" t="n"/>
       <c r="MH142" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="MI142" s="12" t="s">
         <v>0</v>
@@ -24254,8 +24263,8 @@
       <c r="DA143" s="5" t="n"/>
       <c r="DB143" s="5" t="n"/>
       <c r="DC143" s="5" t="n"/>
-      <c r="DF143" s="12" t="s">
-        <v>118</v>
+      <c r="DF143" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="DH143" s="5" t="n"/>
       <c r="DI143" s="5" t="n"/>
@@ -24276,8 +24285,8 @@
         <v>0</v>
       </c>
       <c r="IR143" s="5" t="n"/>
-      <c r="IV143" s="18" t="s">
-        <v>92</v>
+      <c r="IV143" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JE143" s="5" t="n"/>
       <c r="JF143" s="5" t="n"/>
@@ -24287,8 +24296,8 @@
       <c r="JK143" s="5" t="n"/>
       <c r="JL143" s="5" t="n"/>
       <c r="JM143" s="5" t="n"/>
-      <c r="JO143" s="18" t="s">
-        <v>92</v>
+      <c r="JO143" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="JS143" s="5" t="n"/>
       <c r="JV143" s="5" t="n"/>
@@ -24310,7 +24319,7 @@
       <c r="LP143" s="5" t="n"/>
       <c r="LQ143" s="5" t="n"/>
       <c r="LS143" s="12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="LU143" s="5" t="n"/>
       <c r="LV143" s="5" t="n"/>
@@ -24350,8 +24359,8 @@
       <c r="DA144" s="5" t="n"/>
       <c r="DB144" s="5" t="n"/>
       <c r="DC144" s="5" t="n"/>
-      <c r="DF144" s="12" t="s">
-        <v>0</v>
+      <c r="DF144" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="DH144" s="5" t="n"/>
       <c r="DI144" s="5" t="n"/>
@@ -24373,8 +24382,8 @@
         <v>0</v>
       </c>
       <c r="IR144" s="5" t="n"/>
-      <c r="IV144" s="18" t="s">
-        <v>92</v>
+      <c r="IV144" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JE144" s="5" t="n"/>
       <c r="JF144" s="5" t="n"/>
@@ -24385,8 +24394,8 @@
       <c r="JK144" s="5" t="n"/>
       <c r="JL144" s="5" t="n"/>
       <c r="JM144" s="5" t="n"/>
-      <c r="JO144" s="18" t="s">
-        <v>92</v>
+      <c r="JO144" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JS144" s="5" t="n"/>
       <c r="JY144" s="5" t="n"/>
@@ -24433,8 +24442,8 @@
       <c r="DA145" s="5" t="n"/>
       <c r="DB145" s="5" t="n"/>
       <c r="DC145" s="5" t="n"/>
-      <c r="DF145" s="12" t="s">
-        <v>0</v>
+      <c r="DF145" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="DH145" s="5" t="n"/>
       <c r="DI145" s="5" t="n"/>
@@ -24456,8 +24465,8 @@
         <v>0</v>
       </c>
       <c r="IR145" s="5" t="n"/>
-      <c r="IV145" s="18" t="s">
-        <v>92</v>
+      <c r="IV145" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JE145" s="5" t="n"/>
       <c r="JF145" s="5" t="n"/>
@@ -24468,8 +24477,8 @@
       <c r="JK145" s="5" t="n"/>
       <c r="JL145" s="5" t="n"/>
       <c r="JM145" s="5" t="n"/>
-      <c r="JO145" s="18" t="s">
-        <v>92</v>
+      <c r="JO145" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JS145" s="5" t="n"/>
       <c r="JY145" s="5" t="n"/>
@@ -24499,7 +24508,7 @@
       <c r="BO146" s="5" t="n"/>
       <c r="BP146" s="5" t="n"/>
       <c r="CD146" s="12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="CE146" s="12" t="s">
         <v>0</v>
@@ -24513,8 +24522,8 @@
       <c r="DA146" s="5" t="n"/>
       <c r="DB146" s="5" t="n"/>
       <c r="DC146" s="5" t="n"/>
-      <c r="DF146" s="12" t="s">
-        <v>0</v>
+      <c r="DF146" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="DS146" s="12" t="s">
         <v>0</v>
@@ -24527,11 +24536,11 @@
         <v>0</v>
       </c>
       <c r="IR146" s="5" t="n"/>
-      <c r="IV146" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JO146" s="18" t="s">
-        <v>92</v>
+      <c r="IV146" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JO146" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JS146" s="5" t="n"/>
       <c r="JY146" s="5" t="n"/>
@@ -24568,8 +24577,8 @@
       <c r="DA147" s="5" t="n"/>
       <c r="DB147" s="5" t="n"/>
       <c r="DC147" s="5" t="n"/>
-      <c r="DF147" s="12" t="s">
-        <v>0</v>
+      <c r="DF147" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="DS147" s="12" t="s">
         <v>0</v>
@@ -24582,11 +24591,11 @@
         <v>0</v>
       </c>
       <c r="IR147" s="5" t="n"/>
-      <c r="IV147" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JO147" s="18" t="s">
-        <v>92</v>
+      <c r="IV147" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JO147" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JS147" s="5" t="n"/>
       <c r="JY147" s="5" t="n"/>
@@ -24614,7 +24623,7 @@
       <c r="BD148" s="5" t="n"/>
       <c r="BE148" s="5" t="n"/>
       <c r="BG148" s="12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="BO148" s="5" t="n"/>
       <c r="BP148" s="5" t="n"/>
@@ -24628,47 +24637,47 @@
       <c r="DA148" s="5" t="n"/>
       <c r="DB148" s="5" t="n"/>
       <c r="DC148" s="5" t="n"/>
-      <c r="DF148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DG148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DH148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DI148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DL148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DM148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DN148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DO148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DP148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DQ148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DR148" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS148" s="12" t="s">
-        <v>0</v>
+      <c r="DF148" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DG148" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DH148" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DI148" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DJ148" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DK148" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DL148" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DM148" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DN148" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DO148" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DP148" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DQ148" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DR148" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DS148" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="DU148" s="5" t="n"/>
       <c r="DX148" s="12" t="s">
@@ -24678,65 +24687,65 @@
         <v>0</v>
       </c>
       <c r="IR148" s="5" t="n"/>
-      <c r="IV148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="IW148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="IX148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="IY148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="IZ148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JA148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JB148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JC148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JD148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JE148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JF148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JG148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JH148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JI148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JJ148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JK148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JL148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JM148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JN148" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="JO148" s="18" t="s">
-        <v>92</v>
+      <c r="IV148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="IW148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="IX148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="IY148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="IZ148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JA148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JB148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JC148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JD148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JE148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JF148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JG148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JH148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JI148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JJ148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JK148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JL148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JM148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JN148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="JO148" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="JS148" s="5" t="n"/>
       <c r="JY148" s="5" t="n"/>
@@ -24776,8 +24785,8 @@
       <c r="DA149" s="5" t="n"/>
       <c r="DB149" s="5" t="n"/>
       <c r="DC149" s="5" t="n"/>
-      <c r="DS149" s="12" t="s">
-        <v>0</v>
+      <c r="DS149" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="DU149" s="5" t="n"/>
       <c r="DX149" s="12" t="s">
@@ -24825,8 +24834,8 @@
       <c r="DA150" s="5" t="n"/>
       <c r="DB150" s="5" t="n"/>
       <c r="DC150" s="5" t="n"/>
-      <c r="DS150" s="12" t="s">
-        <v>0</v>
+      <c r="DS150" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="DU150" s="5" t="n"/>
       <c r="DX150" s="12" t="s">
@@ -24891,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="MZ150" s="12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="NJ150" s="5" t="n"/>
       <c r="NK150" s="5" t="n"/>
@@ -24942,8 +24951,8 @@
       <c r="DA151" s="5" t="n"/>
       <c r="DB151" s="5" t="n"/>
       <c r="DC151" s="5" t="n"/>
-      <c r="DS151" s="12" t="s">
-        <v>0</v>
+      <c r="DS151" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="DX151" s="12" t="s">
         <v>0</v>
@@ -24982,7 +24991,7 @@
       <c r="KY151" s="5" t="n"/>
       <c r="KZ151" s="5" t="n"/>
       <c r="LB151" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="LC151" s="5" t="n"/>
       <c r="LD151" s="5" t="n"/>
@@ -25036,8 +25045,8 @@
       <c r="CF152" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="DS152" s="12" t="s">
-        <v>0</v>
+      <c r="DS152" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="DX152" s="12" t="s">
         <v>0</v>
@@ -25066,7 +25075,7 @@
       <c r="AA153" s="2" t="n"/>
       <c r="AN153" s="5" t="n"/>
       <c r="AP153" s="12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AR153" s="5" t="n"/>
       <c r="AS153" s="5" t="n"/>
@@ -25084,8 +25093,8 @@
       <c r="CF153" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="DS153" s="12" t="s">
-        <v>0</v>
+      <c r="DS153" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="DX153" s="12" t="s">
         <v>0</v>
@@ -25123,8 +25132,8 @@
       <c r="CF154" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="DS154" s="12" t="s">
-        <v>0</v>
+      <c r="DS154" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="DX154" s="12" t="s">
         <v>0</v>
@@ -25153,106 +25162,106 @@
       <c r="AK155" s="3" t="n"/>
       <c r="AL155" s="3" t="n"/>
       <c r="AN155" s="12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AO155" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AP155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR155" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS155" s="12" t="s">
-        <v>0</v>
+      <c r="AP155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BL155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR155" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BS155" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="CF155" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="DS155" s="12" t="s">
-        <v>0</v>
+      <c r="DS155" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="DX155" s="12" t="s">
         <v>0</v>
@@ -25280,167 +25289,167 @@
       <c r="AJ156" s="3" t="n"/>
       <c r="AK156" s="3" t="n"/>
       <c r="AL156" s="3" t="n"/>
-      <c r="AP156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL156" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="CM156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CS156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CT156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CV156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CX156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CY156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CZ156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DA156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DB156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DD156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DE156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DF156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DG156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DH156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DI156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DL156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DM156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DN156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DO156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DP156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DQ156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DR156" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS156" s="12" t="s">
-        <v>0</v>
+      <c r="AP156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BS156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BT156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BU156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CD156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CE156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CF156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CG156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CH156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CJ156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CK156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CM156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CN156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CP156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CQ156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CR156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CS156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CT156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CU156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CW156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CX156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CY156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CZ156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DA156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DB156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DC156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DD156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DE156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DF156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DG156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DH156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DI156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DJ156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DK156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DL156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DM156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DN156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DO156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DP156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DQ156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DR156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DS156" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="DT156" s="12" t="s">
         <v>0</v>
@@ -26022,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="LE156" s="12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="LF156" s="12" t="s">
         <v>0</v>
@@ -26142,8 +26151,8 @@
       <c r="AL157" s="2" t="n"/>
       <c r="AM157" s="5" t="n"/>
       <c r="AN157" s="5" t="n"/>
-      <c r="AP157" s="12" t="s">
-        <v>0</v>
+      <c r="AP157" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="AS157" s="5" t="n"/>
       <c r="AT157" s="5" t="n"/>
@@ -26237,8 +26246,8 @@
       <c r="AL158" s="2" t="n"/>
       <c r="AM158" s="5" t="n"/>
       <c r="AN158" s="5" t="n"/>
-      <c r="AP158" s="12" t="s">
-        <v>0</v>
+      <c r="AP158" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="AS158" s="5" t="n"/>
       <c r="BO158" s="5" t="n"/>
@@ -26275,8 +26284,8 @@
       <c r="B159" s="2" t="n"/>
       <c r="AM159" s="5" t="n"/>
       <c r="AN159" s="5" t="n"/>
-      <c r="AP159" s="12" t="s">
-        <v>0</v>
+      <c r="AP159" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="AS159" s="5" t="n"/>
       <c r="BO159" s="5" t="n"/>
@@ -26315,8 +26324,8 @@
       <c r="B160" s="2" t="n"/>
       <c r="AM160" s="5" t="n"/>
       <c r="AN160" s="5" t="n"/>
-      <c r="AP160" s="12" t="s">
-        <v>0</v>
+      <c r="AP160" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="AS160" s="5" t="n"/>
       <c r="BO160" s="5" t="n"/>
@@ -26407,7 +26416,7 @@
       <c r="GL160" s="5" t="n"/>
       <c r="GM160" s="5" t="n"/>
       <c r="GP160" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="GS160" s="5" t="n"/>
       <c r="GT160" s="5" t="n"/>
@@ -26560,8 +26569,8 @@
       <c r="B161" s="2" t="n"/>
       <c r="AM161" s="5" t="n"/>
       <c r="AN161" s="5" t="n"/>
-      <c r="AP161" s="12" t="s">
-        <v>0</v>
+      <c r="AP161" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="AS161" s="5" t="n"/>
       <c r="BO161" s="5" t="n"/>
@@ -26634,7 +26643,7 @@
       <c r="ED161" s="5" t="n"/>
       <c r="EE161" s="5" t="n"/>
       <c r="EH161" s="12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="EK161" s="5" t="n"/>
       <c r="EL161" s="5" t="n"/>
@@ -26654,7 +26663,7 @@
       <c r="EZ161" s="5" t="n"/>
       <c r="FA161" s="5" t="n"/>
       <c r="FD161" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="FG161" s="5" t="n"/>
       <c r="FH161" s="5" t="n"/>
@@ -26717,7 +26726,7 @@
       <c r="HX161" s="5" t="n"/>
       <c r="HY161" s="5" t="n"/>
       <c r="IA161" s="12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="IC161" s="5" t="n"/>
       <c r="ID161" s="5" t="n"/>
@@ -26838,8 +26847,8 @@
       <c r="B162" s="2" t="n"/>
       <c r="AM162" s="5" t="n"/>
       <c r="AN162" s="5" t="n"/>
-      <c r="AP162" s="12" t="s">
-        <v>0</v>
+      <c r="AP162" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="AS162" s="5" t="n"/>
       <c r="BO162" s="5" t="n"/>
@@ -26920,8 +26929,8 @@
       <c r="W163" s="2" t="n"/>
       <c r="AM163" s="5" t="n"/>
       <c r="AN163" s="5" t="n"/>
-      <c r="AP163" s="12" t="s">
-        <v>0</v>
+      <c r="AP163" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="AS163" s="5" t="n"/>
       <c r="BO163" s="5" t="n"/>
@@ -26986,8 +26995,8 @@
       <c r="B164" s="2" t="n"/>
       <c r="AM164" s="5" t="n"/>
       <c r="AN164" s="5" t="n"/>
-      <c r="AP164" s="12" t="s">
-        <v>0</v>
+      <c r="AP164" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="AS164" s="5" t="n"/>
       <c r="BO164" s="9" t="n"/>
@@ -27035,8 +27044,8 @@
       <c r="B165" s="2" t="n"/>
       <c r="AM165" s="5" t="n"/>
       <c r="AN165" s="5" t="n"/>
-      <c r="AP165" s="12" t="s">
-        <v>0</v>
+      <c r="AP165" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="AS165" s="5" t="n"/>
       <c r="BO165" s="14" t="n"/>
@@ -27057,7 +27066,7 @@
       <c r="KG165" s="5" t="n"/>
       <c r="KW165" s="5" t="n"/>
       <c r="LJ165" s="12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="LK165" s="12" t="s">
         <v>0</v>
@@ -27091,8 +27100,8 @@
       <c r="B166" s="2" t="n"/>
       <c r="AM166" s="5" t="n"/>
       <c r="AN166" s="5" t="n"/>
-      <c r="AP166" s="12" t="s">
-        <v>0</v>
+      <c r="AP166" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="AS166" s="5" t="n"/>
       <c r="BO166" s="14" t="n"/>
@@ -27106,7 +27115,7 @@
       <c r="HM166" s="5" t="n"/>
       <c r="IC166" s="5" t="n"/>
       <c r="IR166" s="12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="IS166" s="12" t="s">
         <v>0</v>
@@ -27183,8 +27192,8 @@
       <c r="B167" s="2" t="n"/>
       <c r="AM167" s="5" t="n"/>
       <c r="AN167" s="5" t="n"/>
-      <c r="AP167" s="12" t="s">
-        <v>0</v>
+      <c r="AP167" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="AS167" s="5" t="n"/>
       <c r="BO167" s="14" t="n"/>
@@ -27251,8 +27260,8 @@
       <c r="B168" s="2" t="n"/>
       <c r="AM168" s="5" t="n"/>
       <c r="AN168" s="5" t="n"/>
-      <c r="AP168" s="12" t="s">
-        <v>0</v>
+      <c r="AP168" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="AS168" s="5" t="n"/>
       <c r="BO168" s="9" t="n"/>
@@ -27312,8 +27321,8 @@
       <c r="B169" s="2" t="n"/>
       <c r="AM169" s="5" t="n"/>
       <c r="AN169" s="5" t="n"/>
-      <c r="AP169" s="12" t="s">
-        <v>0</v>
+      <c r="AP169" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="AS169" s="5" t="n"/>
       <c r="BO169" s="5" t="n"/>
@@ -27375,8 +27384,8 @@
       <c r="B170" s="2" t="n"/>
       <c r="AM170" s="5" t="n"/>
       <c r="AN170" s="5" t="n"/>
-      <c r="AP170" s="12" t="s">
-        <v>0</v>
+      <c r="AP170" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="AS170" s="5" t="n"/>
       <c r="BO170" s="5" t="n"/>
@@ -27456,8 +27465,8 @@
       <c r="B171" s="2" t="n"/>
       <c r="AM171" s="5" t="n"/>
       <c r="AN171" s="5" t="n"/>
-      <c r="AP171" s="12" t="s">
-        <v>0</v>
+      <c r="AP171" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="AS171" s="5" t="n"/>
       <c r="BO171" s="5" t="n"/>
@@ -27563,8 +27572,8 @@
       <c r="B172" s="2" t="n"/>
       <c r="AM172" s="5" t="n"/>
       <c r="AN172" s="5" t="n"/>
-      <c r="AP172" s="12" t="s">
-        <v>0</v>
+      <c r="AP172" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="AS172" s="5" t="n"/>
       <c r="BO172" s="5" t="n"/>
@@ -27598,7 +27607,7 @@
         <v>0</v>
       </c>
       <c r="JN172" s="12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="JV172" s="5" t="n"/>
       <c r="JZ172" s="12" t="s">
@@ -27636,8 +27645,8 @@
     <row customHeight="1" ht="14" r="173" s="13" spans="1:404">
       <c r="A173" s="2" t="n"/>
       <c r="B173" s="2" t="n"/>
-      <c r="AP173" s="12" t="s">
-        <v>0</v>
+      <c r="AP173" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="AS173" s="5" t="n"/>
       <c r="BO173" s="5" t="n"/>
@@ -27711,17 +27720,17 @@
       <c r="A174" s="2" t="n"/>
       <c r="B174" s="2" t="n"/>
       <c r="AA174" s="2" t="n"/>
-      <c r="AM174" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN174" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO174" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP174" s="12" t="s">
-        <v>0</v>
+      <c r="AM174" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN174" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO174" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP174" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="BO174" s="5" t="n"/>
       <c r="BP174" s="5" t="n"/>
@@ -27777,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="MC174" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="MF174" s="5" t="n"/>
       <c r="MK174" s="12" t="s">
@@ -27824,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="AW175" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="BO175" s="5" t="n"/>
       <c r="BP175" s="5" t="n"/>
@@ -27986,7 +27995,7 @@
       <c r="IC176" s="5" t="n"/>
       <c r="IR176" s="5" t="n"/>
       <c r="IV176" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="IZ176" s="5" t="n"/>
       <c r="JG176" s="12" t="s">
@@ -28080,10 +28089,10 @@
         <v>0</v>
       </c>
       <c r="NG177" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="NH177" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="NJ177" s="5" t="n"/>
       <c r="NK177" s="5" t="n"/>
@@ -28124,7 +28133,7 @@
       <c r="IF178" s="5" t="n"/>
       <c r="IG178" s="5" t="n"/>
       <c r="IR178" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="IS178" s="12" t="s">
         <v>0</v>
@@ -28596,7 +28605,7 @@
         <v>0</v>
       </c>
       <c r="NM182" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="NN182" s="3" t="n"/>
       <c r="NO182" s="3" t="n"/>
@@ -28695,7 +28704,7 @@
         <v>0</v>
       </c>
       <c r="JD183" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="JE183" s="12" t="s">
         <v>0</v>
@@ -28933,7 +28942,7 @@
         <v>0</v>
       </c>
       <c r="MW185" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="MX185" s="12" t="s">
         <v>0</v>
@@ -29272,11 +29281,11 @@
         <v>0</v>
       </c>
       <c r="HM190" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="IC190" s="5" t="n"/>
       <c r="IR190" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="IS190" s="12" t="s">
         <v>0</v>
@@ -29321,7 +29330,7 @@
         <v>0</v>
       </c>
       <c r="KI190" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="KJ190" s="12" t="s">
         <v>0</v>
@@ -29671,10 +29680,10 @@
       <c r="LZ196" s="5" t="n"/>
       <c r="MA196" s="5" t="n"/>
       <c r="MM196" s="12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="MN196" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="MR196" s="5" t="n"/>
       <c r="NB196" s="5" t="n"/>
@@ -31165,7 +31174,7 @@
       <c r="MG209" s="5" t="n"/>
       <c r="MH209" s="5" t="n"/>
       <c r="NF209" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="OE209" s="2" t="n"/>
       <c r="OF209" s="2" t="n"/>
@@ -36331,7 +36340,7 @@
       <c r="BY65" s="11" t="n"/>
       <c r="BZ65" s="11" t="n"/>
       <c r="CA65" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="CB65" s="11" t="n"/>
       <c r="CC65" s="11" t="n"/>
@@ -36371,7 +36380,7 @@
       <c r="DK65" s="11" t="n"/>
       <c r="DL65" s="11" t="n"/>
       <c r="DM65" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="DN65" s="11" t="n"/>
       <c r="DO65" s="11" t="n"/>
@@ -36411,7 +36420,7 @@
       <c r="EW65" s="11" t="n"/>
       <c r="EX65" s="11" t="n"/>
       <c r="EY65" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="EZ65" s="11" t="n"/>
       <c r="FA65" s="11" t="n"/>
@@ -36452,7 +36461,7 @@
       <c r="GJ65" s="11" t="n"/>
       <c r="GK65" s="11" t="n"/>
       <c r="GL65" s="18" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="GM65" s="11" t="n"/>
       <c r="GN65" s="11" t="n"/>
@@ -36490,7 +36499,7 @@
       <c r="HT65" s="11" t="n"/>
       <c r="HU65" s="11" t="n"/>
       <c r="HV65" s="12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="HW65" s="11" t="n"/>
       <c r="HX65" s="11" t="n"/>
@@ -36679,7 +36688,7 @@
       <c r="GJ66" s="11" t="n"/>
       <c r="GK66" s="11" t="n"/>
       <c r="GL66" s="18" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="GM66" s="11" t="n"/>
       <c r="GN66" s="11" t="n"/>
@@ -36771,7 +36780,7 @@
       <c r="GF67" s="11" t="n"/>
       <c r="GJ67" s="11" t="n"/>
       <c r="GL67" s="18" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="HK67" s="11" t="n"/>
       <c r="HV67" s="15" t="s">
@@ -36811,7 +36820,7 @@
       <c r="GG68" s="11" t="n"/>
       <c r="GJ68" s="11" t="n"/>
       <c r="GL68" s="18" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="HH68" s="11" t="n"/>
       <c r="HI68" s="11" t="n"/>
@@ -36856,7 +36865,7 @@
       <c r="GG69" s="11" t="n"/>
       <c r="GJ69" s="11" t="n"/>
       <c r="GL69" s="18" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="HH69" s="11" t="n"/>
       <c r="HV69" s="15" t="s">
@@ -36947,410 +36956,410 @@
       <c r="BJ70" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="BK70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CS70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CT70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CV70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CX70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CY70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CZ70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DA70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DB70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DD70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DE70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DF70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DG70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DH70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DI70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DL70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DM70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DN70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DO70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DP70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DQ70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DR70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DT70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DU70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DV70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DW70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DX70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DY70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="DZ70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EB70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EC70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="ED70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EE70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EF70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EG70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EH70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EI70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EJ70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EK70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EL70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EM70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EN70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EO70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EP70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EQ70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="ER70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="ES70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="ET70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EU70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EV70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EW70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EX70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EY70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="EZ70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FA70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FB70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FC70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FD70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FE70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FF70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FG70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FH70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FI70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FJ70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FK70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FL70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FM70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FN70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FO70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FP70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FQ70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FR70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FS70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FT70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FU70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FV70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FW70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FX70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FY70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="FZ70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GA70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GB70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GC70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GD70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GE70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GF70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GG70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GH70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GI70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GJ70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="GK70" s="15" t="s">
-        <v>0</v>
+      <c r="BK70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BL70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BS70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BT70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BU70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CD70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CE70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CF70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CG70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CH70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CJ70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CK70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CM70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CN70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CP70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CQ70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CR70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CS70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CT70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CU70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CW70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CX70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CY70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="CZ70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DA70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DB70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DC70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DD70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DE70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DF70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DG70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DH70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DI70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DJ70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DK70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DL70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DM70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DN70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DO70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DP70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DQ70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DR70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DS70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DT70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DU70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DV70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DW70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DX70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="DZ70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EA70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EB70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EC70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="ED70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EE70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EF70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EG70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EH70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EI70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EJ70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EK70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EL70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EM70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EN70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EO70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EP70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EQ70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="ER70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="ES70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="ET70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EU70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EV70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EW70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EX70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EY70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="EZ70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FA70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FB70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FC70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FD70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FE70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FF70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FG70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FH70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FI70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FJ70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FK70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FL70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FM70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FN70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FO70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FP70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FQ70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FR70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FS70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FT70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FU70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FV70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FW70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FX70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FY70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FZ70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="GA70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="GB70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="GC70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="GD70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="GE70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="GF70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="GG70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="GH70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="GI70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="GJ70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="GK70" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="GL70" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="GM70" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="GN70" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="GO70" s="18" t="s">
-        <v>92</v>
+        <v>127</v>
+      </c>
+      <c r="GM70" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="GN70" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="GO70" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="GP70" s="15" t="s">
         <v>0</v>
@@ -37449,7 +37458,7 @@
         <v>0</v>
       </c>
       <c r="HV70" s="12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="HW70" s="15" t="s">
         <v>0</v>
@@ -37538,15 +37547,15 @@
       <c r="AV71" s="11" t="n"/>
       <c r="AW71" s="11" t="n"/>
       <c r="AX71" s="11" t="n"/>
-      <c r="BK71" s="15" t="s">
-        <v>0</v>
+      <c r="BK71" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="BO71" s="11" t="n"/>
       <c r="BQ71" s="11" t="n"/>
       <c r="GH71" s="11" t="n"/>
       <c r="GJ71" s="11" t="n"/>
-      <c r="GO71" s="18" t="s">
-        <v>92</v>
+      <c r="GO71" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="HI71" s="11" t="n"/>
       <c r="IG71" s="15" t="s">
@@ -37579,15 +37588,15 @@
       </c>
       <c r="AU72" s="11" t="n"/>
       <c r="AV72" s="11" t="n"/>
-      <c r="BK72" s="15" t="s">
-        <v>0</v>
+      <c r="BK72" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="BO72" s="11" t="n"/>
       <c r="BR72" s="11" t="n"/>
       <c r="GG72" s="11" t="n"/>
       <c r="GJ72" s="11" t="n"/>
-      <c r="GO72" s="18" t="s">
-        <v>92</v>
+      <c r="GO72" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="HH72" s="11" t="n"/>
       <c r="IG72" s="15" t="s">
@@ -37620,15 +37629,15 @@
       </c>
       <c r="AU73" s="11" t="n"/>
       <c r="AV73" s="11" t="n"/>
-      <c r="BK73" s="15" t="s">
-        <v>0</v>
+      <c r="BK73" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="BO73" s="11" t="n"/>
       <c r="BS73" s="11" t="n"/>
       <c r="GF73" s="11" t="n"/>
       <c r="GJ73" s="11" t="n"/>
-      <c r="GO73" s="18" t="s">
-        <v>92</v>
+      <c r="GO73" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="HH73" s="11" t="n"/>
       <c r="HI73" s="11" t="n"/>
@@ -37664,8 +37673,8 @@
       </c>
       <c r="AU74" s="11" t="n"/>
       <c r="AV74" s="11" t="n"/>
-      <c r="BK74" s="15" t="s">
-        <v>0</v>
+      <c r="BK74" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="BN74" s="11" t="n"/>
       <c r="BO74" s="11" t="n"/>
@@ -37795,8 +37804,8 @@
       <c r="GI74" s="11" t="n"/>
       <c r="GJ74" s="11" t="n"/>
       <c r="GK74" s="11" t="n"/>
-      <c r="GO74" s="18" t="s">
-        <v>92</v>
+      <c r="GO74" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="HK74" s="11" t="n"/>
       <c r="HN74" s="11" t="n"/>
@@ -37818,7 +37827,7 @@
       <c r="IE74" s="11" t="n"/>
       <c r="IF74" s="11" t="n"/>
       <c r="IG74" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="II74" s="11" t="n"/>
       <c r="IJ74" s="11" t="n"/>
@@ -37851,15 +37860,15 @@
       </c>
       <c r="AU75" s="11" t="n"/>
       <c r="AV75" s="11" t="n"/>
-      <c r="BK75" s="15" t="s">
-        <v>0</v>
+      <c r="BK75" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="BN75" s="11" t="n"/>
       <c r="BO75" s="11" t="n"/>
       <c r="GJ75" s="11" t="n"/>
       <c r="GK75" s="11" t="n"/>
-      <c r="GO75" s="18" t="s">
-        <v>92</v>
+      <c r="GO75" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="HK75" s="11" t="n"/>
       <c r="HN75" s="11" t="n"/>
@@ -37896,13 +37905,13 @@
       </c>
       <c r="AU76" s="11" t="n"/>
       <c r="AV76" s="11" t="n"/>
-      <c r="BK76" s="15" t="s">
-        <v>0</v>
+      <c r="BK76" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="BO76" s="11" t="n"/>
       <c r="GJ76" s="11" t="n"/>
-      <c r="GO76" s="18" t="s">
-        <v>92</v>
+      <c r="GO76" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="HK76" s="11" t="n"/>
       <c r="HN76" s="11" t="n"/>
@@ -37940,49 +37949,49 @@
       </c>
       <c r="AU77" s="11" t="n"/>
       <c r="AV77" s="11" t="n"/>
-      <c r="AY77" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ77" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA77" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB77" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC77" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD77" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE77" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF77" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG77" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH77" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI77" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ77" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK77" s="15" t="s">
-        <v>0</v>
+      <c r="AY77" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ77" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA77" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB77" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC77" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD77" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE77" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF77" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG77" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH77" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI77" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ77" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK77" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="BO77" s="11" t="n"/>
       <c r="GJ77" s="11" t="n"/>
-      <c r="GO77" s="18" t="s">
-        <v>92</v>
+      <c r="GO77" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="HK77" s="11" t="n"/>
       <c r="HL77" s="11" t="n"/>
@@ -38018,16 +38027,16 @@
       </c>
       <c r="AU78" s="11" t="n"/>
       <c r="AV78" s="11" t="n"/>
-      <c r="AY78" s="15" t="s">
-        <v>0</v>
+      <c r="AY78" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="BK78" s="15" t="s">
         <v>0</v>
       </c>
       <c r="BO78" s="11" t="n"/>
       <c r="GJ78" s="11" t="n"/>
-      <c r="GO78" s="18" t="s">
-        <v>92</v>
+      <c r="GO78" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="HK78" s="11" t="n"/>
       <c r="HM78" s="11" t="n"/>
@@ -38066,16 +38075,16 @@
       </c>
       <c r="AU79" s="11" t="n"/>
       <c r="AV79" s="11" t="n"/>
-      <c r="AY79" s="15" t="s">
-        <v>0</v>
+      <c r="AY79" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="BK79" s="15" t="s">
         <v>0</v>
       </c>
       <c r="BO79" s="11" t="n"/>
       <c r="GJ79" s="11" t="n"/>
-      <c r="GO79" s="18" t="s">
-        <v>92</v>
+      <c r="GO79" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="HK79" s="11" t="n"/>
       <c r="HO79" s="11" t="n"/>
@@ -38117,8 +38126,8 @@
       </c>
       <c r="AU80" s="11" t="n"/>
       <c r="AV80" s="11" t="n"/>
-      <c r="AY80" s="15" t="s">
-        <v>0</v>
+      <c r="AY80" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="BB80" s="11" t="n"/>
       <c r="BC80" s="11" t="n"/>
@@ -38133,8 +38142,8 @@
       </c>
       <c r="BO80" s="11" t="n"/>
       <c r="GJ80" s="11" t="n"/>
-      <c r="GO80" s="18" t="s">
-        <v>92</v>
+      <c r="GO80" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="GX80" s="11" t="n"/>
       <c r="GY80" s="11" t="n"/>
@@ -38175,8 +38184,8 @@
       </c>
       <c r="AU81" s="11" t="n"/>
       <c r="AV81" s="11" t="n"/>
-      <c r="AY81" s="15" t="s">
-        <v>0</v>
+      <c r="AY81" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="BB81" s="11" t="n"/>
       <c r="BC81" s="11" t="n"/>
@@ -38191,8 +38200,8 @@
       </c>
       <c r="BO81" s="11" t="n"/>
       <c r="GJ81" s="11" t="n"/>
-      <c r="GO81" s="18" t="s">
-        <v>92</v>
+      <c r="GO81" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="GX81" s="11" t="n"/>
       <c r="GY81" s="11" t="n"/>
@@ -38233,8 +38242,8 @@
       </c>
       <c r="AU82" s="11" t="n"/>
       <c r="AV82" s="11" t="n"/>
-      <c r="AY82" s="15" t="s">
-        <v>0</v>
+      <c r="AY82" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="BB82" s="11" t="n"/>
       <c r="BC82" s="11" t="n"/>
@@ -38247,8 +38256,8 @@
       </c>
       <c r="BO82" s="11" t="n"/>
       <c r="GJ82" s="11" t="n"/>
-      <c r="GO82" s="18" t="s">
-        <v>92</v>
+      <c r="GO82" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="GX82" s="11" t="n"/>
       <c r="GY82" s="11" t="n"/>
@@ -38300,8 +38309,8 @@
       <c r="AT83" s="11" t="n"/>
       <c r="AU83" s="11" t="n"/>
       <c r="AV83" s="11" t="n"/>
-      <c r="AY83" s="15" t="s">
-        <v>0</v>
+      <c r="AY83" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="BB83" s="11" t="n"/>
       <c r="BC83" s="11" t="n"/>
@@ -38315,8 +38324,8 @@
       </c>
       <c r="BO83" s="11" t="n"/>
       <c r="GJ83" s="11" t="n"/>
-      <c r="GO83" s="18" t="s">
-        <v>92</v>
+      <c r="GO83" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="GX83" s="11" t="n"/>
       <c r="GZ83" s="11" t="n"/>
@@ -38363,14 +38372,14 @@
       <c r="S84" s="11" t="n"/>
       <c r="T84" s="11" t="n"/>
       <c r="AO84" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AS84" s="11" t="n"/>
       <c r="AT84" s="11" t="n"/>
       <c r="AU84" s="11" t="n"/>
       <c r="AV84" s="11" t="n"/>
-      <c r="AY84" s="12" t="s">
-        <v>163</v>
+      <c r="AY84" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="BB84" s="11" t="n"/>
       <c r="BC84" s="11" t="n"/>
@@ -38381,8 +38390,8 @@
       </c>
       <c r="BO84" s="11" t="n"/>
       <c r="GJ84" s="11" t="n"/>
-      <c r="GO84" s="18" t="s">
-        <v>92</v>
+      <c r="GO84" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="HA84" s="11" t="n"/>
       <c r="HB84" s="11" t="n"/>
@@ -38405,7 +38414,7 @@
       <c r="IM84" s="11" t="n"/>
       <c r="IN84" s="11" t="n"/>
       <c r="IQ84" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="IU84" s="11" t="n"/>
       <c r="IV84" s="11" t="n"/>
@@ -38451,8 +38460,8 @@
       </c>
       <c r="BO85" s="11" t="n"/>
       <c r="GJ85" s="11" t="n"/>
-      <c r="GO85" s="18" t="s">
-        <v>92</v>
+      <c r="GO85" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="GX85" s="11" t="n"/>
       <c r="GZ85" s="11" t="n"/>
@@ -38461,8 +38470,8 @@
       <c r="HC85" s="11" t="n"/>
       <c r="HD85" s="11" t="n"/>
       <c r="HE85" s="11" t="n"/>
-      <c r="HH85" s="18" t="s">
-        <v>92</v>
+      <c r="HH85" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="HK85" s="11" t="n"/>
       <c r="HN85" s="11" t="n"/>
@@ -38511,8 +38520,8 @@
       </c>
       <c r="BO86" s="11" t="n"/>
       <c r="GJ86" s="11" t="n"/>
-      <c r="GO86" s="18" t="s">
-        <v>92</v>
+      <c r="GO86" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="GX86" s="11" t="n"/>
       <c r="GY86" s="11" t="n"/>
@@ -38520,8 +38529,8 @@
       <c r="HC86" s="11" t="n"/>
       <c r="HD86" s="11" t="n"/>
       <c r="HE86" s="11" t="n"/>
-      <c r="HH86" s="18" t="s">
-        <v>92</v>
+      <c r="HH86" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="HK86" s="11" t="n"/>
       <c r="HN86" s="11" t="n"/>
@@ -38579,8 +38588,8 @@
       </c>
       <c r="BO87" s="11" t="n"/>
       <c r="GJ87" s="11" t="n"/>
-      <c r="GO87" s="18" t="s">
-        <v>92</v>
+      <c r="GO87" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="GX87" s="11" t="n"/>
       <c r="GY87" s="11" t="n"/>
@@ -38590,8 +38599,8 @@
       <c r="HC87" s="11" t="n"/>
       <c r="HD87" s="11" t="n"/>
       <c r="HE87" s="11" t="n"/>
-      <c r="HH87" s="18" t="s">
-        <v>92</v>
+      <c r="HH87" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="HK87" s="11" t="n"/>
       <c r="HN87" s="11" t="n"/>
@@ -38639,8 +38648,8 @@
       </c>
       <c r="BO88" s="11" t="n"/>
       <c r="GJ88" s="11" t="n"/>
-      <c r="GO88" s="18" t="s">
-        <v>92</v>
+      <c r="GO88" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="GX88" s="11" t="n"/>
       <c r="GY88" s="11" t="n"/>
@@ -38650,8 +38659,8 @@
       <c r="HC88" s="11" t="n"/>
       <c r="HD88" s="11" t="n"/>
       <c r="HE88" s="11" t="n"/>
-      <c r="HH88" s="18" t="s">
-        <v>92</v>
+      <c r="HH88" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="HK88" s="11" t="n"/>
       <c r="HM88" s="11" t="n"/>
@@ -38671,7 +38680,7 @@
       <c r="JW88" s="11" t="n"/>
       <c r="JZ88" s="11" t="n"/>
       <c r="KC88" s="12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="KD88" s="15" t="s">
         <v>0</v>
@@ -38698,7 +38707,7 @@
         <v>0</v>
       </c>
       <c r="KL88" s="12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="KZ88" s="11" t="n"/>
       <c r="LA88" s="11" t="n"/>
@@ -38721,11 +38730,11 @@
       </c>
       <c r="BO89" s="11" t="n"/>
       <c r="GJ89" s="11" t="n"/>
-      <c r="GO89" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="HH89" s="18" t="s">
-        <v>92</v>
+      <c r="GO89" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="HH89" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="HK89" s="11" t="n"/>
       <c r="HQ89" s="11" t="n"/>
@@ -38774,11 +38783,11 @@
       </c>
       <c r="BO90" s="11" t="n"/>
       <c r="GJ90" s="11" t="n"/>
-      <c r="GO90" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="HH90" s="18" t="s">
-        <v>92</v>
+      <c r="GO90" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="HH90" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="HK90" s="11" t="n"/>
       <c r="HQ90" s="11" t="n"/>
@@ -38824,65 +38833,65 @@
       </c>
       <c r="BO91" s="11" t="n"/>
       <c r="GJ91" s="11" t="n"/>
-      <c r="GO91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="GP91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="GQ91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="GR91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="GS91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="GT91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="GU91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="GV91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="GW91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="GX91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="GY91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="GZ91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="HA91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="HB91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="HC91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="HD91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="HE91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="HF91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="HG91" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="HH91" s="18" t="s">
-        <v>92</v>
+      <c r="GO91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="GP91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="GQ91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="GR91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="GS91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="GT91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="GU91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="GV91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="GW91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="GX91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="GY91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="GZ91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="HA91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="HB91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="HC91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="HD91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="HE91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="HF91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="HG91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="HH91" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="HK91" s="11" t="n"/>
       <c r="HL91" s="11" t="n"/>
@@ -38919,7 +38928,7 @@
       <c r="T92" s="11" t="n"/>
       <c r="Z92" s="11" t="n"/>
       <c r="AB92" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AC92" s="15" t="s">
         <v>0</v>
@@ -39210,7 +39219,7 @@
       <c r="IE94" s="11" t="n"/>
       <c r="IF94" s="11" t="n"/>
       <c r="IH94" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="II94" s="11" t="n"/>
       <c r="IJ94" s="11" t="n"/>
@@ -39908,7 +39917,7 @@
         <v>0</v>
       </c>
       <c r="HW97" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="HX97" s="15" t="s">
         <v>0</v>
@@ -40454,7 +40463,7 @@
       <c r="BZ103" s="11" t="n"/>
       <c r="CA103" s="11" t="n"/>
       <c r="CB103" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="CC103" s="11" t="n"/>
       <c r="CD103" s="11" t="n"/>
@@ -40560,7 +40569,7 @@
       <c r="FZ103" s="11" t="n"/>
       <c r="GA103" s="11" t="n"/>
       <c r="GB103" s="12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="GC103" s="11" t="n"/>
       <c r="GD103" s="11" t="n"/>
@@ -40609,7 +40618,7 @@
       <c r="HU103" s="11" t="n"/>
       <c r="HV103" s="11" t="n"/>
       <c r="HW103" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="HX103" s="11" t="n"/>
       <c r="HY103" s="11" t="n"/>
@@ -41634,7 +41643,7 @@
       <c r="KL117" s="11" t="n"/>
       <c r="KM117" s="11" t="n"/>
       <c r="KP117" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="KQ117" s="15" t="s">
         <v>0</v>
@@ -41643,7 +41652,7 @@
       <c r="KW117" s="11" t="n"/>
       <c r="KY117" s="11" t="n"/>
       <c r="KZ117" s="12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="LA117" s="11" t="n"/>
       <c r="LD117" s="11" t="n"/>
@@ -41719,10 +41728,10 @@
       <c r="KW118" s="11" t="n"/>
       <c r="KX118" s="11" t="n"/>
       <c r="KY118" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="KZ118" s="12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="LB118" s="11" t="n"/>
       <c r="LC118" s="11" t="n"/>
@@ -42346,7 +42355,7 @@
       <c r="KG125" s="11" t="n"/>
       <c r="KH125" s="11" t="n"/>
       <c r="KO125" s="12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="KP125" s="15" t="s">
         <v>0</v>
@@ -42503,7 +42512,7 @@
       <c r="Q127" s="11" t="n"/>
       <c r="T127" s="11" t="n"/>
       <c r="AB127" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AC127" s="15" t="s">
         <v>0</v>
@@ -42942,7 +42951,7 @@
       <c r="JZ131" s="11" t="n"/>
       <c r="KB131" s="11" t="n"/>
       <c r="KC131" s="12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="KD131" s="15" t="s">
         <v>0</v>
@@ -43214,7 +43223,7 @@
       <c r="KB134" s="11" t="n"/>
       <c r="KC134" s="11" t="n"/>
       <c r="KG134" s="12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="KH134" s="15" t="s">
         <v>0</v>
@@ -43361,7 +43370,7 @@
       <c r="Q136" s="11" t="n"/>
       <c r="T136" s="11" t="n"/>
       <c r="AB136" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AC136" s="15" t="s">
         <v>0</v>
@@ -43555,7 +43564,7 @@
         <v>0</v>
       </c>
       <c r="KG137" s="12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="KJ137" s="11" t="n"/>
       <c r="KK137" s="11" t="n"/>
@@ -43724,10 +43733,10 @@
       <c r="JQ139" s="11" t="n"/>
       <c r="JR139" s="11" t="n"/>
       <c r="KC139" s="12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="KD139" s="12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="KE139" s="15" t="s">
         <v>0</v>
@@ -43752,7 +43761,7 @@
       </c>
       <c r="LI139" s="11" t="n"/>
       <c r="LM139" s="12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="MD139" s="11" t="n"/>
       <c r="ME139" s="11" t="n"/>
@@ -43973,7 +43982,7 @@
       <c r="JQ140" s="11" t="n"/>
       <c r="JR140" s="11" t="n"/>
       <c r="KC140" s="12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="KD140" s="11" t="n"/>
       <c r="KF140" s="11" t="n"/>
@@ -44247,7 +44256,7 @@
       <c r="KF141" s="11" t="n"/>
       <c r="KG141" s="11" t="n"/>
       <c r="KQ141" s="12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="KR141" s="15" t="s">
         <v>0</v>
@@ -45591,7 +45600,7 @@
       <c r="AH16" s="11" t="n"/>
       <c r="AI16" s="11" t="n"/>
       <c r="AK16" s="12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AL16" s="11" t="n"/>
       <c r="AM16" s="11" t="n"/>
@@ -45614,7 +45623,7 @@
       <c r="AI17" s="11" t="n"/>
       <c r="AJ17" s="11" t="n"/>
       <c r="AK17" s="12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AN17" s="11" t="n"/>
       <c r="AP17" s="11" t="n"/>
@@ -45656,7 +45665,7 @@
       <c r="X19" s="11" t="n"/>
       <c r="Y19" s="11" t="n"/>
       <c r="AF19" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AI19" s="15" t="s">
         <v>0</v>
@@ -45719,7 +45728,7 @@
         <v>0</v>
       </c>
       <c r="AN21" s="12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="BF21" s="11" t="n"/>
       <c r="BG21" s="11" t="n"/>
@@ -45860,7 +45869,7 @@
       <c r="U26" s="11" t="n"/>
       <c r="X26" s="11" t="n"/>
       <c r="Z26" s="12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AA26" s="15" t="s">
         <v>0</v>
@@ -46089,7 +46098,7 @@
       <c r="N33" s="11" t="n"/>
       <c r="O33" s="11" t="n"/>
       <c r="S33" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="T33" s="15" t="s">
         <v>0</v>
@@ -46207,7 +46216,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="BA35" s="11" t="n"/>
       <c r="BP35" s="11" t="n"/>
@@ -46294,10 +46303,10 @@
       <c r="D38" s="11" t="n"/>
       <c r="E38" s="11" t="n"/>
       <c r="O38" s="17" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q38" s="15" t="s">
         <v>0</v>
@@ -46331,7 +46340,7 @@
         <v>0</v>
       </c>
       <c r="AW38" s="12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AX38" s="11" t="n"/>
       <c r="AY38" s="11" t="n"/>
@@ -46636,7 +46645,7 @@
         <v>0</v>
       </c>
       <c r="AI51" s="12" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AK51" s="11" t="n"/>
       <c r="BG51" s="11" t="n"/>
